--- a/BackTest/2019-11-15 BackTest ABT.xlsx
+++ b/BackTest/2019-11-15 BackTest ABT.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>11</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-25</v>
+      </c>
       <c r="L12" t="n">
         <v>246.2</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>12</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
       <c r="L13" t="n">
         <v>246.1</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>12</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-60</v>
+      </c>
       <c r="L14" t="n">
         <v>246.1</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>12</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-60</v>
+      </c>
       <c r="L15" t="n">
         <v>245.8</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>13</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-20</v>
+      </c>
       <c r="L16" t="n">
         <v>245.6</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>14</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-20</v>
+      </c>
       <c r="L17" t="n">
         <v>245.4</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>15</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
       <c r="L18" t="n">
         <v>245.4</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>16</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-14.28571428571428</v>
+      </c>
       <c r="L19" t="n">
         <v>245.3</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>16</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-14.28571428571428</v>
+      </c>
       <c r="L20" t="n">
         <v>245.2</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>16</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>20</v>
+      </c>
       <c r="L21" t="n">
         <v>245.1</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>16</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
       <c r="L22" t="n">
         <v>245.2</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>16</v>
       </c>
       <c r="K23" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>245.2</v>
@@ -1564,7 +1586,7 @@
         <v>17</v>
       </c>
       <c r="K26" t="n">
-        <v>-20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L26" t="n">
         <v>245.2</v>
@@ -1613,7 +1635,7 @@
         <v>20</v>
       </c>
       <c r="K27" t="n">
-        <v>16.66666666666666</v>
+        <v>60</v>
       </c>
       <c r="L27" t="n">
         <v>245.6</v>
@@ -1662,7 +1684,7 @@
         <v>25</v>
       </c>
       <c r="K28" t="n">
-        <v>-12.5</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L28" t="n">
         <v>245.4</v>
@@ -1711,7 +1733,7 @@
         <v>25</v>
       </c>
       <c r="K29" t="n">
-        <v>-12.5</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L29" t="n">
         <v>245.3</v>
@@ -1760,7 +1782,7 @@
         <v>26</v>
       </c>
       <c r="K30" t="n">
-        <v>-17.64705882352941</v>
+        <v>-20</v>
       </c>
       <c r="L30" t="n">
         <v>245.1</v>
@@ -1809,7 +1831,7 @@
         <v>27</v>
       </c>
       <c r="K31" t="n">
-        <v>-11.11111111111111</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L31" t="n">
         <v>245</v>
@@ -1860,7 +1882,7 @@
         <v>28</v>
       </c>
       <c r="K32" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>245</v>
@@ -1962,7 +1984,7 @@
         <v>29</v>
       </c>
       <c r="K34" t="n">
-        <v>5.88235294117647</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L34" t="n">
         <v>245.1</v>
@@ -2013,7 +2035,7 @@
         <v>32</v>
       </c>
       <c r="K35" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="L35" t="n">
         <v>244.9</v>
@@ -2064,7 +2086,7 @@
         <v>32</v>
       </c>
       <c r="K36" t="n">
-        <v>-15.78947368421053</v>
+        <v>-50</v>
       </c>
       <c r="L36" t="n">
         <v>244.6</v>
@@ -2115,7 +2137,7 @@
         <v>33</v>
       </c>
       <c r="K37" t="n">
-        <v>-5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>244.1</v>
@@ -2166,7 +2188,7 @@
         <v>34</v>
       </c>
       <c r="K38" t="n">
-        <v>-5.263157894736842</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L38" t="n">
         <v>244.2</v>
@@ -2217,7 +2239,7 @@
         <v>34</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L39" t="n">
         <v>244.3</v>
@@ -2268,7 +2290,7 @@
         <v>34</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L40" t="n">
         <v>244.5</v>
@@ -2370,7 +2392,7 @@
         <v>37</v>
       </c>
       <c r="K42" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L42" t="n">
         <v>244.3</v>
@@ -2421,7 +2443,7 @@
         <v>38</v>
       </c>
       <c r="K43" t="n">
-        <v>-9.090909090909092</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L43" t="n">
         <v>244.1</v>
@@ -2472,7 +2494,7 @@
         <v>39</v>
       </c>
       <c r="K44" t="n">
-        <v>-13.04347826086956</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L44" t="n">
         <v>243.7</v>
@@ -2523,7 +2545,7 @@
         <v>40</v>
       </c>
       <c r="K45" t="n">
-        <v>-8.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>243.7</v>
@@ -2574,7 +2596,7 @@
         <v>41</v>
       </c>
       <c r="K46" t="n">
-        <v>-8.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>243.8</v>
@@ -2625,7 +2647,7 @@
         <v>41</v>
       </c>
       <c r="K47" t="n">
-        <v>-23.80952380952381</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L47" t="n">
         <v>243.8</v>
@@ -2676,7 +2698,7 @@
         <v>44</v>
       </c>
       <c r="K48" t="n">
-        <v>-15.78947368421053</v>
+        <v>-40</v>
       </c>
       <c r="L48" t="n">
         <v>243.4</v>
@@ -2727,7 +2749,7 @@
         <v>45</v>
       </c>
       <c r="K49" t="n">
-        <v>-20</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L49" t="n">
         <v>242.9</v>
@@ -2778,7 +2800,7 @@
         <v>45</v>
       </c>
       <c r="K50" t="n">
-        <v>-15.78947368421053</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L50" t="n">
         <v>242.4</v>
@@ -2829,7 +2851,7 @@
         <v>45</v>
       </c>
       <c r="K51" t="n">
-        <v>-22.22222222222222</v>
+        <v>-25</v>
       </c>
       <c r="L51" t="n">
         <v>241.9</v>
@@ -2880,7 +2902,7 @@
         <v>46</v>
       </c>
       <c r="K52" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L52" t="n">
         <v>241.6</v>
@@ -2931,7 +2953,7 @@
         <v>47</v>
       </c>
       <c r="K53" t="n">
-        <v>-36.84210526315789</v>
+        <v>-50</v>
       </c>
       <c r="L53" t="n">
         <v>241.1</v>
@@ -2982,7 +3004,7 @@
         <v>47</v>
       </c>
       <c r="K54" t="n">
-        <v>-44.44444444444444</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L54" t="n">
         <v>240.7</v>
@@ -3033,7 +3055,7 @@
         <v>49</v>
       </c>
       <c r="K55" t="n">
-        <v>-17.64705882352941</v>
+        <v>-50</v>
       </c>
       <c r="L55" t="n">
         <v>240.4</v>
@@ -3084,7 +3106,7 @@
         <v>50</v>
       </c>
       <c r="K56" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L56" t="n">
         <v>240.1</v>
@@ -3135,7 +3157,7 @@
         <v>50</v>
       </c>
       <c r="K57" t="n">
-        <v>-17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
         <v>239.8</v>
@@ -3186,7 +3208,7 @@
         <v>53</v>
       </c>
       <c r="K58" t="n">
-        <v>-5.263157894736842</v>
+        <v>50</v>
       </c>
       <c r="L58" t="n">
         <v>240.1</v>
@@ -3237,7 +3259,7 @@
         <v>56</v>
       </c>
       <c r="K59" t="n">
-        <v>-18.18181818181818</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L59" t="n">
         <v>240.2</v>
@@ -3288,7 +3310,7 @@
         <v>60</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L60" t="n">
         <v>240.7</v>
@@ -3339,7 +3361,7 @@
         <v>61</v>
       </c>
       <c r="K61" t="n">
-        <v>-3.703703703703703</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L61" t="n">
         <v>241.1</v>
@@ -3390,7 +3412,7 @@
         <v>63</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L62" t="n">
         <v>241.4</v>
@@ -3441,7 +3463,7 @@
         <v>64</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L63" t="n">
         <v>241.9</v>
@@ -3492,7 +3514,7 @@
         <v>67</v>
       </c>
       <c r="K64" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L64" t="n">
         <v>242.7</v>
@@ -3543,7 +3565,7 @@
         <v>69</v>
       </c>
       <c r="K65" t="n">
-        <v>17.24137931034483</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L65" t="n">
         <v>243.5</v>
@@ -3594,7 +3616,7 @@
         <v>69</v>
       </c>
       <c r="K66" t="n">
-        <v>14.28571428571428</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L66" t="n">
         <v>244.2</v>
@@ -3645,7 +3667,7 @@
         <v>69</v>
       </c>
       <c r="K67" t="n">
-        <v>14.28571428571428</v>
+        <v>25</v>
       </c>
       <c r="L67" t="n">
         <v>244.9</v>
@@ -3696,7 +3718,7 @@
         <v>70</v>
       </c>
       <c r="K68" t="n">
-        <v>30.76923076923077</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L68" t="n">
         <v>245.4</v>
@@ -3747,7 +3769,7 @@
         <v>75</v>
       </c>
       <c r="K69" t="n">
-        <v>46.66666666666666</v>
+        <v>60</v>
       </c>
       <c r="L69" t="n">
         <v>246.7</v>
@@ -3798,7 +3820,7 @@
         <v>76</v>
       </c>
       <c r="K70" t="n">
-        <v>48.38709677419355</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="L70" t="n">
         <v>247.7</v>
@@ -3849,7 +3871,7 @@
         <v>76</v>
       </c>
       <c r="K71" t="n">
-        <v>48.38709677419355</v>
+        <v>100</v>
       </c>
       <c r="L71" t="n">
         <v>248.8</v>
@@ -3900,7 +3922,7 @@
         <v>78</v>
       </c>
       <c r="K72" t="n">
-        <v>56.25</v>
+        <v>100</v>
       </c>
       <c r="L72" t="n">
         <v>250.3</v>
@@ -3951,7 +3973,7 @@
         <v>78</v>
       </c>
       <c r="K73" t="n">
-        <v>61.29032258064516</v>
+        <v>100</v>
       </c>
       <c r="L73" t="n">
         <v>251.7</v>
@@ -4002,7 +4024,7 @@
         <v>79</v>
       </c>
       <c r="K74" t="n">
-        <v>56.25</v>
+        <v>80</v>
       </c>
       <c r="L74" t="n">
         <v>252.7</v>
@@ -4053,7 +4075,7 @@
         <v>80</v>
       </c>
       <c r="K75" t="n">
-        <v>54.83870967741935</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L75" t="n">
         <v>253.6</v>
@@ -4104,7 +4126,7 @@
         <v>81</v>
       </c>
       <c r="K76" t="n">
-        <v>54.83870967741935</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="L76" t="n">
         <v>254.6</v>
@@ -4155,7 +4177,7 @@
         <v>82</v>
       </c>
       <c r="K77" t="n">
-        <v>56.25</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="L77" t="n">
         <v>255.7</v>
@@ -4206,7 +4228,7 @@
         <v>83</v>
       </c>
       <c r="K78" t="n">
-        <v>53.33333333333334</v>
+        <v>75</v>
       </c>
       <c r="L78" t="n">
         <v>256.8</v>
@@ -4257,7 +4279,7 @@
         <v>83</v>
       </c>
       <c r="K79" t="n">
-        <v>70.37037037037037</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L79" t="n">
         <v>257.4</v>
@@ -4308,7 +4330,7 @@
         <v>85</v>
       </c>
       <c r="K80" t="n">
-        <v>68</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L80" t="n">
         <v>258.1</v>
@@ -4359,7 +4381,7 @@
         <v>86</v>
       </c>
       <c r="K81" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L81" t="n">
         <v>258.9</v>
@@ -4410,7 +4432,7 @@
         <v>86</v>
       </c>
       <c r="K82" t="n">
-        <v>91.30434782608695</v>
+        <v>75</v>
       </c>
       <c r="L82" t="n">
         <v>259.5</v>
@@ -4461,7 +4483,7 @@
         <v>88</v>
       </c>
       <c r="K83" t="n">
-        <v>91.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L83" t="n">
         <v>260.3</v>
@@ -4512,7 +4534,7 @@
         <v>91</v>
       </c>
       <c r="K84" t="n">
-        <v>66.66666666666666</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L84" t="n">
         <v>260.9</v>
@@ -4563,7 +4585,7 @@
         <v>93</v>
       </c>
       <c r="K85" t="n">
-        <v>50</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L85" t="n">
         <v>261.2</v>
@@ -4614,7 +4636,7 @@
         <v>93</v>
       </c>
       <c r="K86" t="n">
-        <v>50</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L86" t="n">
         <v>261.4</v>
@@ -4665,7 +4687,7 @@
         <v>96</v>
       </c>
       <c r="K87" t="n">
-        <v>55.55555555555556</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L87" t="n">
         <v>261.8</v>
@@ -4716,7 +4738,7 @@
         <v>97</v>
       </c>
       <c r="K88" t="n">
-        <v>55.55555555555556</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L88" t="n">
         <v>262.2</v>
@@ -4767,7 +4789,7 @@
         <v>100</v>
       </c>
       <c r="K89" t="n">
-        <v>28</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L89" t="n">
         <v>262.3</v>
@@ -4818,7 +4840,7 @@
         <v>102</v>
       </c>
       <c r="K90" t="n">
-        <v>15.38461538461539</v>
+        <v>-25</v>
       </c>
       <c r="L90" t="n">
         <v>262</v>
@@ -4869,7 +4891,7 @@
         <v>102</v>
       </c>
       <c r="K91" t="n">
-        <v>15.38461538461539</v>
+        <v>-25</v>
       </c>
       <c r="L91" t="n">
         <v>261.6</v>
@@ -4920,7 +4942,7 @@
         <v>104</v>
       </c>
       <c r="K92" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L92" t="n">
         <v>261</v>
@@ -4971,7 +4993,7 @@
         <v>105</v>
       </c>
       <c r="K93" t="n">
-        <v>-3.703703703703703</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L93" t="n">
         <v>260.1</v>
@@ -5022,7 +5044,7 @@
         <v>106</v>
       </c>
       <c r="K94" t="n">
-        <v>-3.703703703703703</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L94" t="n">
         <v>259.4</v>
@@ -5073,7 +5095,7 @@
         <v>106</v>
       </c>
       <c r="K95" t="n">
-        <v>-7.692307692307693</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L95" t="n">
         <v>258.9</v>
@@ -5124,7 +5146,7 @@
         <v>110</v>
       </c>
       <c r="K96" t="n">
-        <v>-24.13793103448276</v>
+        <v>-85.71428571428571</v>
       </c>
       <c r="L96" t="n">
         <v>258</v>
@@ -5175,7 +5197,7 @@
         <v>111</v>
       </c>
       <c r="K97" t="n">
-        <v>-31.03448275862069</v>
+        <v>-100</v>
       </c>
       <c r="L97" t="n">
         <v>256.7</v>
@@ -5226,7 +5248,7 @@
         <v>114</v>
       </c>
       <c r="K98" t="n">
-        <v>-22.58064516129032</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L98" t="n">
         <v>255.6</v>
@@ -5277,7 +5299,7 @@
         <v>118</v>
       </c>
       <c r="K99" t="n">
-        <v>-8.571428571428571</v>
+        <v>-12.5</v>
       </c>
       <c r="L99" t="n">
         <v>255.2</v>
@@ -5328,7 +5350,7 @@
         <v>124</v>
       </c>
       <c r="K100" t="n">
-        <v>-28.2051282051282</v>
+        <v>-36.36363636363637</v>
       </c>
       <c r="L100" t="n">
         <v>254.4</v>
@@ -5379,7 +5401,7 @@
         <v>128</v>
       </c>
       <c r="K101" t="n">
-        <v>-19.04761904761905</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L101" t="n">
         <v>254</v>
@@ -5430,7 +5452,7 @@
         <v>130</v>
       </c>
       <c r="K102" t="n">
-        <v>-13.63636363636363</v>
+        <v>4</v>
       </c>
       <c r="L102" t="n">
         <v>254</v>
@@ -5481,7 +5503,7 @@
         <v>131</v>
       </c>
       <c r="K103" t="n">
-        <v>-16.27906976744186</v>
+        <v>12</v>
       </c>
       <c r="L103" t="n">
         <v>254.2</v>
@@ -5532,7 +5554,7 @@
         <v>131</v>
       </c>
       <c r="K104" t="n">
-        <v>-10</v>
+        <v>12</v>
       </c>
       <c r="L104" t="n">
         <v>254.5</v>
@@ -5583,7 +5605,7 @@
         <v>132</v>
       </c>
       <c r="K105" t="n">
-        <v>-2.564102564102564</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="L105" t="n">
         <v>254.9</v>
@@ -5634,7 +5656,7 @@
         <v>133</v>
       </c>
       <c r="K106" t="n">
-        <v>0</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L106" t="n">
         <v>255.8</v>
@@ -5685,7 +5707,7 @@
         <v>134</v>
       </c>
       <c r="K107" t="n">
-        <v>-5.263157894736842</v>
+        <v>40</v>
       </c>
       <c r="L107" t="n">
         <v>256.9</v>
@@ -5736,7 +5758,7 @@
         <v>135</v>
       </c>
       <c r="K108" t="n">
-        <v>-10.52631578947368</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L108" t="n">
         <v>257.6</v>
@@ -5787,7 +5809,7 @@
         <v>135</v>
       </c>
       <c r="K109" t="n">
-        <v>-2.857142857142857</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L109" t="n">
         <v>257.9</v>
@@ -5838,7 +5860,7 @@
         <v>136</v>
       </c>
       <c r="K110" t="n">
-        <v>5.88235294117647</v>
+        <v>75</v>
       </c>
       <c r="L110" t="n">
         <v>258.9</v>
@@ -5889,7 +5911,7 @@
         <v>136</v>
       </c>
       <c r="K111" t="n">
-        <v>5.88235294117647</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L111" t="n">
         <v>259.5</v>
@@ -5940,7 +5962,7 @@
         <v>136</v>
       </c>
       <c r="K112" t="n">
-        <v>12.5</v>
+        <v>60</v>
       </c>
       <c r="L112" t="n">
         <v>259.9</v>
@@ -5991,7 +6013,7 @@
         <v>136</v>
       </c>
       <c r="K113" t="n">
-        <v>16.12903225806452</v>
+        <v>60</v>
       </c>
       <c r="L113" t="n">
         <v>260.2</v>
@@ -6042,7 +6064,7 @@
         <v>136</v>
       </c>
       <c r="K114" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L114" t="n">
         <v>260.5</v>
@@ -6093,7 +6115,7 @@
         <v>138</v>
       </c>
       <c r="K115" t="n">
-        <v>12.5</v>
+        <v>-20</v>
       </c>
       <c r="L115" t="n">
         <v>260.5</v>
@@ -6144,7 +6166,7 @@
         <v>138</v>
       </c>
       <c r="K116" t="n">
-        <v>28.57142857142857</v>
+        <v>-50</v>
       </c>
       <c r="L116" t="n">
         <v>260.4</v>
@@ -6195,7 +6217,7 @@
         <v>138</v>
       </c>
       <c r="K117" t="n">
-        <v>33.33333333333333</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L117" t="n">
         <v>260.2</v>
@@ -6246,7 +6268,7 @@
         <v>140</v>
       </c>
       <c r="K118" t="n">
-        <v>30.76923076923077</v>
+        <v>20</v>
       </c>
       <c r="L118" t="n">
         <v>260.3</v>
@@ -6297,7 +6319,7 @@
         <v>141</v>
       </c>
       <c r="K119" t="n">
-        <v>21.73913043478261</v>
+        <v>20</v>
       </c>
       <c r="L119" t="n">
         <v>260.5</v>
@@ -6348,7 +6370,7 @@
         <v>144</v>
       </c>
       <c r="K120" t="n">
-        <v>40</v>
+        <v>-25</v>
       </c>
       <c r="L120" t="n">
         <v>260.3</v>
@@ -6399,7 +6421,7 @@
         <v>144</v>
       </c>
       <c r="K121" t="n">
-        <v>25</v>
+        <v>-25</v>
       </c>
       <c r="L121" t="n">
         <v>260.1</v>
@@ -6450,7 +6472,7 @@
         <v>148</v>
       </c>
       <c r="K122" t="n">
-        <v>33.33333333333333</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L122" t="n">
         <v>260.3</v>
@@ -6501,7 +6523,7 @@
         <v>149</v>
       </c>
       <c r="K123" t="n">
-        <v>33.33333333333333</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L123" t="n">
         <v>260.6</v>
@@ -6552,7 +6574,7 @@
         <v>151</v>
       </c>
       <c r="K124" t="n">
-        <v>20</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L124" t="n">
         <v>260.7</v>
@@ -6603,7 +6625,7 @@
         <v>153</v>
       </c>
       <c r="K125" t="n">
-        <v>23.80952380952381</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L125" t="n">
         <v>261.2</v>
@@ -6654,7 +6676,7 @@
         <v>155</v>
       </c>
       <c r="K126" t="n">
-        <v>9.090909090909092</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L126" t="n">
         <v>261.5</v>
@@ -6705,7 +6727,7 @@
         <v>156</v>
       </c>
       <c r="K127" t="n">
-        <v>9.090909090909092</v>
+        <v>12.5</v>
       </c>
       <c r="L127" t="n">
         <v>261.9</v>
@@ -6756,7 +6778,7 @@
         <v>157</v>
       </c>
       <c r="K128" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L128" t="n">
         <v>262</v>
@@ -6807,7 +6829,7 @@
         <v>158</v>
       </c>
       <c r="K129" t="n">
-        <v>4.347826086956522</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L129" t="n">
         <v>261.9</v>
@@ -6858,7 +6880,7 @@
         <v>158</v>
       </c>
       <c r="K130" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L130" t="n">
         <v>262.1</v>
@@ -6909,7 +6931,7 @@
         <v>161</v>
       </c>
       <c r="K131" t="n">
-        <v>-12</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L131" t="n">
         <v>262</v>
@@ -6960,7 +6982,7 @@
         <v>161</v>
       </c>
       <c r="K132" t="n">
-        <v>-12</v>
+        <v>-50</v>
       </c>
       <c r="L132" t="n">
         <v>261.5</v>
@@ -7011,7 +7033,7 @@
         <v>164</v>
       </c>
       <c r="K133" t="n">
-        <v>0</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L133" t="n">
         <v>261.2</v>

--- a/BackTest/2019-11-15 BackTest ABT.xlsx
+++ b/BackTest/2019-11-15 BackTest ABT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S133"/>
+  <dimension ref="A1:M112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>closegap_abs_cumsum</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CMO</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>MA5</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -483,17 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -523,20 +489,12 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -566,20 +524,12 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -609,20 +559,12 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,20 +594,12 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -695,20 +629,12 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -738,20 +664,12 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J8" t="n">
-        <v>9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,20 +699,12 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J9" t="n">
-        <v>9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,20 +734,12 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J10" t="n">
-        <v>9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -867,22 +769,12 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J11" t="n">
-        <v>9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>246.7</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -912,24 +804,12 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>11</v>
-      </c>
-      <c r="K12" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L12" t="n">
-        <v>246.2</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -959,24 +839,12 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J13" t="n">
-        <v>12</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>246.1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,24 +874,12 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J14" t="n">
-        <v>12</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L14" t="n">
-        <v>246.1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1053,24 +909,12 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J15" t="n">
-        <v>12</v>
-      </c>
-      <c r="K15" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L15" t="n">
-        <v>245.8</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,24 +944,12 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J16" t="n">
-        <v>13</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L16" t="n">
-        <v>245.6</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1147,24 +979,12 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J17" t="n">
-        <v>14</v>
-      </c>
-      <c r="K17" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L17" t="n">
-        <v>245.4</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1194,24 +1014,12 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J18" t="n">
-        <v>15</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>245.4</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1241,24 +1049,12 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J19" t="n">
-        <v>16</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L19" t="n">
-        <v>245.3</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,24 +1084,12 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J20" t="n">
-        <v>16</v>
-      </c>
-      <c r="K20" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L20" t="n">
-        <v>245.2</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,26 +1119,12 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J21" t="n">
-        <v>16</v>
-      </c>
-      <c r="K21" t="n">
-        <v>20</v>
-      </c>
-      <c r="L21" t="n">
-        <v>245.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>245.9</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1384,26 +1154,12 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J22" t="n">
-        <v>16</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>245.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>245.7</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,26 +1189,12 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J23" t="n">
-        <v>16</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>245.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>245.65</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1482,26 +1224,12 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J24" t="n">
-        <v>16</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>245.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>245.65</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1531,26 +1259,12 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J25" t="n">
-        <v>16</v>
-      </c>
-      <c r="K25" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L25" t="n">
-        <v>245.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>245.5</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,26 +1294,12 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J26" t="n">
-        <v>17</v>
-      </c>
-      <c r="K26" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L26" t="n">
-        <v>245.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>245.4</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1631,24 +1331,10 @@
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>20</v>
-      </c>
-      <c r="K27" t="n">
-        <v>60</v>
-      </c>
-      <c r="L27" t="n">
-        <v>245.6</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>245.5</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,26 +1364,12 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J28" t="n">
-        <v>25</v>
-      </c>
-      <c r="K28" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L28" t="n">
-        <v>245.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>245.4</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1727,26 +1399,12 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J29" t="n">
-        <v>25</v>
-      </c>
-      <c r="K29" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L29" t="n">
-        <v>245.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>245.3</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1776,26 +1434,12 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J30" t="n">
-        <v>26</v>
-      </c>
-      <c r="K30" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L30" t="n">
-        <v>245.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>245.15</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1825,28 +1469,12 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J31" t="n">
-        <v>27</v>
-      </c>
-      <c r="K31" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L31" t="n">
-        <v>245</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>245.05</v>
-      </c>
-      <c r="N31" t="n">
-        <v>245.6</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,28 +1504,12 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J32" t="n">
-        <v>28</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>245</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>245.1</v>
-      </c>
-      <c r="N32" t="n">
-        <v>245.4666666666667</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1927,28 +1539,12 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J33" t="n">
-        <v>28</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>245</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>245.1</v>
-      </c>
-      <c r="N33" t="n">
-        <v>245.4333333333333</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,28 +1574,12 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J34" t="n">
-        <v>29</v>
-      </c>
-      <c r="K34" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L34" t="n">
-        <v>245.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>245.15</v>
-      </c>
-      <c r="N34" t="n">
-        <v>245.4666666666667</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2029,28 +1609,12 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J35" t="n">
-        <v>32</v>
-      </c>
-      <c r="K35" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L35" t="n">
-        <v>244.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>245.05</v>
-      </c>
-      <c r="N35" t="n">
-        <v>245.3</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2080,28 +1644,12 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J36" t="n">
-        <v>32</v>
-      </c>
-      <c r="K36" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L36" t="n">
-        <v>244.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>244.9</v>
-      </c>
-      <c r="N36" t="n">
-        <v>245.1333333333333</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2131,28 +1679,12 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J37" t="n">
-        <v>33</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>244.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>244.85</v>
-      </c>
-      <c r="N37" t="n">
-        <v>245.0333333333333</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2182,28 +1714,12 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J38" t="n">
-        <v>34</v>
-      </c>
-      <c r="K38" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L38" t="n">
-        <v>244.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>244.8</v>
-      </c>
-      <c r="N38" t="n">
-        <v>245</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,28 +1749,12 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J39" t="n">
-        <v>34</v>
-      </c>
-      <c r="K39" t="n">
-        <v>25</v>
-      </c>
-      <c r="L39" t="n">
-        <v>244.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>244.8</v>
-      </c>
-      <c r="N39" t="n">
-        <v>244.9666666666667</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,28 +1784,12 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J40" t="n">
-        <v>34</v>
-      </c>
-      <c r="K40" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L40" t="n">
-        <v>244.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>244.8</v>
-      </c>
-      <c r="N40" t="n">
-        <v>244.9333333333333</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2335,28 +1819,12 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J41" t="n">
-        <v>34</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>244.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>244.8</v>
-      </c>
-      <c r="N41" t="n">
-        <v>244.9</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,28 +1854,12 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J42" t="n">
-        <v>37</v>
-      </c>
-      <c r="K42" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L42" t="n">
-        <v>244.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>244.65</v>
-      </c>
-      <c r="N42" t="n">
-        <v>244.8333333333333</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,28 +1889,12 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J43" t="n">
-        <v>38</v>
-      </c>
-      <c r="K43" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L43" t="n">
-        <v>244.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>244.55</v>
-      </c>
-      <c r="N43" t="n">
-        <v>244.7666666666667</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,28 +1924,12 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J44" t="n">
-        <v>39</v>
-      </c>
-      <c r="K44" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L44" t="n">
-        <v>243.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>244.4</v>
-      </c>
-      <c r="N44" t="n">
-        <v>244.6666666666667</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2539,28 +1959,12 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J45" t="n">
-        <v>40</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>243.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>244.3</v>
-      </c>
-      <c r="N45" t="n">
-        <v>244.6</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,28 +1994,12 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J46" t="n">
-        <v>41</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>243.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>244.2</v>
-      </c>
-      <c r="N46" t="n">
-        <v>244.5333333333333</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2641,28 +2029,12 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J47" t="n">
-        <v>41</v>
-      </c>
-      <c r="K47" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L47" t="n">
-        <v>243.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>243.95</v>
-      </c>
-      <c r="N47" t="n">
-        <v>244.5</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,28 +2064,12 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J48" t="n">
-        <v>44</v>
-      </c>
-      <c r="K48" t="n">
-        <v>-40</v>
-      </c>
-      <c r="L48" t="n">
-        <v>243.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>243.8</v>
-      </c>
-      <c r="N48" t="n">
-        <v>244.3333333333333</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,28 +2099,12 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J49" t="n">
-        <v>45</v>
-      </c>
-      <c r="K49" t="n">
-        <v>-45.45454545454545</v>
-      </c>
-      <c r="L49" t="n">
-        <v>242.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>243.6</v>
-      </c>
-      <c r="N49" t="n">
-        <v>244.1666666666667</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,28 +2134,12 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J50" t="n">
-        <v>45</v>
-      </c>
-      <c r="K50" t="n">
-        <v>-45.45454545454545</v>
-      </c>
-      <c r="L50" t="n">
-        <v>242.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>243.45</v>
-      </c>
-      <c r="N50" t="n">
-        <v>244</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2842,31 +2166,19 @@
         <v>244.9833333333333</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>45</v>
+        <v>240</v>
       </c>
       <c r="K51" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L51" t="n">
-        <v>241.9</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>243.25</v>
-      </c>
-      <c r="N51" t="n">
-        <v>243.8333333333333</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2893,31 +2205,23 @@
         <v>244.85</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>46</v>
+        <v>239</v>
       </c>
       <c r="K52" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L52" t="n">
-        <v>241.6</v>
+        <v>240</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M52" t="n">
-        <v>242.95</v>
-      </c>
-      <c r="N52" t="n">
-        <v>243.6333333333333</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2944,31 +2248,23 @@
         <v>244.7</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>47</v>
+        <v>239</v>
       </c>
       <c r="K53" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L53" t="n">
-        <v>241.1</v>
+        <v>240</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M53" t="n">
-        <v>242.6</v>
-      </c>
-      <c r="N53" t="n">
-        <v>243.4</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2995,31 +2291,23 @@
         <v>244.5333333333333</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>47</v>
+        <v>238</v>
       </c>
       <c r="K54" t="n">
-        <v>-71.42857142857143</v>
-      </c>
-      <c r="L54" t="n">
-        <v>240.7</v>
+        <v>240</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M54" t="n">
-        <v>242.2</v>
-      </c>
-      <c r="N54" t="n">
-        <v>243.1666666666667</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3046,31 +2334,23 @@
         <v>244.4833333333333</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>49</v>
+        <v>238</v>
       </c>
       <c r="K55" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L55" t="n">
-        <v>240.4</v>
+        <v>240</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M55" t="n">
-        <v>242.05</v>
-      </c>
-      <c r="N55" t="n">
-        <v>243</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,28 +2380,18 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J56" t="n">
-        <v>50</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L56" t="n">
-        <v>240.1</v>
+        <v>240</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M56" t="n">
-        <v>241.95</v>
-      </c>
-      <c r="N56" t="n">
-        <v>242.8333333333333</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3148,31 +2418,23 @@
         <v>244.25</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>50</v>
+        <v>241</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="n">
-        <v>239.8</v>
+        <v>240</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M57" t="n">
-        <v>241.8</v>
-      </c>
-      <c r="N57" t="n">
-        <v>242.5666666666667</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3199,31 +2461,23 @@
         <v>244.3333333333333</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>53</v>
+        <v>239</v>
       </c>
       <c r="K58" t="n">
-        <v>50</v>
-      </c>
-      <c r="L58" t="n">
-        <v>240.1</v>
+        <v>240</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M58" t="n">
-        <v>241.75</v>
-      </c>
-      <c r="N58" t="n">
-        <v>242.5666666666667</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,31 +2504,23 @@
         <v>244.2166666666667</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>56</v>
+        <v>243</v>
       </c>
       <c r="K59" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L59" t="n">
-        <v>240.2</v>
+        <v>240</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M59" t="n">
-        <v>241.55</v>
-      </c>
-      <c r="N59" t="n">
-        <v>242.4666666666667</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3301,31 +2547,23 @@
         <v>244.15</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>60</v>
+        <v>244</v>
       </c>
       <c r="K60" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L60" t="n">
-        <v>240.7</v>
+        <v>240</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M60" t="n">
-        <v>241.55</v>
-      </c>
-      <c r="N60" t="n">
-        <v>242.5333333333333</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3352,31 +2590,23 @@
         <v>244.0666666666667</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>61</v>
+        <v>244</v>
       </c>
       <c r="K61" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L61" t="n">
-        <v>241.1</v>
+        <v>240</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M61" t="n">
-        <v>241.5</v>
-      </c>
-      <c r="N61" t="n">
-        <v>242.5333333333333</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3403,31 +2633,23 @@
         <v>243.95</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>63</v>
+        <v>242</v>
       </c>
       <c r="K62" t="n">
-        <v>25</v>
-      </c>
-      <c r="L62" t="n">
-        <v>241.4</v>
+        <v>240</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M62" t="n">
-        <v>241.5</v>
-      </c>
-      <c r="N62" t="n">
-        <v>242.4333333333333</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3454,31 +2676,23 @@
         <v>243.9</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>64</v>
+        <v>243</v>
       </c>
       <c r="K63" t="n">
-        <v>29.41176470588236</v>
-      </c>
-      <c r="L63" t="n">
-        <v>241.9</v>
+        <v>240</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M63" t="n">
-        <v>241.5</v>
-      </c>
-      <c r="N63" t="n">
-        <v>242.3666666666667</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3505,31 +2719,23 @@
         <v>243.9166666666667</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>67</v>
+        <v>245</v>
       </c>
       <c r="K64" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L64" t="n">
-        <v>242.7</v>
+        <v>240</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M64" t="n">
-        <v>241.7</v>
-      </c>
-      <c r="N64" t="n">
-        <v>242.3666666666667</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3556,31 +2762,23 @@
         <v>243.9166666666667</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>69</v>
+        <v>246</v>
       </c>
       <c r="K65" t="n">
-        <v>36.84210526315789</v>
-      </c>
-      <c r="L65" t="n">
-        <v>243.5</v>
+        <v>240</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M65" t="n">
-        <v>241.95</v>
-      </c>
-      <c r="N65" t="n">
-        <v>242.5333333333333</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3610,28 +2808,18 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J66" t="n">
-        <v>69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>36.84210526315789</v>
-      </c>
-      <c r="L66" t="n">
-        <v>244.2</v>
+        <v>240</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M66" t="n">
-        <v>242.15</v>
-      </c>
-      <c r="N66" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3661,28 +2849,18 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J67" t="n">
-        <v>69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>25</v>
-      </c>
-      <c r="L67" t="n">
-        <v>244.9</v>
+        <v>240</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M67" t="n">
-        <v>242.35</v>
-      </c>
-      <c r="N67" t="n">
-        <v>242.8333333333333</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3714,26 +2892,16 @@
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>70</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>57.14285714285714</v>
-      </c>
-      <c r="L68" t="n">
-        <v>245.4</v>
+        <v>240</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M68" t="n">
-        <v>242.75</v>
-      </c>
-      <c r="N68" t="n">
-        <v>242.9666666666667</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3763,28 +2931,18 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>5</v>
-      </c>
-      <c r="J69" t="n">
-        <v>75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>60</v>
-      </c>
-      <c r="L69" t="n">
-        <v>246.7</v>
+        <v>240</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M69" t="n">
-        <v>243.45</v>
-      </c>
-      <c r="N69" t="n">
-        <v>243.2666666666667</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3814,28 +2972,18 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>6</v>
-      </c>
-      <c r="J70" t="n">
-        <v>76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>73.33333333333333</v>
-      </c>
-      <c r="L70" t="n">
-        <v>247.7</v>
+        <v>240</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M70" t="n">
-        <v>244.2</v>
-      </c>
-      <c r="N70" t="n">
-        <v>243.6</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3865,28 +3013,18 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>6</v>
-      </c>
-      <c r="J71" t="n">
-        <v>76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>100</v>
-      </c>
-      <c r="L71" t="n">
-        <v>248.8</v>
+        <v>240</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M71" t="n">
-        <v>244.95</v>
-      </c>
-      <c r="N71" t="n">
-        <v>243.9333333333333</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3916,28 +3054,18 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>8</v>
-      </c>
-      <c r="J72" t="n">
-        <v>78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>100</v>
-      </c>
-      <c r="L72" t="n">
-        <v>250.3</v>
+        <v>240</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M72" t="n">
-        <v>245.85</v>
-      </c>
-      <c r="N72" t="n">
-        <v>244.4333333333333</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3967,28 +3095,18 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>8</v>
-      </c>
-      <c r="J73" t="n">
-        <v>78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>100</v>
-      </c>
-      <c r="L73" t="n">
-        <v>251.7</v>
+        <v>240</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M73" t="n">
-        <v>246.8</v>
-      </c>
-      <c r="N73" t="n">
-        <v>244.9</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,28 +3136,18 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>7</v>
-      </c>
-      <c r="J74" t="n">
-        <v>79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>80</v>
-      </c>
-      <c r="L74" t="n">
-        <v>252.7</v>
+        <v>240</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M74" t="n">
-        <v>247.7</v>
-      </c>
-      <c r="N74" t="n">
-        <v>245.3666666666667</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,28 +3177,18 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>8</v>
-      </c>
-      <c r="J75" t="n">
-        <v>80</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>81.81818181818183</v>
-      </c>
-      <c r="L75" t="n">
-        <v>253.6</v>
+        <v>240</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M75" t="n">
-        <v>248.55</v>
-      </c>
-      <c r="N75" t="n">
-        <v>245.8333333333333</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4120,28 +3218,18 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>9</v>
-      </c>
-      <c r="J76" t="n">
-        <v>81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>83.33333333333334</v>
-      </c>
-      <c r="L76" t="n">
-        <v>254.6</v>
+        <v>240</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M76" t="n">
-        <v>249.4</v>
-      </c>
-      <c r="N76" t="n">
-        <v>246.3</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4171,28 +3259,18 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>10</v>
-      </c>
-      <c r="J77" t="n">
-        <v>82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>83.33333333333334</v>
-      </c>
-      <c r="L77" t="n">
-        <v>255.7</v>
+        <v>240</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M77" t="n">
-        <v>250.3</v>
-      </c>
-      <c r="N77" t="n">
-        <v>246.8</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,28 +3300,18 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>11</v>
-      </c>
-      <c r="J78" t="n">
-        <v>83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>75</v>
-      </c>
-      <c r="L78" t="n">
-        <v>256.8</v>
+        <v>240</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M78" t="n">
-        <v>251.1</v>
-      </c>
-      <c r="N78" t="n">
-        <v>247.4333333333333</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4273,28 +3341,18 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>11</v>
-      </c>
-      <c r="J79" t="n">
-        <v>83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>71.42857142857143</v>
-      </c>
-      <c r="L79" t="n">
-        <v>257.4</v>
+        <v>240</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M79" t="n">
-        <v>252.05</v>
-      </c>
-      <c r="N79" t="n">
-        <v>248.1</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4324,29 +3382,19 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>13</v>
-      </c>
-      <c r="J80" t="n">
-        <v>85</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>77.77777777777779</v>
-      </c>
-      <c r="L80" t="n">
-        <v>258.1</v>
+        <v>240</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M80" t="n">
-        <v>252.9</v>
-      </c>
-      <c r="N80" t="n">
-        <v>248.8333333333333</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
-        <v>1</v>
+        <v>1.086666666666667</v>
       </c>
     </row>
     <row r="81">
@@ -4375,28 +3423,12 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>14</v>
-      </c>
-      <c r="J81" t="n">
-        <v>86</v>
-      </c>
-      <c r="K81" t="n">
-        <v>75</v>
-      </c>
-      <c r="L81" t="n">
-        <v>258.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
-        <v>253.85</v>
-      </c>
-      <c r="N81" t="n">
-        <v>249.6</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4426,28 +3458,12 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>14</v>
-      </c>
-      <c r="J82" t="n">
-        <v>86</v>
-      </c>
-      <c r="K82" t="n">
-        <v>75</v>
-      </c>
-      <c r="L82" t="n">
-        <v>259.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
-        <v>254.9</v>
-      </c>
-      <c r="N82" t="n">
-        <v>250.4</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4477,28 +3493,12 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>16</v>
-      </c>
-      <c r="J83" t="n">
-        <v>88</v>
-      </c>
-      <c r="K83" t="n">
-        <v>100</v>
-      </c>
-      <c r="L83" t="n">
-        <v>260.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
-        <v>256</v>
-      </c>
-      <c r="N83" t="n">
-        <v>251.3</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,28 +3528,12 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>13</v>
-      </c>
-      <c r="J84" t="n">
-        <v>91</v>
-      </c>
-      <c r="K84" t="n">
-        <v>45.45454545454545</v>
-      </c>
-      <c r="L84" t="n">
-        <v>260.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
-        <v>256.8</v>
-      </c>
-      <c r="N84" t="n">
-        <v>252.1</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4579,28 +3563,12 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>11</v>
-      </c>
-      <c r="J85" t="n">
-        <v>93</v>
-      </c>
-      <c r="K85" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L85" t="n">
-        <v>261.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="N85" t="n">
-        <v>252.7666666666667</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4630,28 +3598,12 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>11</v>
-      </c>
-      <c r="J86" t="n">
-        <v>93</v>
-      </c>
-      <c r="K86" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L86" t="n">
-        <v>261.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
-        <v>258</v>
-      </c>
-      <c r="N86" t="n">
-        <v>253.4</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4681,28 +3633,12 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>14</v>
-      </c>
-      <c r="J87" t="n">
-        <v>96</v>
-      </c>
-      <c r="K87" t="n">
-        <v>23.07692307692308</v>
-      </c>
-      <c r="L87" t="n">
-        <v>261.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
-        <v>258.75</v>
-      </c>
-      <c r="N87" t="n">
-        <v>254.1333333333333</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,28 +3668,12 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>15</v>
-      </c>
-      <c r="J88" t="n">
-        <v>97</v>
-      </c>
-      <c r="K88" t="n">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="L88" t="n">
-        <v>262.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
-        <v>259.5</v>
-      </c>
-      <c r="N88" t="n">
-        <v>254.8</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4783,28 +3703,12 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>12</v>
-      </c>
-      <c r="J89" t="n">
-        <v>100</v>
-      </c>
-      <c r="K89" t="n">
-        <v>-6.666666666666667</v>
-      </c>
-      <c r="L89" t="n">
-        <v>262.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
-        <v>259.85</v>
-      </c>
-      <c r="N89" t="n">
-        <v>255.4666666666667</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4834,28 +3738,12 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>10</v>
-      </c>
-      <c r="J90" t="n">
-        <v>102</v>
-      </c>
-      <c r="K90" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L90" t="n">
-        <v>262</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
-        <v>260.05</v>
-      </c>
-      <c r="N90" t="n">
-        <v>255.9333333333333</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4885,28 +3773,12 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>10</v>
-      </c>
-      <c r="J91" t="n">
-        <v>102</v>
-      </c>
-      <c r="K91" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L91" t="n">
-        <v>261.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
-        <v>260.25</v>
-      </c>
-      <c r="N91" t="n">
-        <v>256.4333333333333</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4936,28 +3808,12 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>8</v>
-      </c>
-      <c r="J92" t="n">
-        <v>104</v>
-      </c>
-      <c r="K92" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L92" t="n">
-        <v>261</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
-        <v>260.25</v>
-      </c>
-      <c r="N92" t="n">
-        <v>256.9333333333333</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4987,28 +3843,12 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>7</v>
-      </c>
-      <c r="J93" t="n">
-        <v>105</v>
-      </c>
-      <c r="K93" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L93" t="n">
-        <v>260.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
-        <v>260.2</v>
-      </c>
-      <c r="N93" t="n">
-        <v>257.3666666666667</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5038,28 +3878,12 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>6</v>
-      </c>
-      <c r="J94" t="n">
-        <v>106</v>
-      </c>
-      <c r="K94" t="n">
-        <v>-38.46153846153847</v>
-      </c>
-      <c r="L94" t="n">
-        <v>259.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
-        <v>260.15</v>
-      </c>
-      <c r="N94" t="n">
-        <v>257.6666666666667</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5089,28 +3913,12 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>6</v>
-      </c>
-      <c r="J95" t="n">
-        <v>106</v>
-      </c>
-      <c r="K95" t="n">
-        <v>-38.46153846153847</v>
-      </c>
-      <c r="L95" t="n">
-        <v>258.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
-        <v>260.05</v>
-      </c>
-      <c r="N95" t="n">
-        <v>257.9</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5140,28 +3948,12 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>2</v>
-      </c>
-      <c r="J96" t="n">
-        <v>110</v>
-      </c>
-      <c r="K96" t="n">
-        <v>-85.71428571428571</v>
-      </c>
-      <c r="L96" t="n">
-        <v>258</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
-        <v>259.7</v>
-      </c>
-      <c r="N96" t="n">
-        <v>258</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5191,28 +3983,12 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
-      </c>
-      <c r="J97" t="n">
-        <v>111</v>
-      </c>
-      <c r="K97" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L97" t="n">
-        <v>256.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
-        <v>259.25</v>
-      </c>
-      <c r="N97" t="n">
-        <v>258.0666666666667</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,28 +4018,12 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>4</v>
-      </c>
-      <c r="J98" t="n">
-        <v>114</v>
-      </c>
-      <c r="K98" t="n">
-        <v>-57.14285714285714</v>
-      </c>
-      <c r="L98" t="n">
-        <v>255.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
-        <v>258.9</v>
-      </c>
-      <c r="N98" t="n">
-        <v>258.2</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5293,28 +4053,12 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>8</v>
-      </c>
-      <c r="J99" t="n">
-        <v>118</v>
-      </c>
-      <c r="K99" t="n">
-        <v>-12.5</v>
-      </c>
-      <c r="L99" t="n">
-        <v>255.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
-        <v>258.75</v>
-      </c>
-      <c r="N99" t="n">
-        <v>258.3</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5344,28 +4088,12 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>2</v>
-      </c>
-      <c r="J100" t="n">
-        <v>124</v>
-      </c>
-      <c r="K100" t="n">
-        <v>-36.36363636363637</v>
-      </c>
-      <c r="L100" t="n">
-        <v>254.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
-        <v>258.2</v>
-      </c>
-      <c r="N100" t="n">
-        <v>258.1666666666667</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5395,28 +4123,12 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>6</v>
-      </c>
-      <c r="J101" t="n">
-        <v>128</v>
-      </c>
-      <c r="K101" t="n">
-        <v>-8.333333333333332</v>
-      </c>
-      <c r="L101" t="n">
-        <v>254</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
-        <v>257.8</v>
-      </c>
-      <c r="N101" t="n">
-        <v>258.1666666666667</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5446,28 +4158,12 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>8</v>
-      </c>
-      <c r="J102" t="n">
-        <v>130</v>
-      </c>
-      <c r="K102" t="n">
-        <v>4</v>
-      </c>
-      <c r="L102" t="n">
-        <v>254</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
-        <v>257.5</v>
-      </c>
-      <c r="N102" t="n">
-        <v>258.1666666666667</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5497,28 +4193,12 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>9</v>
-      </c>
-      <c r="J103" t="n">
-        <v>131</v>
-      </c>
-      <c r="K103" t="n">
-        <v>12</v>
-      </c>
-      <c r="L103" t="n">
-        <v>254.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
-        <v>257.15</v>
-      </c>
-      <c r="N103" t="n">
-        <v>258.2</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5548,28 +4228,12 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>9</v>
-      </c>
-      <c r="J104" t="n">
-        <v>131</v>
-      </c>
-      <c r="K104" t="n">
-        <v>12</v>
-      </c>
-      <c r="L104" t="n">
-        <v>254.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
-        <v>256.95</v>
-      </c>
-      <c r="N104" t="n">
-        <v>258.2666666666667</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5599,28 +4263,12 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>10</v>
-      </c>
-      <c r="J105" t="n">
-        <v>132</v>
-      </c>
-      <c r="K105" t="n">
-        <v>36.36363636363637</v>
-      </c>
-      <c r="L105" t="n">
-        <v>254.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
-        <v>256.9</v>
-      </c>
-      <c r="N105" t="n">
-        <v>258.3333333333333</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5650,28 +4298,12 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>11</v>
-      </c>
-      <c r="J106" t="n">
-        <v>133</v>
-      </c>
-      <c r="K106" t="n">
-        <v>45.45454545454545</v>
-      </c>
-      <c r="L106" t="n">
-        <v>255.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
-        <v>256.9</v>
-      </c>
-      <c r="N106" t="n">
-        <v>258.4</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5701,28 +4333,12 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>12</v>
-      </c>
-      <c r="J107" t="n">
-        <v>134</v>
-      </c>
-      <c r="K107" t="n">
-        <v>40</v>
-      </c>
-      <c r="L107" t="n">
-        <v>256.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
-        <v>256.8</v>
-      </c>
-      <c r="N107" t="n">
-        <v>258.4666666666666</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5752,28 +4368,12 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>11</v>
-      </c>
-      <c r="J108" t="n">
-        <v>135</v>
-      </c>
-      <c r="K108" t="n">
-        <v>17.64705882352941</v>
-      </c>
-      <c r="L108" t="n">
-        <v>257.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
-        <v>256.6</v>
-      </c>
-      <c r="N108" t="n">
-        <v>258.4666666666666</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,28 +4403,12 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>11</v>
-      </c>
-      <c r="J109" t="n">
-        <v>135</v>
-      </c>
-      <c r="K109" t="n">
-        <v>81.81818181818183</v>
-      </c>
-      <c r="L109" t="n">
-        <v>257.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
-        <v>256.55</v>
-      </c>
-      <c r="N109" t="n">
-        <v>258.4666666666666</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5854,28 +4438,12 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>12</v>
-      </c>
-      <c r="J110" t="n">
-        <v>136</v>
-      </c>
-      <c r="K110" t="n">
-        <v>75</v>
-      </c>
-      <c r="L110" t="n">
-        <v>258.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
-        <v>256.65</v>
-      </c>
-      <c r="N110" t="n">
-        <v>258.4333333333333</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5905,28 +4473,12 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>12</v>
-      </c>
-      <c r="J111" t="n">
-        <v>136</v>
-      </c>
-      <c r="K111" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L111" t="n">
-        <v>259.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
-        <v>256.75</v>
-      </c>
-      <c r="N111" t="n">
-        <v>258.3666666666667</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5956,1099 +4508,12 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>12</v>
-      </c>
-      <c r="J112" t="n">
-        <v>136</v>
-      </c>
-      <c r="K112" t="n">
-        <v>60</v>
-      </c>
-      <c r="L112" t="n">
-        <v>259.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
-        <v>256.95</v>
-      </c>
-      <c r="N112" t="n">
-        <v>258.3</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>261</v>
-      </c>
-      <c r="C113" t="n">
-        <v>261</v>
-      </c>
-      <c r="D113" t="n">
-        <v>261</v>
-      </c>
-      <c r="E113" t="n">
-        <v>261</v>
-      </c>
-      <c r="F113" t="n">
-        <v>783.373</v>
-      </c>
-      <c r="G113" t="n">
-        <v>254.7333333333333</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>12</v>
-      </c>
-      <c r="J113" t="n">
-        <v>136</v>
-      </c>
-      <c r="K113" t="n">
-        <v>60</v>
-      </c>
-      <c r="L113" t="n">
-        <v>260.2</v>
-      </c>
-      <c r="M113" t="n">
-        <v>257.2</v>
-      </c>
-      <c r="N113" t="n">
-        <v>258.1666666666667</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>261</v>
-      </c>
-      <c r="C114" t="n">
-        <v>261</v>
-      </c>
-      <c r="D114" t="n">
-        <v>261</v>
-      </c>
-      <c r="E114" t="n">
-        <v>261</v>
-      </c>
-      <c r="F114" t="n">
-        <v>1815.267</v>
-      </c>
-      <c r="G114" t="n">
-        <v>255.1166666666667</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>12</v>
-      </c>
-      <c r="J114" t="n">
-        <v>136</v>
-      </c>
-      <c r="K114" t="n">
-        <v>50</v>
-      </c>
-      <c r="L114" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="M114" t="n">
-        <v>257.5</v>
-      </c>
-      <c r="N114" t="n">
-        <v>258.1333333333333</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>260</v>
-      </c>
-      <c r="C115" t="n">
-        <v>259</v>
-      </c>
-      <c r="D115" t="n">
-        <v>260</v>
-      </c>
-      <c r="E115" t="n">
-        <v>259</v>
-      </c>
-      <c r="F115" t="n">
-        <v>3710.8057</v>
-      </c>
-      <c r="G115" t="n">
-        <v>255.4333333333333</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>10</v>
-      </c>
-      <c r="J115" t="n">
-        <v>138</v>
-      </c>
-      <c r="K115" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L115" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="M115" t="n">
-        <v>257.7</v>
-      </c>
-      <c r="N115" t="n">
-        <v>258.1</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>259</v>
-      </c>
-      <c r="C116" t="n">
-        <v>259</v>
-      </c>
-      <c r="D116" t="n">
-        <v>259</v>
-      </c>
-      <c r="E116" t="n">
-        <v>259</v>
-      </c>
-      <c r="F116" t="n">
-        <v>342.5339</v>
-      </c>
-      <c r="G116" t="n">
-        <v>255.7333333333333</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>10</v>
-      </c>
-      <c r="J116" t="n">
-        <v>138</v>
-      </c>
-      <c r="K116" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L116" t="n">
-        <v>260.4</v>
-      </c>
-      <c r="M116" t="n">
-        <v>258.1</v>
-      </c>
-      <c r="N116" t="n">
-        <v>258.0666666666667</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>259</v>
-      </c>
-      <c r="C117" t="n">
-        <v>259</v>
-      </c>
-      <c r="D117" t="n">
-        <v>259</v>
-      </c>
-      <c r="E117" t="n">
-        <v>259</v>
-      </c>
-      <c r="F117" t="n">
-        <v>315.3684</v>
-      </c>
-      <c r="G117" t="n">
-        <v>256.0333333333334</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>10</v>
-      </c>
-      <c r="J117" t="n">
-        <v>138</v>
-      </c>
-      <c r="K117" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L117" t="n">
-        <v>260.2</v>
-      </c>
-      <c r="M117" t="n">
-        <v>258.55</v>
-      </c>
-      <c r="N117" t="n">
-        <v>257.9333333333333</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>261</v>
-      </c>
-      <c r="C118" t="n">
-        <v>261</v>
-      </c>
-      <c r="D118" t="n">
-        <v>261</v>
-      </c>
-      <c r="E118" t="n">
-        <v>261</v>
-      </c>
-      <c r="F118" t="n">
-        <v>345.8299</v>
-      </c>
-      <c r="G118" t="n">
-        <v>256.3166666666667</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>12</v>
-      </c>
-      <c r="J118" t="n">
-        <v>140</v>
-      </c>
-      <c r="K118" t="n">
-        <v>20</v>
-      </c>
-      <c r="L118" t="n">
-        <v>260.3</v>
-      </c>
-      <c r="M118" t="n">
-        <v>258.95</v>
-      </c>
-      <c r="N118" t="n">
-        <v>257.8333333333333</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>262</v>
-      </c>
-      <c r="C119" t="n">
-        <v>262</v>
-      </c>
-      <c r="D119" t="n">
-        <v>262</v>
-      </c>
-      <c r="E119" t="n">
-        <v>262</v>
-      </c>
-      <c r="F119" t="n">
-        <v>1207.7973</v>
-      </c>
-      <c r="G119" t="n">
-        <v>256.6666666666667</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>13</v>
-      </c>
-      <c r="J119" t="n">
-        <v>141</v>
-      </c>
-      <c r="K119" t="n">
-        <v>20</v>
-      </c>
-      <c r="L119" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="M119" t="n">
-        <v>259.2</v>
-      </c>
-      <c r="N119" t="n">
-        <v>257.8666666666667</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>260</v>
-      </c>
-      <c r="C120" t="n">
-        <v>259</v>
-      </c>
-      <c r="D120" t="n">
-        <v>260</v>
-      </c>
-      <c r="E120" t="n">
-        <v>259</v>
-      </c>
-      <c r="F120" t="n">
-        <v>3491.317</v>
-      </c>
-      <c r="G120" t="n">
-        <v>256.9</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>10</v>
-      </c>
-      <c r="J120" t="n">
-        <v>144</v>
-      </c>
-      <c r="K120" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L120" t="n">
-        <v>260.3</v>
-      </c>
-      <c r="M120" t="n">
-        <v>259.6</v>
-      </c>
-      <c r="N120" t="n">
-        <v>257.8666666666667</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>259</v>
-      </c>
-      <c r="C121" t="n">
-        <v>259</v>
-      </c>
-      <c r="D121" t="n">
-        <v>259</v>
-      </c>
-      <c r="E121" t="n">
-        <v>259</v>
-      </c>
-      <c r="F121" t="n">
-        <v>114.1756</v>
-      </c>
-      <c r="G121" t="n">
-        <v>257.15</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>10</v>
-      </c>
-      <c r="J121" t="n">
-        <v>144</v>
-      </c>
-      <c r="K121" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L121" t="n">
-        <v>260.1</v>
-      </c>
-      <c r="M121" t="n">
-        <v>259.8</v>
-      </c>
-      <c r="N121" t="n">
-        <v>257.8666666666667</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>263</v>
-      </c>
-      <c r="C122" t="n">
-        <v>263</v>
-      </c>
-      <c r="D122" t="n">
-        <v>264</v>
-      </c>
-      <c r="E122" t="n">
-        <v>263</v>
-      </c>
-      <c r="F122" t="n">
-        <v>1592.418</v>
-      </c>
-      <c r="G122" t="n">
-        <v>257.5</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>14</v>
-      </c>
-      <c r="J122" t="n">
-        <v>148</v>
-      </c>
-      <c r="K122" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L122" t="n">
-        <v>260.3</v>
-      </c>
-      <c r="M122" t="n">
-        <v>260.1</v>
-      </c>
-      <c r="N122" t="n">
-        <v>258.0666666666667</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>262</v>
-      </c>
-      <c r="C123" t="n">
-        <v>264</v>
-      </c>
-      <c r="D123" t="n">
-        <v>265</v>
-      </c>
-      <c r="E123" t="n">
-        <v>262</v>
-      </c>
-      <c r="F123" t="n">
-        <v>2768.12</v>
-      </c>
-      <c r="G123" t="n">
-        <v>257.85</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>15</v>
-      </c>
-      <c r="J123" t="n">
-        <v>149</v>
-      </c>
-      <c r="K123" t="n">
-        <v>23.07692307692308</v>
-      </c>
-      <c r="L123" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="M123" t="n">
-        <v>260.4</v>
-      </c>
-      <c r="N123" t="n">
-        <v>258.3333333333333</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>262</v>
-      </c>
-      <c r="C124" t="n">
-        <v>262</v>
-      </c>
-      <c r="D124" t="n">
-        <v>262</v>
-      </c>
-      <c r="E124" t="n">
-        <v>262</v>
-      </c>
-      <c r="F124" t="n">
-        <v>85.703</v>
-      </c>
-      <c r="G124" t="n">
-        <v>258.1166666666667</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>13</v>
-      </c>
-      <c r="J124" t="n">
-        <v>151</v>
-      </c>
-      <c r="K124" t="n">
-        <v>23.07692307692308</v>
-      </c>
-      <c r="L124" t="n">
-        <v>260.7</v>
-      </c>
-      <c r="M124" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="N124" t="n">
-        <v>258.5666666666667</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>264</v>
-      </c>
-      <c r="C125" t="n">
-        <v>264</v>
-      </c>
-      <c r="D125" t="n">
-        <v>264</v>
-      </c>
-      <c r="E125" t="n">
-        <v>264</v>
-      </c>
-      <c r="F125" t="n">
-        <v>2.1254</v>
-      </c>
-      <c r="G125" t="n">
-        <v>258.3833333333333</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>15</v>
-      </c>
-      <c r="J125" t="n">
-        <v>153</v>
-      </c>
-      <c r="K125" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L125" t="n">
-        <v>261.2</v>
-      </c>
-      <c r="M125" t="n">
-        <v>260.85</v>
-      </c>
-      <c r="N125" t="n">
-        <v>258.8666666666667</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>262</v>
-      </c>
-      <c r="C126" t="n">
-        <v>262</v>
-      </c>
-      <c r="D126" t="n">
-        <v>262</v>
-      </c>
-      <c r="E126" t="n">
-        <v>262</v>
-      </c>
-      <c r="F126" t="n">
-        <v>83.5776</v>
-      </c>
-      <c r="G126" t="n">
-        <v>258.6166666666667</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>13</v>
-      </c>
-      <c r="J126" t="n">
-        <v>155</v>
-      </c>
-      <c r="K126" t="n">
-        <v>17.64705882352941</v>
-      </c>
-      <c r="L126" t="n">
-        <v>261.5</v>
-      </c>
-      <c r="M126" t="n">
-        <v>260.95</v>
-      </c>
-      <c r="N126" t="n">
-        <v>259.2333333333333</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>263</v>
-      </c>
-      <c r="C127" t="n">
-        <v>263</v>
-      </c>
-      <c r="D127" t="n">
-        <v>263</v>
-      </c>
-      <c r="E127" t="n">
-        <v>263</v>
-      </c>
-      <c r="F127" t="n">
-        <v>2.1254</v>
-      </c>
-      <c r="G127" t="n">
-        <v>258.8666666666667</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>14</v>
-      </c>
-      <c r="J127" t="n">
-        <v>156</v>
-      </c>
-      <c r="K127" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L127" t="n">
-        <v>261.9</v>
-      </c>
-      <c r="M127" t="n">
-        <v>261.05</v>
-      </c>
-      <c r="N127" t="n">
-        <v>259.6666666666667</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>262</v>
-      </c>
-      <c r="C128" t="n">
-        <v>262</v>
-      </c>
-      <c r="D128" t="n">
-        <v>262</v>
-      </c>
-      <c r="E128" t="n">
-        <v>262</v>
-      </c>
-      <c r="F128" t="n">
-        <v>117.839</v>
-      </c>
-      <c r="G128" t="n">
-        <v>259.0833333333333</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>13</v>
-      </c>
-      <c r="J128" t="n">
-        <v>157</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0</v>
-      </c>
-      <c r="L128" t="n">
-        <v>262</v>
-      </c>
-      <c r="M128" t="n">
-        <v>261.15</v>
-      </c>
-      <c r="N128" t="n">
-        <v>259.9666666666666</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>261</v>
-      </c>
-      <c r="C129" t="n">
-        <v>261</v>
-      </c>
-      <c r="D129" t="n">
-        <v>261</v>
-      </c>
-      <c r="E129" t="n">
-        <v>261</v>
-      </c>
-      <c r="F129" t="n">
-        <v>117.839</v>
-      </c>
-      <c r="G129" t="n">
-        <v>259.2</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>12</v>
-      </c>
-      <c r="J129" t="n">
-        <v>158</v>
-      </c>
-      <c r="K129" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L129" t="n">
-        <v>261.9</v>
-      </c>
-      <c r="M129" t="n">
-        <v>261.2</v>
-      </c>
-      <c r="N129" t="n">
-        <v>260.1</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>261</v>
-      </c>
-      <c r="C130" t="n">
-        <v>261</v>
-      </c>
-      <c r="D130" t="n">
-        <v>261</v>
-      </c>
-      <c r="E130" t="n">
-        <v>261</v>
-      </c>
-      <c r="F130" t="n">
-        <v>117.839</v>
-      </c>
-      <c r="G130" t="n">
-        <v>259.3</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>12</v>
-      </c>
-      <c r="J130" t="n">
-        <v>158</v>
-      </c>
-      <c r="K130" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L130" t="n">
-        <v>262.1</v>
-      </c>
-      <c r="M130" t="n">
-        <v>261.2</v>
-      </c>
-      <c r="N130" t="n">
-        <v>260.4333333333333</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>259</v>
-      </c>
-      <c r="C131" t="n">
-        <v>258</v>
-      </c>
-      <c r="D131" t="n">
-        <v>259</v>
-      </c>
-      <c r="E131" t="n">
-        <v>258</v>
-      </c>
-      <c r="F131" t="n">
-        <v>1185.9683</v>
-      </c>
-      <c r="G131" t="n">
-        <v>259.35</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>9</v>
-      </c>
-      <c r="J131" t="n">
-        <v>161</v>
-      </c>
-      <c r="K131" t="n">
-        <v>-38.46153846153847</v>
-      </c>
-      <c r="L131" t="n">
-        <v>262</v>
-      </c>
-      <c r="M131" t="n">
-        <v>261.05</v>
-      </c>
-      <c r="N131" t="n">
-        <v>260.5333333333334</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>258</v>
-      </c>
-      <c r="C132" t="n">
-        <v>258</v>
-      </c>
-      <c r="D132" t="n">
-        <v>258</v>
-      </c>
-      <c r="E132" t="n">
-        <v>258</v>
-      </c>
-      <c r="F132" t="n">
-        <v>42.6291</v>
-      </c>
-      <c r="G132" t="n">
-        <v>259.3666666666667</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>9</v>
-      </c>
-      <c r="J132" t="n">
-        <v>161</v>
-      </c>
-      <c r="K132" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L132" t="n">
-        <v>261.5</v>
-      </c>
-      <c r="M132" t="n">
-        <v>260.9</v>
-      </c>
-      <c r="N132" t="n">
-        <v>260.5666666666667</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>261</v>
-      </c>
-      <c r="C133" t="n">
-        <v>261</v>
-      </c>
-      <c r="D133" t="n">
-        <v>261</v>
-      </c>
-      <c r="E133" t="n">
-        <v>261</v>
-      </c>
-      <c r="F133" t="n">
-        <v>1.9338</v>
-      </c>
-      <c r="G133" t="n">
-        <v>259.4333333333333</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>12</v>
-      </c>
-      <c r="J133" t="n">
-        <v>164</v>
-      </c>
-      <c r="K133" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L133" t="n">
-        <v>261.2</v>
-      </c>
-      <c r="M133" t="n">
-        <v>260.9</v>
-      </c>
-      <c r="N133" t="n">
-        <v>260.6666666666667</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-15 BackTest ABT.xlsx
+++ b/BackTest/2019-11-15 BackTest ABT.xlsx
@@ -2166,17 +2166,13 @@
         <v>244.9833333333333</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>240</v>
-      </c>
-      <c r="K51" t="n">
-        <v>240</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
@@ -2205,22 +2201,14 @@
         <v>244.85</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>239</v>
-      </c>
-      <c r="K52" t="n">
-        <v>240</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2248,108 +2236,90 @@
         <v>244.7</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>239</v>
-      </c>
-      <c r="K53" t="n">
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>238</v>
+      </c>
+      <c r="C54" t="n">
+        <v>238</v>
+      </c>
+      <c r="D54" t="n">
+        <v>238</v>
+      </c>
+      <c r="E54" t="n">
+        <v>238</v>
+      </c>
+      <c r="F54" t="n">
+        <v>11927.4094</v>
+      </c>
+      <c r="G54" t="n">
+        <v>244.5333333333333</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>238</v>
+      </c>
+      <c r="C55" t="n">
         <v>240</v>
       </c>
-      <c r="L53" t="inlineStr">
+      <c r="D55" t="n">
+        <v>240</v>
+      </c>
+      <c r="E55" t="n">
+        <v>238</v>
+      </c>
+      <c r="F55" t="n">
+        <v>5025.6702</v>
+      </c>
+      <c r="G55" t="n">
+        <v>244.4833333333333</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>238</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>238</v>
-      </c>
-      <c r="C54" t="n">
-        <v>238</v>
-      </c>
-      <c r="D54" t="n">
-        <v>238</v>
-      </c>
-      <c r="E54" t="n">
-        <v>238</v>
-      </c>
-      <c r="F54" t="n">
-        <v>11927.4094</v>
-      </c>
-      <c r="G54" t="n">
-        <v>244.5333333333333</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>238</v>
-      </c>
-      <c r="K54" t="n">
-        <v>240</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>238</v>
-      </c>
-      <c r="C55" t="n">
-        <v>240</v>
-      </c>
-      <c r="D55" t="n">
-        <v>240</v>
-      </c>
-      <c r="E55" t="n">
-        <v>238</v>
-      </c>
-      <c r="F55" t="n">
-        <v>5025.6702</v>
-      </c>
-      <c r="G55" t="n">
-        <v>244.4833333333333</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>238</v>
-      </c>
-      <c r="K55" t="n">
-        <v>240</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2383,9 +2353,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>240</v>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2418,17 +2386,13 @@
         <v>244.25</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>241</v>
-      </c>
-      <c r="K57" t="n">
-        <v>240</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2461,17 +2425,13 @@
         <v>244.3333333333333</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>239</v>
-      </c>
-      <c r="K58" t="n">
-        <v>240</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2504,17 +2464,13 @@
         <v>244.2166666666667</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>243</v>
-      </c>
-      <c r="K59" t="n">
-        <v>240</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2547,17 +2503,13 @@
         <v>244.15</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>244</v>
-      </c>
-      <c r="K60" t="n">
-        <v>240</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2590,17 +2542,13 @@
         <v>244.0666666666667</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>244</v>
-      </c>
-      <c r="K61" t="n">
-        <v>240</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2633,17 +2581,13 @@
         <v>243.95</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>242</v>
-      </c>
-      <c r="K62" t="n">
-        <v>240</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2676,17 +2620,13 @@
         <v>243.9</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>243</v>
-      </c>
-      <c r="K63" t="n">
-        <v>240</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2719,17 +2659,13 @@
         <v>243.9166666666667</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>245</v>
-      </c>
-      <c r="K64" t="n">
-        <v>240</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2762,17 +2698,13 @@
         <v>243.9166666666667</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>246</v>
-      </c>
-      <c r="K65" t="n">
-        <v>240</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2811,9 +2743,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>240</v>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2852,9 +2782,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>240</v>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2893,9 +2821,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>240</v>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2934,9 +2860,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>240</v>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2975,9 +2899,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>240</v>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3016,9 +2938,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>240</v>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3054,20 +2974,16 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>240</v>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3098,14 +3014,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>240</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3136,17 +3046,11 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>240</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3177,17 +3081,11 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>240</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3218,17 +3116,11 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>240</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3262,14 +3154,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>240</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3303,14 +3189,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>240</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3344,14 +3224,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>240</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3382,19 +3256,13 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>240</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
-        <v>1.086666666666667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3423,7 +3291,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3493,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3528,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>

--- a/BackTest/2019-11-15 BackTest ABT.xlsx
+++ b/BackTest/2019-11-15 BackTest ABT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M112"/>
+  <dimension ref="A1:M113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>249</v>
       </c>
       <c r="F2" t="n">
-        <v>2.1356</v>
+        <v>222.3043</v>
       </c>
       <c r="G2" t="n">
-        <v>249.65</v>
+        <v>249.6833333333333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C3" t="n">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D3" t="n">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E3" t="n">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F3" t="n">
-        <v>175.6899</v>
+        <v>2.1356</v>
       </c>
       <c r="G3" t="n">
-        <v>249.6</v>
+        <v>249.65</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C4" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D4" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E4" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F4" t="n">
-        <v>706.5937</v>
+        <v>175.6899</v>
       </c>
       <c r="G4" t="n">
-        <v>249.5</v>
+        <v>249.6</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C5" t="n">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D5" t="n">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E5" t="n">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F5" t="n">
-        <v>1575.6899</v>
+        <v>706.5937</v>
       </c>
       <c r="G5" t="n">
-        <v>249.4</v>
+        <v>249.5</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>248</v>
       </c>
       <c r="F6" t="n">
-        <v>2108.8792</v>
+        <v>1575.6899</v>
       </c>
       <c r="G6" t="n">
         <v>249.4</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C7" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D7" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E7" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F7" t="n">
-        <v>115.2747</v>
+        <v>2108.8792</v>
       </c>
       <c r="G7" t="n">
-        <v>249.2833333333333</v>
+        <v>249.4</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -646,19 +646,19 @@
         <v>247</v>
       </c>
       <c r="C8" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D8" t="n">
         <v>247</v>
       </c>
       <c r="E8" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F8" t="n">
-        <v>1000</v>
+        <v>115.2747</v>
       </c>
       <c r="G8" t="n">
-        <v>249.1333333333333</v>
+        <v>249.2833333333333</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C9" t="n">
         <v>246</v>
       </c>
       <c r="D9" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E9" t="n">
         <v>246</v>
       </c>
       <c r="F9" t="n">
-        <v>125.9748</v>
+        <v>1000</v>
       </c>
       <c r="G9" t="n">
-        <v>248.9666666666667</v>
+        <v>249.1333333333333</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>246</v>
       </c>
       <c r="F10" t="n">
-        <v>107.792</v>
+        <v>125.9748</v>
       </c>
       <c r="G10" t="n">
-        <v>248.8</v>
+        <v>248.9666666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>246</v>
       </c>
       <c r="F11" t="n">
-        <v>5000</v>
+        <v>107.792</v>
       </c>
       <c r="G11" t="n">
-        <v>248.65</v>
+        <v>248.8</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -786,19 +786,19 @@
         <v>246</v>
       </c>
       <c r="C12" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D12" t="n">
         <v>246</v>
       </c>
       <c r="E12" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F12" t="n">
-        <v>855.8099999999999</v>
+        <v>5000</v>
       </c>
       <c r="G12" t="n">
-        <v>248.5666666666667</v>
+        <v>248.65</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C13" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D13" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E13" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F13" t="n">
-        <v>30.9891</v>
+        <v>855.8099999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>248.4166666666667</v>
+        <v>248.5666666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>245</v>
       </c>
       <c r="E14" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F14" t="n">
-        <v>694.1375</v>
+        <v>30.9891</v>
       </c>
       <c r="G14" t="n">
-        <v>248.2833333333333</v>
+        <v>248.4166666666667</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -897,13 +897,13 @@
         <v>245</v>
       </c>
       <c r="E15" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F15" t="n">
-        <v>92.0438</v>
+        <v>694.1375</v>
       </c>
       <c r="G15" t="n">
-        <v>248.1333333333333</v>
+        <v>248.2833333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C16" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D16" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E16" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F16" t="n">
-        <v>299.714</v>
+        <v>92.0438</v>
       </c>
       <c r="G16" t="n">
-        <v>248.0333333333333</v>
+        <v>248.1333333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C17" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D17" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E17" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F17" t="n">
-        <v>1400</v>
+        <v>299.714</v>
       </c>
       <c r="G17" t="n">
-        <v>247.9166666666667</v>
+        <v>248.0333333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C18" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D18" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E18" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F18" t="n">
-        <v>200</v>
+        <v>1400</v>
       </c>
       <c r="G18" t="n">
-        <v>247.8333333333333</v>
+        <v>247.9166666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C19" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D19" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E19" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F19" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G19" t="n">
-        <v>247.7666666666667</v>
+        <v>247.8333333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>245</v>
       </c>
       <c r="F20" t="n">
-        <v>2900.5298</v>
+        <v>250</v>
       </c>
       <c r="G20" t="n">
-        <v>247.6666666666667</v>
+        <v>247.7666666666667</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C21" t="n">
         <v>245</v>
       </c>
       <c r="D21" t="n">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E21" t="n">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F21" t="n">
-        <v>7973.9556</v>
+        <v>2900.5298</v>
       </c>
       <c r="G21" t="n">
-        <v>247.6333333333333</v>
+        <v>247.6666666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C22" t="n">
         <v>245</v>
       </c>
       <c r="D22" t="n">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E22" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F22" t="n">
-        <v>286.166</v>
+        <v>7973.9556</v>
       </c>
       <c r="G22" t="n">
-        <v>247.55</v>
+        <v>247.6333333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C23" t="n">
         <v>245</v>
@@ -1177,13 +1177,13 @@
         <v>245</v>
       </c>
       <c r="E23" t="n">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F23" t="n">
-        <v>216.177</v>
+        <v>286.166</v>
       </c>
       <c r="G23" t="n">
-        <v>247.4666666666667</v>
+        <v>247.55</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C24" t="n">
         <v>245</v>
@@ -1212,13 +1212,13 @@
         <v>245</v>
       </c>
       <c r="E24" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F24" t="n">
-        <v>500</v>
+        <v>216.177</v>
       </c>
       <c r="G24" t="n">
-        <v>247.35</v>
+        <v>247.4666666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,7 +1238,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C25" t="n">
         <v>245</v>
@@ -1247,13 +1247,13 @@
         <v>245</v>
       </c>
       <c r="E25" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F25" t="n">
-        <v>137.6</v>
+        <v>500</v>
       </c>
       <c r="G25" t="n">
-        <v>247.1833333333333</v>
+        <v>247.35</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C26" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D26" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E26" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F26" t="n">
-        <v>1400</v>
+        <v>137.6</v>
       </c>
       <c r="G26" t="n">
-        <v>247.0333333333333</v>
+        <v>247.1833333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1311,19 +1311,19 @@
         <v>246</v>
       </c>
       <c r="C27" t="n">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D27" t="n">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E27" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F27" t="n">
-        <v>346.9685</v>
+        <v>1400</v>
       </c>
       <c r="G27" t="n">
-        <v>247.05</v>
+        <v>247.0333333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C28" t="n">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D28" t="n">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="E28" t="n">
         <v>244</v>
       </c>
       <c r="F28" t="n">
-        <v>231.647</v>
+        <v>346.9685</v>
       </c>
       <c r="G28" t="n">
-        <v>246.9666666666667</v>
+        <v>247.05</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>244</v>
       </c>
       <c r="F29" t="n">
-        <v>3169.9921</v>
+        <v>231.647</v>
       </c>
       <c r="G29" t="n">
         <v>246.9666666666667</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C30" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D30" t="n">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E30" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F30" t="n">
-        <v>350.566</v>
+        <v>3169.9921</v>
       </c>
       <c r="G30" t="n">
-        <v>246.8833333333333</v>
+        <v>246.9666666666667</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C31" t="n">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D31" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E31" t="n">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F31" t="n">
-        <v>287.55</v>
+        <v>350.566</v>
       </c>
       <c r="G31" t="n">
-        <v>246.7833333333333</v>
+        <v>246.8833333333333</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1486,16 +1486,16 @@
         <v>244</v>
       </c>
       <c r="C32" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D32" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E32" t="n">
         <v>244</v>
       </c>
       <c r="F32" t="n">
-        <v>819.39</v>
+        <v>287.55</v>
       </c>
       <c r="G32" t="n">
         <v>246.7833333333333</v>
@@ -1518,7 +1518,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C33" t="n">
         <v>245</v>
@@ -1527,13 +1527,13 @@
         <v>245</v>
       </c>
       <c r="E33" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F33" t="n">
-        <v>146.15</v>
+        <v>819.39</v>
       </c>
       <c r="G33" t="n">
-        <v>246.7166666666667</v>
+        <v>246.7833333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C34" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D34" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E34" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F34" t="n">
-        <v>46.6422</v>
+        <v>146.15</v>
       </c>
       <c r="G34" t="n">
-        <v>246.65</v>
+        <v>246.7166666666667</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C35" t="n">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D35" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E35" t="n">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F35" t="n">
-        <v>1015.7397</v>
+        <v>46.6422</v>
       </c>
       <c r="G35" t="n">
-        <v>246.4833333333333</v>
+        <v>246.65</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>243</v>
       </c>
       <c r="F36" t="n">
-        <v>1007.9747</v>
+        <v>1015.7397</v>
       </c>
       <c r="G36" t="n">
-        <v>246.3666666666667</v>
+        <v>246.4833333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C37" t="n">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D37" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E37" t="n">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F37" t="n">
-        <v>293</v>
+        <v>1007.9747</v>
       </c>
       <c r="G37" t="n">
-        <v>246.2666666666667</v>
+        <v>246.3666666666667</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1696,19 +1696,19 @@
         <v>244</v>
       </c>
       <c r="C38" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D38" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E38" t="n">
         <v>244</v>
       </c>
       <c r="F38" t="n">
-        <v>4285.1595</v>
+        <v>293</v>
       </c>
       <c r="G38" t="n">
-        <v>246.1833333333333</v>
+        <v>246.2666666666667</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C39" t="n">
         <v>245</v>
       </c>
       <c r="D39" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E39" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F39" t="n">
-        <v>2557.6776</v>
+        <v>4285.1595</v>
       </c>
       <c r="G39" t="n">
-        <v>246.2333333333333</v>
+        <v>246.1833333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C40" t="n">
         <v>245</v>
       </c>
       <c r="D40" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E40" t="n">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F40" t="n">
-        <v>180.1824</v>
+        <v>2557.6776</v>
       </c>
       <c r="G40" t="n">
-        <v>245.9</v>
+        <v>246.2333333333333</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1807,13 +1807,13 @@
         <v>245</v>
       </c>
       <c r="E41" t="n">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F41" t="n">
-        <v>1358.6</v>
+        <v>180.1824</v>
       </c>
       <c r="G41" t="n">
-        <v>245.8666666666667</v>
+        <v>245.9</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,10 +1833,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C42" t="n">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D42" t="n">
         <v>245</v>
@@ -1845,10 +1845,10 @@
         <v>242</v>
       </c>
       <c r="F42" t="n">
-        <v>4684.5128</v>
+        <v>1358.6</v>
       </c>
       <c r="G42" t="n">
-        <v>245.7833333333333</v>
+        <v>245.8666666666667</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
+        <v>244</v>
+      </c>
+      <c r="C43" t="n">
         <v>242</v>
       </c>
-      <c r="C43" t="n">
-        <v>243</v>
-      </c>
       <c r="D43" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E43" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F43" t="n">
-        <v>726.2067</v>
+        <v>4684.5128</v>
       </c>
       <c r="G43" t="n">
-        <v>245.6833333333333</v>
+        <v>245.7833333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,10 +1903,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C44" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D44" t="n">
         <v>243</v>
@@ -1915,10 +1915,10 @@
         <v>241</v>
       </c>
       <c r="F44" t="n">
-        <v>1237.9163</v>
+        <v>726.2067</v>
       </c>
       <c r="G44" t="n">
-        <v>245.4166666666667</v>
+        <v>245.6833333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
+        <v>241</v>
+      </c>
+      <c r="C45" t="n">
         <v>242</v>
-      </c>
-      <c r="C45" t="n">
-        <v>243</v>
       </c>
       <c r="D45" t="n">
         <v>243</v>
       </c>
       <c r="E45" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F45" t="n">
-        <v>2308.0781</v>
+        <v>1237.9163</v>
       </c>
       <c r="G45" t="n">
-        <v>245.5</v>
+        <v>245.4166666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C46" t="n">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D46" t="n">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E46" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F46" t="n">
-        <v>10</v>
+        <v>2308.0781</v>
       </c>
       <c r="G46" t="n">
-        <v>245.5333333333333</v>
+        <v>245.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>244</v>
       </c>
       <c r="F47" t="n">
-        <v>2690</v>
+        <v>10</v>
       </c>
       <c r="G47" t="n">
-        <v>245.4333333333333</v>
+        <v>245.5333333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C48" t="n">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D48" t="n">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E48" t="n">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F48" t="n">
-        <v>1686.0478</v>
+        <v>2690</v>
       </c>
       <c r="G48" t="n">
-        <v>245.4166666666667</v>
+        <v>245.4333333333333</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C49" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D49" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E49" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F49" t="n">
-        <v>107.5627</v>
+        <v>1686.0478</v>
       </c>
       <c r="G49" t="n">
-        <v>245.25</v>
+        <v>245.4166666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>240</v>
       </c>
       <c r="F50" t="n">
-        <v>186.0478</v>
+        <v>107.5627</v>
       </c>
       <c r="G50" t="n">
-        <v>245.1166666666667</v>
+        <v>245.25</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2160,10 +2160,10 @@
         <v>240</v>
       </c>
       <c r="F51" t="n">
-        <v>313.9522</v>
+        <v>186.0478</v>
       </c>
       <c r="G51" t="n">
-        <v>244.9833333333333</v>
+        <v>245.1166666666667</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C52" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D52" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E52" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F52" t="n">
-        <v>989</v>
+        <v>313.9522</v>
       </c>
       <c r="G52" t="n">
-        <v>244.85</v>
+        <v>244.9833333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2221,19 +2221,19 @@
         <v>239</v>
       </c>
       <c r="C53" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D53" t="n">
         <v>239</v>
       </c>
       <c r="E53" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F53" t="n">
-        <v>567.0337</v>
+        <v>989</v>
       </c>
       <c r="G53" t="n">
-        <v>244.7</v>
+        <v>244.85</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,32 +2253,38 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C54" t="n">
         <v>238</v>
       </c>
       <c r="D54" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E54" t="n">
         <v>238</v>
       </c>
       <c r="F54" t="n">
-        <v>11927.4094</v>
+        <v>567.0337</v>
       </c>
       <c r="G54" t="n">
-        <v>244.5333333333333</v>
+        <v>244.7</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>239</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2291,19 +2297,19 @@
         <v>238</v>
       </c>
       <c r="C55" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D55" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E55" t="n">
         <v>238</v>
       </c>
       <c r="F55" t="n">
-        <v>5025.6702</v>
+        <v>11927.4094</v>
       </c>
       <c r="G55" t="n">
-        <v>244.4833333333333</v>
+        <v>244.5333333333333</v>
       </c>
       <c r="H55" t="n">
         <v>1</v>
@@ -2317,7 +2323,7 @@
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M55" t="n">
@@ -2329,22 +2335,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C56" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D56" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E56" t="n">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F56" t="n">
-        <v>120.5702</v>
+        <v>5025.6702</v>
       </c>
       <c r="G56" t="n">
-        <v>244.3666666666667</v>
+        <v>244.4833333333333</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2380,10 +2386,10 @@
         <v>241</v>
       </c>
       <c r="F57" t="n">
-        <v>4731.2559</v>
+        <v>120.5702</v>
       </c>
       <c r="G57" t="n">
-        <v>244.25</v>
+        <v>244.3666666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2407,22 +2413,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C58" t="n">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D58" t="n">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E58" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F58" t="n">
-        <v>2818.9606</v>
+        <v>4731.2559</v>
       </c>
       <c r="G58" t="n">
-        <v>244.3333333333333</v>
+        <v>244.25</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2446,22 +2452,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C59" t="n">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D59" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E59" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F59" t="n">
-        <v>469.4754591836735</v>
+        <v>2818.9606</v>
       </c>
       <c r="G59" t="n">
-        <v>244.2166666666667</v>
+        <v>244.3333333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2485,22 +2491,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C60" t="n">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D60" t="n">
         <v>245</v>
       </c>
       <c r="E60" t="n">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F60" t="n">
-        <v>231.154732244898</v>
+        <v>469.4754591836735</v>
       </c>
       <c r="G60" t="n">
-        <v>244.15</v>
+        <v>244.2166666666667</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2527,19 +2533,19 @@
         <v>244</v>
       </c>
       <c r="C61" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D61" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E61" t="n">
         <v>244</v>
       </c>
       <c r="F61" t="n">
-        <v>1400</v>
+        <v>231.154732244898</v>
       </c>
       <c r="G61" t="n">
-        <v>244.0666666666667</v>
+        <v>244.15</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2563,22 +2569,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C62" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D62" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E62" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F62" t="n">
-        <v>231.1547</v>
+        <v>1400</v>
       </c>
       <c r="G62" t="n">
-        <v>243.95</v>
+        <v>244.0666666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2602,22 +2608,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C63" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D63" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E63" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F63" t="n">
-        <v>49.8533</v>
+        <v>231.1547</v>
       </c>
       <c r="G63" t="n">
-        <v>243.9</v>
+        <v>243.95</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2641,22 +2647,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C64" t="n">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D64" t="n">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E64" t="n">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F64" t="n">
-        <v>48</v>
+        <v>49.8533</v>
       </c>
       <c r="G64" t="n">
-        <v>243.9166666666667</v>
+        <v>243.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2680,19 +2686,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
+        <v>245</v>
+      </c>
+      <c r="C65" t="n">
         <v>246</v>
       </c>
-      <c r="C65" t="n">
-        <v>248</v>
-      </c>
       <c r="D65" t="n">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E65" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F65" t="n">
-        <v>902</v>
+        <v>48</v>
       </c>
       <c r="G65" t="n">
         <v>243.9166666666667</v>
@@ -2719,7 +2725,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C66" t="n">
         <v>248</v>
@@ -2728,10 +2734,10 @@
         <v>248</v>
       </c>
       <c r="E66" t="n">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F66" t="n">
-        <v>816.383</v>
+        <v>902</v>
       </c>
       <c r="G66" t="n">
         <v>243.9166666666667</v>
@@ -2770,10 +2776,10 @@
         <v>248</v>
       </c>
       <c r="F67" t="n">
-        <v>3046.2322</v>
+        <v>816.383</v>
       </c>
       <c r="G67" t="n">
-        <v>243.9333333333333</v>
+        <v>243.9166666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2800,19 +2806,19 @@
         <v>248</v>
       </c>
       <c r="C68" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D68" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E68" t="n">
         <v>248</v>
       </c>
       <c r="F68" t="n">
-        <v>6670</v>
+        <v>3046.2322</v>
       </c>
       <c r="G68" t="n">
-        <v>243.9833333333333</v>
+        <v>243.9333333333333</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2836,22 +2842,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
+        <v>248</v>
+      </c>
+      <c r="C69" t="n">
         <v>249</v>
       </c>
-      <c r="C69" t="n">
-        <v>254</v>
-      </c>
       <c r="D69" t="n">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E69" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F69" t="n">
-        <v>3998</v>
+        <v>6670</v>
       </c>
       <c r="G69" t="n">
-        <v>244.1166666666667</v>
+        <v>243.9833333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2875,22 +2881,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C70" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D70" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E70" t="n">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F70" t="n">
-        <v>2</v>
+        <v>3998</v>
       </c>
       <c r="G70" t="n">
-        <v>244.2666666666667</v>
+        <v>244.1166666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2926,10 +2932,10 @@
         <v>255</v>
       </c>
       <c r="F71" t="n">
-        <v>300</v>
+        <v>2</v>
       </c>
       <c r="G71" t="n">
-        <v>244.4166666666667</v>
+        <v>244.2666666666667</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2953,44 +2959,46 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C72" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D72" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E72" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F72" t="n">
-        <v>2257.2296</v>
+        <v>300</v>
       </c>
       <c r="G72" t="n">
-        <v>244.6333333333333</v>
+        <v>244.4166666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C73" t="n">
         <v>257</v>
@@ -2999,13 +3007,13 @@
         <v>257</v>
       </c>
       <c r="E73" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F73" t="n">
-        <v>429.7443</v>
+        <v>2257.2296</v>
       </c>
       <c r="G73" t="n">
-        <v>244.8333333333333</v>
+        <v>244.6333333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3015,7 +3023,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3025,22 +3037,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C74" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D74" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E74" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F74" t="n">
-        <v>1711.7099</v>
+        <v>429.7443</v>
       </c>
       <c r="G74" t="n">
-        <v>245.0166666666667</v>
+        <v>244.8333333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3050,10 +3062,12 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3063,19 +3077,19 @@
         <v>256</v>
       </c>
       <c r="C75" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D75" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E75" t="n">
         <v>256</v>
       </c>
       <c r="F75" t="n">
-        <v>1300.454</v>
+        <v>1711.7099</v>
       </c>
       <c r="G75" t="n">
-        <v>245.2166666666667</v>
+        <v>245.0166666666667</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3095,22 +3109,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
+        <v>256</v>
+      </c>
+      <c r="C76" t="n">
         <v>257</v>
       </c>
-      <c r="C76" t="n">
-        <v>258</v>
-      </c>
       <c r="D76" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E76" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F76" t="n">
-        <v>2198.0099</v>
+        <v>1300.454</v>
       </c>
       <c r="G76" t="n">
-        <v>245.4166666666667</v>
+        <v>245.2166666666667</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3130,22 +3144,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
+        <v>257</v>
+      </c>
+      <c r="C77" t="n">
         <v>258</v>
       </c>
-      <c r="C77" t="n">
-        <v>259</v>
-      </c>
       <c r="D77" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E77" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F77" t="n">
-        <v>438</v>
+        <v>2198.0099</v>
       </c>
       <c r="G77" t="n">
-        <v>245.65</v>
+        <v>245.4166666666667</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3165,22 +3179,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
+        <v>258</v>
+      </c>
+      <c r="C78" t="n">
         <v>259</v>
       </c>
-      <c r="C78" t="n">
-        <v>260</v>
-      </c>
       <c r="D78" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E78" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F78" t="n">
-        <v>452.203</v>
+        <v>438</v>
       </c>
       <c r="G78" t="n">
-        <v>245.8833333333333</v>
+        <v>245.65</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3200,7 +3214,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C79" t="n">
         <v>260</v>
@@ -3209,13 +3223,13 @@
         <v>260</v>
       </c>
       <c r="E79" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F79" t="n">
-        <v>3652</v>
+        <v>452.203</v>
       </c>
       <c r="G79" t="n">
-        <v>246.1333333333333</v>
+        <v>245.8833333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3238,19 +3252,19 @@
         <v>260</v>
       </c>
       <c r="C80" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D80" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E80" t="n">
         <v>260</v>
       </c>
       <c r="F80" t="n">
-        <v>2812.0023</v>
+        <v>3652</v>
       </c>
       <c r="G80" t="n">
-        <v>246.4166666666667</v>
+        <v>246.1333333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3270,22 +3284,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C81" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D81" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E81" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F81" t="n">
-        <v>1000</v>
+        <v>2812.0023</v>
       </c>
       <c r="G81" t="n">
-        <v>246.7166666666667</v>
+        <v>246.4166666666667</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3317,16 +3331,16 @@
         <v>263</v>
       </c>
       <c r="F82" t="n">
-        <v>127</v>
+        <v>1000</v>
       </c>
       <c r="G82" t="n">
-        <v>247.0166666666667</v>
+        <v>246.7166666666667</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3340,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C83" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D83" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E83" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F83" t="n">
-        <v>5006.4435</v>
+        <v>127</v>
       </c>
       <c r="G83" t="n">
-        <v>247.35</v>
+        <v>247.0166666666667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3375,22 +3389,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
+        <v>264</v>
+      </c>
+      <c r="C84" t="n">
         <v>265</v>
-      </c>
-      <c r="C84" t="n">
-        <v>262</v>
       </c>
       <c r="D84" t="n">
         <v>265</v>
       </c>
       <c r="E84" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F84" t="n">
-        <v>4080.1769</v>
+        <v>5006.4435</v>
       </c>
       <c r="G84" t="n">
-        <v>247.6333333333333</v>
+        <v>247.35</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3410,22 +3424,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
+        <v>265</v>
+      </c>
+      <c r="C85" t="n">
         <v>262</v>
       </c>
-      <c r="C85" t="n">
-        <v>260</v>
-      </c>
       <c r="D85" t="n">
+        <v>265</v>
+      </c>
+      <c r="E85" t="n">
         <v>262</v>
       </c>
-      <c r="E85" t="n">
-        <v>260</v>
-      </c>
       <c r="F85" t="n">
-        <v>5165.5299</v>
+        <v>4080.1769</v>
       </c>
       <c r="G85" t="n">
-        <v>247.8833333333333</v>
+        <v>247.6333333333333</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3445,22 +3459,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C86" t="n">
         <v>260</v>
       </c>
       <c r="D86" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E86" t="n">
         <v>260</v>
       </c>
       <c r="F86" t="n">
-        <v>4649.4033</v>
+        <v>5165.5299</v>
       </c>
       <c r="G86" t="n">
-        <v>248.1166666666667</v>
+        <v>247.8833333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3480,22 +3494,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C87" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D87" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E87" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F87" t="n">
-        <v>471.0641</v>
+        <v>4649.4033</v>
       </c>
       <c r="G87" t="n">
-        <v>248.35</v>
+        <v>248.1166666666667</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3515,22 +3529,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C88" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D88" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E88" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F88" t="n">
-        <v>661.1477</v>
+        <v>471.0641</v>
       </c>
       <c r="G88" t="n">
-        <v>248.6833333333333</v>
+        <v>248.35</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3550,22 +3564,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C89" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D89" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E89" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F89" t="n">
-        <v>240.031</v>
+        <v>661.1477</v>
       </c>
       <c r="G89" t="n">
-        <v>248.9666666666667</v>
+        <v>248.6833333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3585,22 +3599,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C90" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D90" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E90" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F90" t="n">
-        <v>8388.2505</v>
+        <v>240.031</v>
       </c>
       <c r="G90" t="n">
-        <v>249.2333333333333</v>
+        <v>248.9666666666667</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3620,22 +3634,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C91" t="n">
         <v>259</v>
       </c>
       <c r="D91" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E91" t="n">
         <v>258</v>
       </c>
       <c r="F91" t="n">
-        <v>500</v>
+        <v>8388.2505</v>
       </c>
       <c r="G91" t="n">
-        <v>249.4833333333333</v>
+        <v>249.2333333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3655,22 +3669,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C92" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D92" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E92" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F92" t="n">
-        <v>304.2737</v>
+        <v>500</v>
       </c>
       <c r="G92" t="n">
-        <v>249.6833333333333</v>
+        <v>249.4833333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3690,22 +3704,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C93" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D93" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E93" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F93" t="n">
-        <v>2859.69140625</v>
+        <v>304.2737</v>
       </c>
       <c r="G93" t="n">
-        <v>249.8666666666667</v>
+        <v>249.6833333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3725,22 +3739,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C94" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D94" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E94" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F94" t="n">
-        <v>500</v>
+        <v>2859.69140625</v>
       </c>
       <c r="G94" t="n">
-        <v>250.0166666666667</v>
+        <v>249.8666666666667</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3772,10 +3786,10 @@
         <v>255</v>
       </c>
       <c r="F95" t="n">
-        <v>272.0172</v>
+        <v>500</v>
       </c>
       <c r="G95" t="n">
-        <v>250.2166666666667</v>
+        <v>250.0166666666667</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3795,22 +3809,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C96" t="n">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D96" t="n">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E96" t="n">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F96" t="n">
-        <v>1207.65</v>
+        <v>272.0172</v>
       </c>
       <c r="G96" t="n">
-        <v>250.35</v>
+        <v>250.2166666666667</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3830,22 +3844,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C97" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D97" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E97" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F97" t="n">
-        <v>73.18380000000001</v>
+        <v>1207.65</v>
       </c>
       <c r="G97" t="n">
-        <v>250.45</v>
+        <v>250.35</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3865,22 +3879,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C98" t="n">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D98" t="n">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E98" t="n">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F98" t="n">
-        <v>273.0909090909091</v>
+        <v>73.18380000000001</v>
       </c>
       <c r="G98" t="n">
-        <v>250.5833333333333</v>
+        <v>250.45</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3900,22 +3914,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C99" t="n">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D99" t="n">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E99" t="n">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F99" t="n">
-        <v>261.681</v>
+        <v>273.0909090909091</v>
       </c>
       <c r="G99" t="n">
-        <v>250.7833333333333</v>
+        <v>250.5833333333333</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3935,22 +3949,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C100" t="n">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="D100" t="n">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E100" t="n">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F100" t="n">
-        <v>200</v>
+        <v>261.681</v>
       </c>
       <c r="G100" t="n">
-        <v>250.8833333333333</v>
+        <v>250.7833333333333</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3970,22 +3984,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C101" t="n">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D101" t="n">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E101" t="n">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F101" t="n">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="G101" t="n">
-        <v>251.05</v>
+        <v>250.8833333333333</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4008,19 +4022,19 @@
         <v>255</v>
       </c>
       <c r="C102" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D102" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E102" t="n">
         <v>255</v>
       </c>
       <c r="F102" t="n">
-        <v>404</v>
+        <v>10</v>
       </c>
       <c r="G102" t="n">
-        <v>251.3</v>
+        <v>251.05</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4040,22 +4054,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
+        <v>255</v>
+      </c>
+      <c r="C103" t="n">
         <v>257</v>
       </c>
-      <c r="C103" t="n">
-        <v>258</v>
-      </c>
       <c r="D103" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E103" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F103" t="n">
-        <v>1629.747</v>
+        <v>404</v>
       </c>
       <c r="G103" t="n">
-        <v>251.55</v>
+        <v>251.3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4075,7 +4089,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C104" t="n">
         <v>258</v>
@@ -4084,13 +4098,13 @@
         <v>258</v>
       </c>
       <c r="E104" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F104" t="n">
-        <v>1464</v>
+        <v>1629.747</v>
       </c>
       <c r="G104" t="n">
-        <v>251.8166666666667</v>
+        <v>251.55</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4113,19 +4127,19 @@
         <v>258</v>
       </c>
       <c r="C105" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D105" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E105" t="n">
         <v>258</v>
       </c>
       <c r="F105" t="n">
-        <v>250</v>
+        <v>1464</v>
       </c>
       <c r="G105" t="n">
-        <v>252.0833333333333</v>
+        <v>251.8166666666667</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4145,22 +4159,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
+        <v>258</v>
+      </c>
+      <c r="C106" t="n">
         <v>259</v>
       </c>
-      <c r="C106" t="n">
-        <v>260</v>
-      </c>
       <c r="D106" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E106" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F106" t="n">
-        <v>6108.4606</v>
+        <v>250</v>
       </c>
       <c r="G106" t="n">
-        <v>252.35</v>
+        <v>252.0833333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4180,22 +4194,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
+        <v>259</v>
+      </c>
+      <c r="C107" t="n">
         <v>260</v>
       </c>
-      <c r="C107" t="n">
-        <v>261</v>
-      </c>
       <c r="D107" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E107" t="n">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="F107" t="n">
-        <v>5588.4606</v>
+        <v>6108.4606</v>
       </c>
       <c r="G107" t="n">
-        <v>252.6333333333333</v>
+        <v>252.35</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4218,19 +4232,19 @@
         <v>260</v>
       </c>
       <c r="C108" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D108" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E108" t="n">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="F108" t="n">
-        <v>2</v>
+        <v>5588.4606</v>
       </c>
       <c r="G108" t="n">
-        <v>252.95</v>
+        <v>252.6333333333333</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4262,10 +4276,10 @@
         <v>260</v>
       </c>
       <c r="F109" t="n">
-        <v>267</v>
+        <v>2</v>
       </c>
       <c r="G109" t="n">
-        <v>253.2833333333333</v>
+        <v>252.95</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4288,19 +4302,19 @@
         <v>260</v>
       </c>
       <c r="C110" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D110" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E110" t="n">
         <v>260</v>
       </c>
       <c r="F110" t="n">
-        <v>750</v>
+        <v>267</v>
       </c>
       <c r="G110" t="n">
-        <v>253.6333333333333</v>
+        <v>253.2833333333333</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4320,7 +4334,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C111" t="n">
         <v>261</v>
@@ -4329,13 +4343,13 @@
         <v>261</v>
       </c>
       <c r="E111" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F111" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="G111" t="n">
-        <v>253.9833333333333</v>
+        <v>253.6333333333333</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4367,10 +4381,10 @@
         <v>261</v>
       </c>
       <c r="F112" t="n">
-        <v>1068.882</v>
+        <v>500</v>
       </c>
       <c r="G112" t="n">
-        <v>254.35</v>
+        <v>253.9833333333333</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4385,6 +4399,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>261</v>
+      </c>
+      <c r="C113" t="n">
+        <v>261</v>
+      </c>
+      <c r="D113" t="n">
+        <v>261</v>
+      </c>
+      <c r="E113" t="n">
+        <v>261</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1068.882</v>
+      </c>
+      <c r="G113" t="n">
+        <v>254.35</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-11-15 BackTest ABT.xlsx
+++ b/BackTest/2019-11-15 BackTest ABT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M113"/>
+  <dimension ref="A1:N123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>222.3043</v>
       </c>
       <c r="G2" t="n">
+        <v>246.9333333333333</v>
+      </c>
+      <c r="H2" t="n">
         <v>249.6833333333333</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>2.1356</v>
       </c>
       <c r="G3" t="n">
+        <v>246.8666666666667</v>
+      </c>
+      <c r="H3" t="n">
         <v>249.65</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>175.6899</v>
       </c>
       <c r="G4" t="n">
+        <v>247.1333333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>249.6</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>706.5937</v>
       </c>
       <c r="G5" t="n">
+        <v>246.8</v>
+      </c>
+      <c r="H5" t="n">
         <v>249.5</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>1575.6899</v>
       </c>
       <c r="G6" t="n">
+        <v>246.8</v>
+      </c>
+      <c r="H6" t="n">
         <v>249.4</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>2108.8792</v>
       </c>
       <c r="G7" t="n">
+        <v>246.8</v>
+      </c>
+      <c r="H7" t="n">
         <v>249.4</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>115.2747</v>
       </c>
       <c r="G8" t="n">
+        <v>246.8</v>
+      </c>
+      <c r="H8" t="n">
         <v>249.2833333333333</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>1000</v>
       </c>
       <c r="G9" t="n">
+        <v>246.7333333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>249.1333333333333</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>125.9748</v>
       </c>
       <c r="G10" t="n">
+        <v>246.6</v>
+      </c>
+      <c r="H10" t="n">
         <v>248.9666666666667</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>107.792</v>
       </c>
       <c r="G11" t="n">
+        <v>246.8</v>
+      </c>
+      <c r="H11" t="n">
         <v>248.8</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>5000</v>
       </c>
       <c r="G12" t="n">
+        <v>246.6666666666667</v>
+      </c>
+      <c r="H12" t="n">
         <v>248.65</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>855.8099999999999</v>
       </c>
       <c r="G13" t="n">
+        <v>246.4</v>
+      </c>
+      <c r="H13" t="n">
         <v>248.5666666666667</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>30.9891</v>
       </c>
       <c r="G14" t="n">
+        <v>246.8</v>
+      </c>
+      <c r="H14" t="n">
         <v>248.4166666666667</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>694.1375</v>
       </c>
       <c r="G15" t="n">
+        <v>246.6</v>
+      </c>
+      <c r="H15" t="n">
         <v>248.2833333333333</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>92.0438</v>
       </c>
       <c r="G16" t="n">
+        <v>246.3333333333333</v>
+      </c>
+      <c r="H16" t="n">
         <v>248.1333333333333</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>299.714</v>
       </c>
       <c r="G17" t="n">
+        <v>246.1333333333333</v>
+      </c>
+      <c r="H17" t="n">
         <v>248.0333333333333</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>1400</v>
       </c>
       <c r="G18" t="n">
+        <v>245.8666666666667</v>
+      </c>
+      <c r="H18" t="n">
         <v>247.9166666666667</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>200</v>
       </c>
       <c r="G19" t="n">
+        <v>245.8666666666667</v>
+      </c>
+      <c r="H19" t="n">
         <v>247.8333333333333</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>250</v>
       </c>
       <c r="G20" t="n">
+        <v>245.8666666666667</v>
+      </c>
+      <c r="H20" t="n">
         <v>247.7666666666667</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>2900.5298</v>
       </c>
       <c r="G21" t="n">
+        <v>245.6666666666667</v>
+      </c>
+      <c r="H21" t="n">
         <v>247.6666666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>7973.9556</v>
       </c>
       <c r="G22" t="n">
+        <v>245.4666666666667</v>
+      </c>
+      <c r="H22" t="n">
         <v>247.6333333333333</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>286.166</v>
       </c>
       <c r="G23" t="n">
+        <v>245.3333333333333</v>
+      </c>
+      <c r="H23" t="n">
         <v>247.55</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>216.177</v>
       </c>
       <c r="G24" t="n">
+        <v>245.2666666666667</v>
+      </c>
+      <c r="H24" t="n">
         <v>247.4666666666667</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>500</v>
       </c>
       <c r="G25" t="n">
+        <v>245.2</v>
+      </c>
+      <c r="H25" t="n">
         <v>247.35</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>137.6</v>
       </c>
       <c r="G26" t="n">
+        <v>245.1333333333333</v>
+      </c>
+      <c r="H26" t="n">
         <v>247.1833333333333</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>1400</v>
       </c>
       <c r="G27" t="n">
+        <v>245.1333333333333</v>
+      </c>
+      <c r="H27" t="n">
         <v>247.0333333333333</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>346.9685</v>
       </c>
       <c r="G28" t="n">
+        <v>245.4666666666667</v>
+      </c>
+      <c r="H28" t="n">
         <v>247.05</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>231.647</v>
       </c>
       <c r="G29" t="n">
+        <v>245.4</v>
+      </c>
+      <c r="H29" t="n">
         <v>246.9666666666667</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>3169.9921</v>
       </c>
       <c r="G30" t="n">
+        <v>245.3333333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>246.9666666666667</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>350.566</v>
       </c>
       <c r="G31" t="n">
+        <v>245.2</v>
+      </c>
+      <c r="H31" t="n">
         <v>246.8833333333333</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>287.55</v>
       </c>
       <c r="G32" t="n">
+        <v>245.0666666666667</v>
+      </c>
+      <c r="H32" t="n">
         <v>246.7833333333333</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>819.39</v>
       </c>
       <c r="G33" t="n">
+        <v>245.0666666666667</v>
+      </c>
+      <c r="H33" t="n">
         <v>246.7833333333333</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>146.15</v>
       </c>
       <c r="G34" t="n">
+        <v>245</v>
+      </c>
+      <c r="H34" t="n">
         <v>246.7166666666667</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>46.6422</v>
       </c>
       <c r="G35" t="n">
+        <v>245.0666666666667</v>
+      </c>
+      <c r="H35" t="n">
         <v>246.65</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>1015.7397</v>
       </c>
       <c r="G36" t="n">
+        <v>244.9333333333333</v>
+      </c>
+      <c r="H36" t="n">
         <v>246.4833333333333</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>1007.9747</v>
       </c>
       <c r="G37" t="n">
+        <v>244.8</v>
+      </c>
+      <c r="H37" t="n">
         <v>246.3666666666667</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>293</v>
       </c>
       <c r="G38" t="n">
+        <v>244.7333333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>246.2666666666667</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>4285.1595</v>
       </c>
       <c r="G39" t="n">
+        <v>244.7333333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>246.1833333333333</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>2557.6776</v>
       </c>
       <c r="G40" t="n">
+        <v>244.7333333333333</v>
+      </c>
+      <c r="H40" t="n">
         <v>246.2333333333333</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>180.1824</v>
       </c>
       <c r="G41" t="n">
+        <v>244.7333333333333</v>
+      </c>
+      <c r="H41" t="n">
         <v>245.9</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>1358.6</v>
       </c>
       <c r="G42" t="n">
+        <v>244.6666666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>245.8666666666667</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>4684.5128</v>
       </c>
       <c r="G43" t="n">
+        <v>244.2</v>
+      </c>
+      <c r="H43" t="n">
         <v>245.7833333333333</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>726.2067</v>
       </c>
       <c r="G44" t="n">
+        <v>244.1333333333333</v>
+      </c>
+      <c r="H44" t="n">
         <v>245.6833333333333</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>1237.9163</v>
       </c>
       <c r="G45" t="n">
+        <v>244</v>
+      </c>
+      <c r="H45" t="n">
         <v>245.4166666666667</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>2308.0781</v>
       </c>
       <c r="G46" t="n">
+        <v>244</v>
+      </c>
+      <c r="H46" t="n">
         <v>245.5</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>10</v>
       </c>
       <c r="G47" t="n">
+        <v>244</v>
+      </c>
+      <c r="H47" t="n">
         <v>245.5333333333333</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>2690</v>
       </c>
       <c r="G48" t="n">
+        <v>243.9333333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>245.4333333333333</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>1686.0478</v>
       </c>
       <c r="G49" t="n">
+        <v>243.6666666666667</v>
+      </c>
+      <c r="H49" t="n">
         <v>245.4166666666667</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>107.5627</v>
       </c>
       <c r="G50" t="n">
+        <v>243.2666666666667</v>
+      </c>
+      <c r="H50" t="n">
         <v>245.25</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>186.0478</v>
       </c>
       <c r="G51" t="n">
+        <v>243.0666666666667</v>
+      </c>
+      <c r="H51" t="n">
         <v>245.1166666666667</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>313.9522</v>
       </c>
       <c r="G52" t="n">
+        <v>242.8666666666667</v>
+      </c>
+      <c r="H52" t="n">
         <v>244.9833333333333</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>989</v>
       </c>
       <c r="G53" t="n">
+        <v>242.5333333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>244.85</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,1365 +2429,1620 @@
         <v>567.0337</v>
       </c>
       <c r="G54" t="n">
+        <v>242.0666666666667</v>
+      </c>
+      <c r="H54" t="n">
         <v>244.7</v>
       </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>239</v>
+        <v>0</v>
       </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>238</v>
+      </c>
+      <c r="C55" t="n">
+        <v>238</v>
+      </c>
+      <c r="D55" t="n">
+        <v>238</v>
+      </c>
+      <c r="E55" t="n">
+        <v>238</v>
+      </c>
+      <c r="F55" t="n">
+        <v>11927.4094</v>
+      </c>
+      <c r="G55" t="n">
+        <v>241.6</v>
+      </c>
+      <c r="H55" t="n">
+        <v>244.5333333333333</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>238</v>
+      </c>
+      <c r="L55" t="n">
+        <v>238</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>238</v>
+      </c>
+      <c r="C56" t="n">
+        <v>240</v>
+      </c>
+      <c r="D56" t="n">
+        <v>240</v>
+      </c>
+      <c r="E56" t="n">
+        <v>238</v>
+      </c>
+      <c r="F56" t="n">
+        <v>5025.6702</v>
+      </c>
+      <c r="G56" t="n">
+        <v>241.2666666666667</v>
+      </c>
+      <c r="H56" t="n">
+        <v>244.4833333333333</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>238</v>
+      </c>
+      <c r="M56" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
+      <c r="N56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>241</v>
+      </c>
+      <c r="C57" t="n">
+        <v>241</v>
+      </c>
+      <c r="D57" t="n">
+        <v>241</v>
+      </c>
+      <c r="E57" t="n">
+        <v>241</v>
+      </c>
+      <c r="F57" t="n">
+        <v>120.5702</v>
+      </c>
+      <c r="G57" t="n">
+        <v>241</v>
+      </c>
+      <c r="H57" t="n">
+        <v>244.3666666666667</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
         <v>238</v>
       </c>
-      <c r="C55" t="n">
-        <v>238</v>
-      </c>
-      <c r="D55" t="n">
-        <v>238</v>
-      </c>
-      <c r="E55" t="n">
-        <v>238</v>
-      </c>
-      <c r="F55" t="n">
-        <v>11927.4094</v>
-      </c>
-      <c r="G55" t="n">
-        <v>244.5333333333333</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>238</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
+      <c r="M57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
+      <c r="N57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>241</v>
+      </c>
+      <c r="C58" t="n">
+        <v>241</v>
+      </c>
+      <c r="D58" t="n">
+        <v>241</v>
+      </c>
+      <c r="E58" t="n">
+        <v>241</v>
+      </c>
+      <c r="F58" t="n">
+        <v>4731.2559</v>
+      </c>
+      <c r="G58" t="n">
+        <v>240.9333333333333</v>
+      </c>
+      <c r="H58" t="n">
+        <v>244.25</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>241</v>
+      </c>
+      <c r="L58" t="n">
         <v>238</v>
       </c>
-      <c r="C56" t="n">
-        <v>240</v>
-      </c>
-      <c r="D56" t="n">
-        <v>240</v>
-      </c>
-      <c r="E56" t="n">
-        <v>238</v>
-      </c>
-      <c r="F56" t="n">
-        <v>5025.6702</v>
-      </c>
-      <c r="G56" t="n">
-        <v>244.4833333333333</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
+      <c r="M58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
+      <c r="N58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>239</v>
+      </c>
+      <c r="C59" t="n">
+        <v>244</v>
+      </c>
+      <c r="D59" t="n">
+        <v>244</v>
+      </c>
+      <c r="E59" t="n">
+        <v>239</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2818.9606</v>
+      </c>
+      <c r="G59" t="n">
         <v>241</v>
       </c>
-      <c r="C57" t="n">
-        <v>241</v>
-      </c>
-      <c r="D57" t="n">
-        <v>241</v>
-      </c>
-      <c r="E57" t="n">
-        <v>241</v>
-      </c>
-      <c r="F57" t="n">
-        <v>120.5702</v>
-      </c>
-      <c r="G57" t="n">
-        <v>244.3666666666667</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
+      <c r="H59" t="n">
+        <v>244.3333333333333</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>238</v>
+      </c>
+      <c r="M59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
+      <c r="N59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>243</v>
+      </c>
+      <c r="C60" t="n">
         <v>241</v>
       </c>
-      <c r="C58" t="n">
+      <c r="D60" t="n">
+        <v>245</v>
+      </c>
+      <c r="E60" t="n">
         <v>241</v>
       </c>
-      <c r="D58" t="n">
-        <v>241</v>
-      </c>
-      <c r="E58" t="n">
-        <v>241</v>
-      </c>
-      <c r="F58" t="n">
-        <v>4731.2559</v>
-      </c>
-      <c r="G58" t="n">
-        <v>244.25</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
+      <c r="F60" t="n">
+        <v>469.4754591836735</v>
+      </c>
+      <c r="G60" t="n">
+        <v>240.9333333333333</v>
+      </c>
+      <c r="H60" t="n">
+        <v>244.2166666666667</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>244</v>
+      </c>
+      <c r="L60" t="n">
+        <v>238</v>
+      </c>
+      <c r="M60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>239</v>
-      </c>
-      <c r="C59" t="n">
+      <c r="N60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
         <v>244</v>
       </c>
-      <c r="D59" t="n">
+      <c r="C61" t="n">
+        <v>245</v>
+      </c>
+      <c r="D61" t="n">
+        <v>245</v>
+      </c>
+      <c r="E61" t="n">
         <v>244</v>
       </c>
-      <c r="E59" t="n">
-        <v>239</v>
-      </c>
-      <c r="F59" t="n">
-        <v>2818.9606</v>
-      </c>
-      <c r="G59" t="n">
-        <v>244.3333333333333</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
+      <c r="F61" t="n">
+        <v>231.154732244898</v>
+      </c>
+      <c r="G61" t="n">
+        <v>241.0666666666667</v>
+      </c>
+      <c r="H61" t="n">
+        <v>244.15</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>241</v>
+      </c>
+      <c r="L61" t="n">
+        <v>238</v>
+      </c>
+      <c r="M61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>243</v>
-      </c>
-      <c r="C60" t="n">
-        <v>241</v>
-      </c>
-      <c r="D60" t="n">
-        <v>245</v>
-      </c>
-      <c r="E60" t="n">
-        <v>241</v>
-      </c>
-      <c r="F60" t="n">
-        <v>469.4754591836735</v>
-      </c>
-      <c r="G60" t="n">
-        <v>244.2166666666667</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
+      <c r="N61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>244</v>
+      </c>
+      <c r="C62" t="n">
+        <v>244</v>
+      </c>
+      <c r="D62" t="n">
+        <v>244</v>
+      </c>
+      <c r="E62" t="n">
+        <v>244</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1400</v>
+      </c>
+      <c r="G62" t="n">
+        <v>241.0666666666667</v>
+      </c>
+      <c r="H62" t="n">
+        <v>244.0666666666667</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>245</v>
+      </c>
+      <c r="L62" t="n">
+        <v>238</v>
+      </c>
+      <c r="M62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
+      <c r="N62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>242</v>
+      </c>
+      <c r="C63" t="n">
+        <v>242</v>
+      </c>
+      <c r="D63" t="n">
+        <v>242</v>
+      </c>
+      <c r="E63" t="n">
+        <v>242</v>
+      </c>
+      <c r="F63" t="n">
+        <v>231.1547</v>
+      </c>
+      <c r="G63" t="n">
+        <v>240.9333333333333</v>
+      </c>
+      <c r="H63" t="n">
+        <v>243.95</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
         <v>244</v>
       </c>
-      <c r="C61" t="n">
-        <v>245</v>
-      </c>
-      <c r="D61" t="n">
-        <v>245</v>
-      </c>
-      <c r="E61" t="n">
-        <v>244</v>
-      </c>
-      <c r="F61" t="n">
-        <v>231.154732244898</v>
-      </c>
-      <c r="G61" t="n">
-        <v>244.15</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
+      <c r="L63" t="n">
+        <v>238</v>
+      </c>
+      <c r="M63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>244</v>
-      </c>
-      <c r="C62" t="n">
-        <v>244</v>
-      </c>
-      <c r="D62" t="n">
-        <v>244</v>
-      </c>
-      <c r="E62" t="n">
-        <v>244</v>
-      </c>
-      <c r="F62" t="n">
-        <v>1400</v>
-      </c>
-      <c r="G62" t="n">
-        <v>244.0666666666667</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
+      <c r="N63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>243</v>
+      </c>
+      <c r="C64" t="n">
+        <v>243</v>
+      </c>
+      <c r="D64" t="n">
+        <v>243</v>
+      </c>
+      <c r="E64" t="n">
+        <v>243</v>
+      </c>
+      <c r="F64" t="n">
+        <v>49.8533</v>
+      </c>
+      <c r="G64" t="n">
+        <v>241.0666666666667</v>
+      </c>
+      <c r="H64" t="n">
+        <v>243.9</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>242</v>
+      </c>
+      <c r="L64" t="n">
+        <v>238</v>
+      </c>
+      <c r="M64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>242</v>
-      </c>
-      <c r="C63" t="n">
-        <v>242</v>
-      </c>
-      <c r="D63" t="n">
-        <v>242</v>
-      </c>
-      <c r="E63" t="n">
-        <v>242</v>
-      </c>
-      <c r="F63" t="n">
-        <v>231.1547</v>
-      </c>
-      <c r="G63" t="n">
-        <v>243.95</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
+      <c r="N64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>245</v>
+      </c>
+      <c r="C65" t="n">
+        <v>246</v>
+      </c>
+      <c r="D65" t="n">
+        <v>246</v>
+      </c>
+      <c r="E65" t="n">
+        <v>245</v>
+      </c>
+      <c r="F65" t="n">
+        <v>48</v>
+      </c>
+      <c r="G65" t="n">
+        <v>241.4666666666667</v>
+      </c>
+      <c r="H65" t="n">
+        <v>243.9166666666667</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>243</v>
+      </c>
+      <c r="L65" t="n">
+        <v>238</v>
+      </c>
+      <c r="M65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>243</v>
-      </c>
-      <c r="C64" t="n">
-        <v>243</v>
-      </c>
-      <c r="D64" t="n">
-        <v>243</v>
-      </c>
-      <c r="E64" t="n">
-        <v>243</v>
-      </c>
-      <c r="F64" t="n">
-        <v>49.8533</v>
-      </c>
-      <c r="G64" t="n">
-        <v>243.9</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
+      <c r="N65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>246</v>
+      </c>
+      <c r="C66" t="n">
+        <v>248</v>
+      </c>
+      <c r="D66" t="n">
+        <v>248</v>
+      </c>
+      <c r="E66" t="n">
+        <v>246</v>
+      </c>
+      <c r="F66" t="n">
+        <v>902</v>
+      </c>
+      <c r="G66" t="n">
+        <v>242</v>
+      </c>
+      <c r="H66" t="n">
+        <v>243.9166666666667</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>246</v>
+      </c>
+      <c r="L66" t="n">
+        <v>238</v>
+      </c>
+      <c r="M66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>245</v>
-      </c>
-      <c r="C65" t="n">
-        <v>246</v>
-      </c>
-      <c r="D65" t="n">
-        <v>246</v>
-      </c>
-      <c r="E65" t="n">
-        <v>245</v>
-      </c>
-      <c r="F65" t="n">
-        <v>48</v>
-      </c>
-      <c r="G65" t="n">
+      <c r="N66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>248</v>
+      </c>
+      <c r="C67" t="n">
+        <v>248</v>
+      </c>
+      <c r="D67" t="n">
+        <v>248</v>
+      </c>
+      <c r="E67" t="n">
+        <v>248</v>
+      </c>
+      <c r="F67" t="n">
+        <v>816.383</v>
+      </c>
+      <c r="G67" t="n">
+        <v>242.5333333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>243.9166666666667</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>238</v>
+      </c>
+      <c r="M67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>246</v>
-      </c>
-      <c r="C66" t="n">
+      <c r="N67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
         <v>248</v>
       </c>
-      <c r="D66" t="n">
+      <c r="C68" t="n">
         <v>248</v>
       </c>
-      <c r="E66" t="n">
-        <v>246</v>
-      </c>
-      <c r="F66" t="n">
-        <v>902</v>
-      </c>
-      <c r="G66" t="n">
-        <v>243.9166666666667</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
+      <c r="D68" t="n">
+        <v>248</v>
+      </c>
+      <c r="E68" t="n">
+        <v>248</v>
+      </c>
+      <c r="F68" t="n">
+        <v>3046.2322</v>
+      </c>
+      <c r="G68" t="n">
+        <v>243.1333333333333</v>
+      </c>
+      <c r="H68" t="n">
+        <v>243.9333333333333</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>238</v>
+      </c>
+      <c r="M68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
+      <c r="N68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
         <v>248</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C69" t="n">
+        <v>249</v>
+      </c>
+      <c r="D69" t="n">
+        <v>249</v>
+      </c>
+      <c r="E69" t="n">
         <v>248</v>
       </c>
-      <c r="D67" t="n">
-        <v>248</v>
-      </c>
-      <c r="E67" t="n">
-        <v>248</v>
-      </c>
-      <c r="F67" t="n">
-        <v>816.383</v>
-      </c>
-      <c r="G67" t="n">
-        <v>243.9166666666667</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
+      <c r="F69" t="n">
+        <v>6670</v>
+      </c>
+      <c r="G69" t="n">
+        <v>243.8666666666667</v>
+      </c>
+      <c r="H69" t="n">
+        <v>243.9833333333333</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>238</v>
+      </c>
+      <c r="M69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>248</v>
-      </c>
-      <c r="C68" t="n">
-        <v>248</v>
-      </c>
-      <c r="D68" t="n">
-        <v>248</v>
-      </c>
-      <c r="E68" t="n">
-        <v>248</v>
-      </c>
-      <c r="F68" t="n">
-        <v>3046.2322</v>
-      </c>
-      <c r="G68" t="n">
-        <v>243.9333333333333</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
+      <c r="N69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>249</v>
+      </c>
+      <c r="C70" t="n">
+        <v>254</v>
+      </c>
+      <c r="D70" t="n">
+        <v>254</v>
+      </c>
+      <c r="E70" t="n">
+        <v>249</v>
+      </c>
+      <c r="F70" t="n">
+        <v>3998</v>
+      </c>
+      <c r="G70" t="n">
+        <v>244.9333333333333</v>
+      </c>
+      <c r="H70" t="n">
+        <v>244.1166666666667</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>238</v>
+      </c>
+      <c r="M70" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>248</v>
-      </c>
-      <c r="C69" t="n">
-        <v>249</v>
-      </c>
-      <c r="D69" t="n">
-        <v>249</v>
-      </c>
-      <c r="E69" t="n">
-        <v>248</v>
-      </c>
-      <c r="F69" t="n">
-        <v>6670</v>
-      </c>
-      <c r="G69" t="n">
-        <v>243.9833333333333</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
+      <c r="N70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>255</v>
+      </c>
+      <c r="C71" t="n">
+        <v>255</v>
+      </c>
+      <c r="D71" t="n">
+        <v>255</v>
+      </c>
+      <c r="E71" t="n">
+        <v>255</v>
+      </c>
+      <c r="F71" t="n">
+        <v>2</v>
+      </c>
+      <c r="G71" t="n">
+        <v>245.9333333333333</v>
+      </c>
+      <c r="H71" t="n">
+        <v>244.2666666666667</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>238</v>
+      </c>
+      <c r="M71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>249</v>
-      </c>
-      <c r="C70" t="n">
-        <v>254</v>
-      </c>
-      <c r="D70" t="n">
-        <v>254</v>
-      </c>
-      <c r="E70" t="n">
-        <v>249</v>
-      </c>
-      <c r="F70" t="n">
-        <v>3998</v>
-      </c>
-      <c r="G70" t="n">
-        <v>244.1166666666667</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
+      <c r="N71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>255</v>
+      </c>
+      <c r="C72" t="n">
+        <v>255</v>
+      </c>
+      <c r="D72" t="n">
+        <v>255</v>
+      </c>
+      <c r="E72" t="n">
+        <v>255</v>
+      </c>
+      <c r="F72" t="n">
+        <v>300</v>
+      </c>
+      <c r="G72" t="n">
+        <v>246.8666666666667</v>
+      </c>
+      <c r="H72" t="n">
+        <v>244.4166666666667</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>238</v>
+      </c>
+      <c r="M72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>255</v>
-      </c>
-      <c r="C71" t="n">
-        <v>255</v>
-      </c>
-      <c r="D71" t="n">
-        <v>255</v>
-      </c>
-      <c r="E71" t="n">
-        <v>255</v>
-      </c>
-      <c r="F71" t="n">
-        <v>2</v>
-      </c>
-      <c r="G71" t="n">
-        <v>244.2666666666667</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
+      <c r="N72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>256</v>
+      </c>
+      <c r="C73" t="n">
+        <v>257</v>
+      </c>
+      <c r="D73" t="n">
+        <v>257</v>
+      </c>
+      <c r="E73" t="n">
+        <v>256</v>
+      </c>
+      <c r="F73" t="n">
+        <v>2257.2296</v>
+      </c>
+      <c r="G73" t="n">
+        <v>247.9333333333333</v>
+      </c>
+      <c r="H73" t="n">
+        <v>244.6333333333333</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>238</v>
+      </c>
+      <c r="M73" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>255</v>
-      </c>
-      <c r="C72" t="n">
-        <v>255</v>
-      </c>
-      <c r="D72" t="n">
-        <v>255</v>
-      </c>
-      <c r="E72" t="n">
-        <v>255</v>
-      </c>
-      <c r="F72" t="n">
-        <v>300</v>
-      </c>
-      <c r="G72" t="n">
-        <v>244.4166666666667</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
+      <c r="N73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>257</v>
+      </c>
+      <c r="C74" t="n">
+        <v>257</v>
+      </c>
+      <c r="D74" t="n">
+        <v>257</v>
+      </c>
+      <c r="E74" t="n">
+        <v>257</v>
+      </c>
+      <c r="F74" t="n">
+        <v>429.7443</v>
+      </c>
+      <c r="G74" t="n">
+        <v>248.8</v>
+      </c>
+      <c r="H74" t="n">
+        <v>244.8333333333333</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>238</v>
+      </c>
+      <c r="M74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
+      <c r="N74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
         <v>256</v>
       </c>
-      <c r="C73" t="n">
-        <v>257</v>
-      </c>
-      <c r="D73" t="n">
-        <v>257</v>
-      </c>
-      <c r="E73" t="n">
+      <c r="C75" t="n">
         <v>256</v>
       </c>
-      <c r="F73" t="n">
-        <v>2257.2296</v>
-      </c>
-      <c r="G73" t="n">
-        <v>244.6333333333333</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
+      <c r="D75" t="n">
+        <v>256</v>
+      </c>
+      <c r="E75" t="n">
+        <v>256</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1711.7099</v>
+      </c>
+      <c r="G75" t="n">
+        <v>249.8</v>
+      </c>
+      <c r="H75" t="n">
+        <v>245.0166666666667</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>238</v>
+      </c>
+      <c r="M75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
+      <c r="N75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>256</v>
+      </c>
+      <c r="C76" t="n">
         <v>257</v>
       </c>
-      <c r="C74" t="n">
+      <c r="D76" t="n">
         <v>257</v>
       </c>
-      <c r="D74" t="n">
+      <c r="E76" t="n">
+        <v>256</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1300.454</v>
+      </c>
+      <c r="G76" t="n">
+        <v>250.6</v>
+      </c>
+      <c r="H76" t="n">
+        <v>245.2166666666667</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>238</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
         <v>257</v>
       </c>
-      <c r="E74" t="n">
+      <c r="C77" t="n">
+        <v>258</v>
+      </c>
+      <c r="D77" t="n">
+        <v>258</v>
+      </c>
+      <c r="E77" t="n">
         <v>257</v>
       </c>
-      <c r="F74" t="n">
-        <v>429.7443</v>
-      </c>
-      <c r="G74" t="n">
-        <v>244.8333333333333</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
+      <c r="F77" t="n">
+        <v>2198.0099</v>
+      </c>
+      <c r="G77" t="n">
+        <v>251.5333333333333</v>
+      </c>
+      <c r="H77" t="n">
+        <v>245.4166666666667</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>238</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>258</v>
+      </c>
+      <c r="C78" t="n">
+        <v>259</v>
+      </c>
+      <c r="D78" t="n">
+        <v>259</v>
+      </c>
+      <c r="E78" t="n">
+        <v>258</v>
+      </c>
+      <c r="F78" t="n">
+        <v>438</v>
+      </c>
+      <c r="G78" t="n">
+        <v>252.6666666666667</v>
+      </c>
+      <c r="H78" t="n">
+        <v>245.65</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>238</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>259</v>
+      </c>
+      <c r="C79" t="n">
+        <v>260</v>
+      </c>
+      <c r="D79" t="n">
+        <v>260</v>
+      </c>
+      <c r="E79" t="n">
+        <v>259</v>
+      </c>
+      <c r="F79" t="n">
+        <v>452.203</v>
+      </c>
+      <c r="G79" t="n">
+        <v>253.8</v>
+      </c>
+      <c r="H79" t="n">
+        <v>245.8833333333333</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>238</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>260</v>
+      </c>
+      <c r="C80" t="n">
+        <v>260</v>
+      </c>
+      <c r="D80" t="n">
+        <v>260</v>
+      </c>
+      <c r="E80" t="n">
+        <v>260</v>
+      </c>
+      <c r="F80" t="n">
+        <v>3652</v>
+      </c>
+      <c r="G80" t="n">
+        <v>254.7333333333333</v>
+      </c>
+      <c r="H80" t="n">
+        <v>246.1333333333333</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>238</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>260</v>
+      </c>
+      <c r="C81" t="n">
+        <v>262</v>
+      </c>
+      <c r="D81" t="n">
+        <v>262</v>
+      </c>
+      <c r="E81" t="n">
+        <v>260</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2812.0023</v>
+      </c>
+      <c r="G81" t="n">
+        <v>255.6666666666667</v>
+      </c>
+      <c r="H81" t="n">
+        <v>246.4166666666667</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>238</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>263</v>
+      </c>
+      <c r="C82" t="n">
+        <v>263</v>
+      </c>
+      <c r="D82" t="n">
+        <v>263</v>
+      </c>
+      <c r="E82" t="n">
+        <v>263</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G82" t="n">
+        <v>256.6666666666667</v>
+      </c>
+      <c r="H82" t="n">
+        <v>246.7166666666667</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>238</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>263</v>
+      </c>
+      <c r="C83" t="n">
+        <v>263</v>
+      </c>
+      <c r="D83" t="n">
+        <v>263</v>
+      </c>
+      <c r="E83" t="n">
+        <v>263</v>
+      </c>
+      <c r="F83" t="n">
+        <v>127</v>
+      </c>
+      <c r="G83" t="n">
+        <v>257.6666666666667</v>
+      </c>
+      <c r="H83" t="n">
+        <v>247.0166666666667</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>238</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>264</v>
+      </c>
+      <c r="C84" t="n">
+        <v>265</v>
+      </c>
+      <c r="D84" t="n">
+        <v>265</v>
+      </c>
+      <c r="E84" t="n">
+        <v>264</v>
+      </c>
+      <c r="F84" t="n">
+        <v>5006.4435</v>
+      </c>
+      <c r="G84" t="n">
+        <v>258.7333333333333</v>
+      </c>
+      <c r="H84" t="n">
+        <v>247.35</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>238</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>265</v>
+      </c>
+      <c r="C85" t="n">
+        <v>262</v>
+      </c>
+      <c r="D85" t="n">
+        <v>265</v>
+      </c>
+      <c r="E85" t="n">
+        <v>262</v>
+      </c>
+      <c r="F85" t="n">
+        <v>4080.1769</v>
+      </c>
+      <c r="G85" t="n">
+        <v>259.2666666666667</v>
+      </c>
+      <c r="H85" t="n">
+        <v>247.6333333333333</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>238</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>262</v>
+      </c>
+      <c r="C86" t="n">
+        <v>260</v>
+      </c>
+      <c r="D86" t="n">
+        <v>262</v>
+      </c>
+      <c r="E86" t="n">
+        <v>260</v>
+      </c>
+      <c r="F86" t="n">
+        <v>5165.5299</v>
+      </c>
+      <c r="G86" t="n">
+        <v>259.6</v>
+      </c>
+      <c r="H86" t="n">
+        <v>247.8833333333333</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>238</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>260</v>
+      </c>
+      <c r="C87" t="n">
+        <v>260</v>
+      </c>
+      <c r="D87" t="n">
+        <v>260</v>
+      </c>
+      <c r="E87" t="n">
+        <v>260</v>
+      </c>
+      <c r="F87" t="n">
+        <v>4649.4033</v>
+      </c>
+      <c r="G87" t="n">
+        <v>259.9333333333333</v>
+      </c>
+      <c r="H87" t="n">
+        <v>248.1166666666667</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>238</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>263</v>
+      </c>
+      <c r="C88" t="n">
+        <v>263</v>
+      </c>
+      <c r="D88" t="n">
+        <v>263</v>
+      </c>
+      <c r="E88" t="n">
+        <v>263</v>
+      </c>
+      <c r="F88" t="n">
+        <v>471.0641</v>
+      </c>
+      <c r="G88" t="n">
+        <v>260.3333333333333</v>
+      </c>
+      <c r="H88" t="n">
+        <v>248.35</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>238</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>264</v>
+      </c>
+      <c r="C89" t="n">
+        <v>264</v>
+      </c>
+      <c r="D89" t="n">
+        <v>264</v>
+      </c>
+      <c r="E89" t="n">
+        <v>264</v>
+      </c>
+      <c r="F89" t="n">
+        <v>661.1477</v>
+      </c>
+      <c r="G89" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="H89" t="n">
+        <v>248.6833333333333</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>238</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>261</v>
+      </c>
+      <c r="C90" t="n">
+        <v>261</v>
+      </c>
+      <c r="D90" t="n">
+        <v>261</v>
+      </c>
+      <c r="E90" t="n">
+        <v>261</v>
+      </c>
+      <c r="F90" t="n">
+        <v>240.031</v>
+      </c>
+      <c r="G90" t="n">
+        <v>261.1333333333333</v>
+      </c>
+      <c r="H90" t="n">
+        <v>248.9666666666667</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>238</v>
+      </c>
+      <c r="M90" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>256</v>
-      </c>
-      <c r="C75" t="n">
-        <v>256</v>
-      </c>
-      <c r="D75" t="n">
-        <v>256</v>
-      </c>
-      <c r="E75" t="n">
-        <v>256</v>
-      </c>
-      <c r="F75" t="n">
-        <v>1711.7099</v>
-      </c>
-      <c r="G75" t="n">
-        <v>245.0166666666667</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>256</v>
-      </c>
-      <c r="C76" t="n">
-        <v>257</v>
-      </c>
-      <c r="D76" t="n">
-        <v>257</v>
-      </c>
-      <c r="E76" t="n">
-        <v>256</v>
-      </c>
-      <c r="F76" t="n">
-        <v>1300.454</v>
-      </c>
-      <c r="G76" t="n">
-        <v>245.2166666666667</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>257</v>
-      </c>
-      <c r="C77" t="n">
-        <v>258</v>
-      </c>
-      <c r="D77" t="n">
-        <v>258</v>
-      </c>
-      <c r="E77" t="n">
-        <v>257</v>
-      </c>
-      <c r="F77" t="n">
-        <v>2198.0099</v>
-      </c>
-      <c r="G77" t="n">
-        <v>245.4166666666667</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>258</v>
-      </c>
-      <c r="C78" t="n">
-        <v>259</v>
-      </c>
-      <c r="D78" t="n">
-        <v>259</v>
-      </c>
-      <c r="E78" t="n">
-        <v>258</v>
-      </c>
-      <c r="F78" t="n">
-        <v>438</v>
-      </c>
-      <c r="G78" t="n">
-        <v>245.65</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>259</v>
-      </c>
-      <c r="C79" t="n">
-        <v>260</v>
-      </c>
-      <c r="D79" t="n">
-        <v>260</v>
-      </c>
-      <c r="E79" t="n">
-        <v>259</v>
-      </c>
-      <c r="F79" t="n">
-        <v>452.203</v>
-      </c>
-      <c r="G79" t="n">
-        <v>245.8833333333333</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>260</v>
-      </c>
-      <c r="C80" t="n">
-        <v>260</v>
-      </c>
-      <c r="D80" t="n">
-        <v>260</v>
-      </c>
-      <c r="E80" t="n">
-        <v>260</v>
-      </c>
-      <c r="F80" t="n">
-        <v>3652</v>
-      </c>
-      <c r="G80" t="n">
-        <v>246.1333333333333</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>260</v>
-      </c>
-      <c r="C81" t="n">
-        <v>262</v>
-      </c>
-      <c r="D81" t="n">
-        <v>262</v>
-      </c>
-      <c r="E81" t="n">
-        <v>260</v>
-      </c>
-      <c r="F81" t="n">
-        <v>2812.0023</v>
-      </c>
-      <c r="G81" t="n">
-        <v>246.4166666666667</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>263</v>
-      </c>
-      <c r="C82" t="n">
-        <v>263</v>
-      </c>
-      <c r="D82" t="n">
-        <v>263</v>
-      </c>
-      <c r="E82" t="n">
-        <v>263</v>
-      </c>
-      <c r="F82" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G82" t="n">
-        <v>246.7166666666667</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>263</v>
-      </c>
-      <c r="C83" t="n">
-        <v>263</v>
-      </c>
-      <c r="D83" t="n">
-        <v>263</v>
-      </c>
-      <c r="E83" t="n">
-        <v>263</v>
-      </c>
-      <c r="F83" t="n">
-        <v>127</v>
-      </c>
-      <c r="G83" t="n">
-        <v>247.0166666666667</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>264</v>
-      </c>
-      <c r="C84" t="n">
-        <v>265</v>
-      </c>
-      <c r="D84" t="n">
-        <v>265</v>
-      </c>
-      <c r="E84" t="n">
-        <v>264</v>
-      </c>
-      <c r="F84" t="n">
-        <v>5006.4435</v>
-      </c>
-      <c r="G84" t="n">
-        <v>247.35</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>265</v>
-      </c>
-      <c r="C85" t="n">
-        <v>262</v>
-      </c>
-      <c r="D85" t="n">
-        <v>265</v>
-      </c>
-      <c r="E85" t="n">
-        <v>262</v>
-      </c>
-      <c r="F85" t="n">
-        <v>4080.1769</v>
-      </c>
-      <c r="G85" t="n">
-        <v>247.6333333333333</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>262</v>
-      </c>
-      <c r="C86" t="n">
-        <v>260</v>
-      </c>
-      <c r="D86" t="n">
-        <v>262</v>
-      </c>
-      <c r="E86" t="n">
-        <v>260</v>
-      </c>
-      <c r="F86" t="n">
-        <v>5165.5299</v>
-      </c>
-      <c r="G86" t="n">
-        <v>247.8833333333333</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>260</v>
-      </c>
-      <c r="C87" t="n">
-        <v>260</v>
-      </c>
-      <c r="D87" t="n">
-        <v>260</v>
-      </c>
-      <c r="E87" t="n">
-        <v>260</v>
-      </c>
-      <c r="F87" t="n">
-        <v>4649.4033</v>
-      </c>
-      <c r="G87" t="n">
-        <v>248.1166666666667</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>263</v>
-      </c>
-      <c r="C88" t="n">
-        <v>263</v>
-      </c>
-      <c r="D88" t="n">
-        <v>263</v>
-      </c>
-      <c r="E88" t="n">
-        <v>263</v>
-      </c>
-      <c r="F88" t="n">
-        <v>471.0641</v>
-      </c>
-      <c r="G88" t="n">
-        <v>248.35</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>264</v>
-      </c>
-      <c r="C89" t="n">
-        <v>264</v>
-      </c>
-      <c r="D89" t="n">
-        <v>264</v>
-      </c>
-      <c r="E89" t="n">
-        <v>264</v>
-      </c>
-      <c r="F89" t="n">
-        <v>661.1477</v>
-      </c>
-      <c r="G89" t="n">
-        <v>248.6833333333333</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>261</v>
-      </c>
-      <c r="C90" t="n">
-        <v>261</v>
-      </c>
-      <c r="D90" t="n">
-        <v>261</v>
-      </c>
-      <c r="E90" t="n">
-        <v>261</v>
-      </c>
-      <c r="F90" t="n">
-        <v>240.031</v>
-      </c>
-      <c r="G90" t="n">
-        <v>248.9666666666667</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
+      <c r="N90" t="n">
+        <v>1.091638655462185</v>
       </c>
     </row>
     <row r="91">
@@ -3649,18 +4065,21 @@
         <v>8388.2505</v>
       </c>
       <c r="G91" t="n">
+        <v>261.2666666666667</v>
+      </c>
+      <c r="H91" t="n">
         <v>249.2333333333333</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3684,18 +4103,21 @@
         <v>500</v>
       </c>
       <c r="G92" t="n">
+        <v>261.3333333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>249.4833333333333</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3719,18 +4141,21 @@
         <v>304.2737</v>
       </c>
       <c r="G93" t="n">
+        <v>261.2</v>
+      </c>
+      <c r="H93" t="n">
         <v>249.6833333333333</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3754,18 +4179,21 @@
         <v>2859.69140625</v>
       </c>
       <c r="G94" t="n">
+        <v>260.9333333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>249.8666666666667</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3789,18 +4217,21 @@
         <v>500</v>
       </c>
       <c r="G95" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="H95" t="n">
         <v>250.0166666666667</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3824,18 +4255,21 @@
         <v>272.0172</v>
       </c>
       <c r="G96" t="n">
+        <v>260.1333333333333</v>
+      </c>
+      <c r="H96" t="n">
         <v>250.2166666666667</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3859,18 +4293,21 @@
         <v>1207.65</v>
       </c>
       <c r="G97" t="n">
+        <v>259.3333333333333</v>
+      </c>
+      <c r="H97" t="n">
         <v>250.35</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3894,18 +4331,21 @@
         <v>73.18380000000001</v>
       </c>
       <c r="G98" t="n">
+        <v>258.4666666666666</v>
+      </c>
+      <c r="H98" t="n">
         <v>250.45</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3929,18 +4369,21 @@
         <v>273.0909090909091</v>
       </c>
       <c r="G99" t="n">
+        <v>257.6666666666667</v>
+      </c>
+      <c r="H99" t="n">
         <v>250.5833333333333</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3964,18 +4407,21 @@
         <v>261.681</v>
       </c>
       <c r="G100" t="n">
+        <v>257.3333333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>250.7833333333333</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3999,18 +4445,21 @@
         <v>200</v>
       </c>
       <c r="G101" t="n">
+        <v>256.7333333333333</v>
+      </c>
+      <c r="H101" t="n">
         <v>250.8833333333333</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4034,18 +4483,21 @@
         <v>10</v>
       </c>
       <c r="G102" t="n">
+        <v>256.4</v>
+      </c>
+      <c r="H102" t="n">
         <v>251.05</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,18 +4521,21 @@
         <v>404</v>
       </c>
       <c r="G103" t="n">
+        <v>256</v>
+      </c>
+      <c r="H103" t="n">
         <v>251.3</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4104,18 +4559,21 @@
         <v>1629.747</v>
       </c>
       <c r="G104" t="n">
+        <v>255.6</v>
+      </c>
+      <c r="H104" t="n">
         <v>251.55</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4139,18 +4597,21 @@
         <v>1464</v>
       </c>
       <c r="G105" t="n">
+        <v>255.4</v>
+      </c>
+      <c r="H105" t="n">
         <v>251.8166666666667</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4174,18 +4635,21 @@
         <v>250</v>
       </c>
       <c r="G106" t="n">
+        <v>255.4</v>
+      </c>
+      <c r="H106" t="n">
         <v>252.0833333333333</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4209,18 +4673,21 @@
         <v>6108.4606</v>
       </c>
       <c r="G107" t="n">
+        <v>255.4666666666667</v>
+      </c>
+      <c r="H107" t="n">
         <v>252.35</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4244,18 +4711,21 @@
         <v>5588.4606</v>
       </c>
       <c r="G108" t="n">
+        <v>255.7333333333333</v>
+      </c>
+      <c r="H108" t="n">
         <v>252.6333333333333</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4279,18 +4749,21 @@
         <v>2</v>
       </c>
       <c r="G109" t="n">
+        <v>256</v>
+      </c>
+      <c r="H109" t="n">
         <v>252.95</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4314,18 +4787,21 @@
         <v>267</v>
       </c>
       <c r="G110" t="n">
+        <v>256.3333333333333</v>
+      </c>
+      <c r="H110" t="n">
         <v>253.2833333333333</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4349,18 +4825,21 @@
         <v>750</v>
       </c>
       <c r="G111" t="n">
+        <v>256.7333333333333</v>
+      </c>
+      <c r="H111" t="n">
         <v>253.6333333333333</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4384,18 +4863,21 @@
         <v>500</v>
       </c>
       <c r="G112" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="H112" t="n">
         <v>253.9833333333333</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4419,18 +4901,401 @@
         <v>1068.882</v>
       </c>
       <c r="G113" t="n">
+        <v>258.1333333333333</v>
+      </c>
+      <c r="H113" t="n">
         <v>254.35</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>261</v>
+      </c>
+      <c r="C114" t="n">
+        <v>261</v>
+      </c>
+      <c r="D114" t="n">
+        <v>261</v>
+      </c>
+      <c r="E114" t="n">
+        <v>261</v>
+      </c>
+      <c r="F114" t="n">
+        <v>783.373</v>
+      </c>
+      <c r="G114" t="n">
+        <v>258.6666666666667</v>
+      </c>
+      <c r="H114" t="n">
+        <v>254.7333333333333</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>261</v>
+      </c>
+      <c r="C115" t="n">
+        <v>261</v>
+      </c>
+      <c r="D115" t="n">
+        <v>261</v>
+      </c>
+      <c r="E115" t="n">
+        <v>261</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1815.267</v>
+      </c>
+      <c r="G115" t="n">
+        <v>258.9333333333333</v>
+      </c>
+      <c r="H115" t="n">
+        <v>255.1166666666667</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>260</v>
+      </c>
+      <c r="C116" t="n">
+        <v>259</v>
+      </c>
+      <c r="D116" t="n">
+        <v>260</v>
+      </c>
+      <c r="E116" t="n">
+        <v>259</v>
+      </c>
+      <c r="F116" t="n">
+        <v>3710.8057</v>
+      </c>
+      <c r="G116" t="n">
+        <v>259.4666666666666</v>
+      </c>
+      <c r="H116" t="n">
+        <v>255.4333333333333</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>259</v>
+      </c>
+      <c r="C117" t="n">
+        <v>259</v>
+      </c>
+      <c r="D117" t="n">
+        <v>259</v>
+      </c>
+      <c r="E117" t="n">
+        <v>259</v>
+      </c>
+      <c r="F117" t="n">
+        <v>342.5339</v>
+      </c>
+      <c r="G117" t="n">
+        <v>259.7333333333333</v>
+      </c>
+      <c r="H117" t="n">
+        <v>255.7333333333333</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>259</v>
+      </c>
+      <c r="C118" t="n">
+        <v>259</v>
+      </c>
+      <c r="D118" t="n">
+        <v>259</v>
+      </c>
+      <c r="E118" t="n">
+        <v>259</v>
+      </c>
+      <c r="F118" t="n">
+        <v>315.3684</v>
+      </c>
+      <c r="G118" t="n">
+        <v>259.8666666666667</v>
+      </c>
+      <c r="H118" t="n">
+        <v>256.0333333333334</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>261</v>
+      </c>
+      <c r="C119" t="n">
+        <v>261</v>
+      </c>
+      <c r="D119" t="n">
+        <v>261</v>
+      </c>
+      <c r="E119" t="n">
+        <v>261</v>
+      </c>
+      <c r="F119" t="n">
+        <v>345.8299</v>
+      </c>
+      <c r="G119" t="n">
+        <v>260.0666666666667</v>
+      </c>
+      <c r="H119" t="n">
+        <v>256.3166666666667</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>1</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>262</v>
+      </c>
+      <c r="C120" t="n">
+        <v>262</v>
+      </c>
+      <c r="D120" t="n">
+        <v>262</v>
+      </c>
+      <c r="E120" t="n">
+        <v>262</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1207.7973</v>
+      </c>
+      <c r="G120" t="n">
+        <v>260.3333333333333</v>
+      </c>
+      <c r="H120" t="n">
+        <v>256.6666666666667</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>260</v>
+      </c>
+      <c r="C121" t="n">
+        <v>259</v>
+      </c>
+      <c r="D121" t="n">
+        <v>260</v>
+      </c>
+      <c r="E121" t="n">
+        <v>259</v>
+      </c>
+      <c r="F121" t="n">
+        <v>3491.317</v>
+      </c>
+      <c r="G121" t="n">
+        <v>260.3333333333333</v>
+      </c>
+      <c r="H121" t="n">
+        <v>256.9</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>259</v>
+      </c>
+      <c r="C122" t="n">
+        <v>259</v>
+      </c>
+      <c r="D122" t="n">
+        <v>259</v>
+      </c>
+      <c r="E122" t="n">
+        <v>259</v>
+      </c>
+      <c r="F122" t="n">
+        <v>114.1756</v>
+      </c>
+      <c r="G122" t="n">
+        <v>260.2666666666667</v>
+      </c>
+      <c r="H122" t="n">
+        <v>257.15</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>1</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>263</v>
+      </c>
+      <c r="C123" t="n">
+        <v>263</v>
+      </c>
+      <c r="D123" t="n">
+        <v>264</v>
+      </c>
+      <c r="E123" t="n">
+        <v>263</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1592.418</v>
+      </c>
+      <c r="G123" t="n">
+        <v>260.4</v>
+      </c>
+      <c r="H123" t="n">
+        <v>257.5</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>1</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-15 BackTest ABT.xlsx
+++ b/BackTest/2019-11-15 BackTest ABT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N123"/>
+  <dimension ref="A1:M152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C2" t="n">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D2" t="n">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E2" t="n">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F2" t="n">
-        <v>222.3043</v>
+        <v>624.2215</v>
       </c>
       <c r="G2" t="n">
-        <v>246.9333333333333</v>
+        <v>66413.66279999999</v>
       </c>
       <c r="H2" t="n">
-        <v>249.6833333333333</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -488,24 +480,21 @@
         <v>249</v>
       </c>
       <c r="F3" t="n">
-        <v>2.1356</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>246.8666666666667</v>
+        <v>66418.66279999999</v>
       </c>
       <c r="H3" t="n">
-        <v>249.65</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C4" t="n">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D4" t="n">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="E4" t="n">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F4" t="n">
-        <v>175.6899</v>
+        <v>8537.5388</v>
       </c>
       <c r="G4" t="n">
-        <v>247.1333333333333</v>
+        <v>74956.20159999999</v>
       </c>
       <c r="H4" t="n">
-        <v>249.6</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>249</v>
       </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +544,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="C5" t="n">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="D5" t="n">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="E5" t="n">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="F5" t="n">
-        <v>706.5937</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>246.8</v>
+        <v>74959.20159999999</v>
       </c>
       <c r="H5" t="n">
-        <v>249.5</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +585,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C6" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D6" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E6" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F6" t="n">
-        <v>1575.6899</v>
+        <v>42.6291</v>
       </c>
       <c r="G6" t="n">
-        <v>246.8</v>
+        <v>74916.57249999998</v>
       </c>
       <c r="H6" t="n">
-        <v>249.4</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +626,37 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C7" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D7" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E7" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F7" t="n">
-        <v>2108.8792</v>
+        <v>150</v>
       </c>
       <c r="G7" t="n">
-        <v>246.8</v>
+        <v>74916.57249999998</v>
       </c>
       <c r="H7" t="n">
-        <v>249.4</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +665,37 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C8" t="n">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D8" t="n">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E8" t="n">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F8" t="n">
-        <v>115.2747</v>
+        <v>11</v>
       </c>
       <c r="G8" t="n">
-        <v>246.8</v>
+        <v>74916.57249999998</v>
       </c>
       <c r="H8" t="n">
-        <v>249.2833333333333</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +704,37 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C9" t="n">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D9" t="n">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E9" t="n">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F9" t="n">
-        <v>1000</v>
+        <v>3357.6115</v>
       </c>
       <c r="G9" t="n">
-        <v>246.7333333333333</v>
+        <v>71558.96099999998</v>
       </c>
       <c r="H9" t="n">
-        <v>249.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +743,37 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C10" t="n">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="D10" t="n">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="E10" t="n">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F10" t="n">
-        <v>125.9748</v>
+        <v>16416.4269</v>
       </c>
       <c r="G10" t="n">
-        <v>246.6</v>
+        <v>87975.38789999997</v>
       </c>
       <c r="H10" t="n">
-        <v>248.9666666666667</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -783,33 +785,34 @@
         <v>246</v>
       </c>
       <c r="C11" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D11" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E11" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F11" t="n">
-        <v>107.792</v>
+        <v>10880.9058</v>
       </c>
       <c r="G11" t="n">
-        <v>246.8</v>
+        <v>77094.48209999996</v>
       </c>
       <c r="H11" t="n">
-        <v>248.8</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +821,37 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C12" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D12" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E12" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F12" t="n">
-        <v>5000</v>
+        <v>150</v>
       </c>
       <c r="G12" t="n">
-        <v>246.6666666666667</v>
+        <v>77094.48209999996</v>
       </c>
       <c r="H12" t="n">
-        <v>248.65</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +860,37 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C13" t="n">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D13" t="n">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E13" t="n">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F13" t="n">
-        <v>855.8099999999999</v>
+        <v>150</v>
       </c>
       <c r="G13" t="n">
-        <v>246.4</v>
+        <v>77244.48209999996</v>
       </c>
       <c r="H13" t="n">
-        <v>248.5666666666667</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +899,37 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C14" t="n">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="D14" t="n">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="E14" t="n">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F14" t="n">
-        <v>30.9891</v>
+        <v>162</v>
       </c>
       <c r="G14" t="n">
-        <v>246.8</v>
+        <v>77406.48209999996</v>
       </c>
       <c r="H14" t="n">
-        <v>248.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +938,37 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="C15" t="n">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D15" t="n">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="E15" t="n">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F15" t="n">
-        <v>694.1375</v>
+        <v>8730.1999</v>
       </c>
       <c r="G15" t="n">
-        <v>246.6</v>
+        <v>68676.28219999996</v>
       </c>
       <c r="H15" t="n">
-        <v>248.2833333333333</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +977,37 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C16" t="n">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D16" t="n">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E16" t="n">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F16" t="n">
-        <v>92.0438</v>
+        <v>1097.7388</v>
       </c>
       <c r="G16" t="n">
-        <v>246.3333333333333</v>
+        <v>69774.02099999996</v>
       </c>
       <c r="H16" t="n">
-        <v>248.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +1016,37 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C17" t="n">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D17" t="n">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E17" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F17" t="n">
-        <v>299.714</v>
+        <v>5350.6221</v>
       </c>
       <c r="G17" t="n">
-        <v>246.1333333333333</v>
+        <v>75124.64309999996</v>
       </c>
       <c r="H17" t="n">
-        <v>248.0333333333333</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +1055,37 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C18" t="n">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D18" t="n">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E18" t="n">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F18" t="n">
-        <v>1400</v>
+        <v>1069.5724</v>
       </c>
       <c r="G18" t="n">
-        <v>245.8666666666667</v>
+        <v>74055.07069999995</v>
       </c>
       <c r="H18" t="n">
-        <v>247.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1094,37 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C19" t="n">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D19" t="n">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E19" t="n">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F19" t="n">
-        <v>200</v>
+        <v>590.04</v>
       </c>
       <c r="G19" t="n">
-        <v>245.8666666666667</v>
+        <v>74645.11069999995</v>
       </c>
       <c r="H19" t="n">
-        <v>247.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1133,37 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C20" t="n">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D20" t="n">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E20" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F20" t="n">
-        <v>250</v>
+        <v>1380.0619</v>
       </c>
       <c r="G20" t="n">
-        <v>245.8666666666667</v>
+        <v>73265.04879999995</v>
       </c>
       <c r="H20" t="n">
-        <v>247.7666666666667</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1172,37 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C21" t="n">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D21" t="n">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E21" t="n">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F21" t="n">
-        <v>2900.5298</v>
+        <v>274.8494</v>
       </c>
       <c r="G21" t="n">
-        <v>245.6666666666667</v>
+        <v>73265.04879999995</v>
       </c>
       <c r="H21" t="n">
-        <v>247.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1201,33 +1214,34 @@
         <v>242</v>
       </c>
       <c r="C22" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D22" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E22" t="n">
         <v>242</v>
       </c>
       <c r="F22" t="n">
-        <v>7973.9556</v>
+        <v>2264.4077</v>
       </c>
       <c r="G22" t="n">
-        <v>245.4666666666667</v>
+        <v>71000.64109999995</v>
       </c>
       <c r="H22" t="n">
-        <v>247.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1250,37 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C23" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D23" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E23" t="n">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F23" t="n">
-        <v>286.166</v>
+        <v>6.0728</v>
       </c>
       <c r="G23" t="n">
-        <v>245.3333333333333</v>
+        <v>71000.64109999995</v>
       </c>
       <c r="H23" t="n">
-        <v>247.55</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1277,33 +1292,34 @@
         <v>245</v>
       </c>
       <c r="C24" t="n">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D24" t="n">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E24" t="n">
         <v>245</v>
       </c>
       <c r="F24" t="n">
-        <v>216.177</v>
+        <v>1316.221</v>
       </c>
       <c r="G24" t="n">
-        <v>245.2666666666667</v>
+        <v>72316.86209999995</v>
       </c>
       <c r="H24" t="n">
-        <v>247.4666666666667</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1328,37 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C25" t="n">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D25" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E25" t="n">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F25" t="n">
-        <v>500</v>
+        <v>836.04</v>
       </c>
       <c r="G25" t="n">
-        <v>245.2</v>
+        <v>71480.82209999996</v>
       </c>
       <c r="H25" t="n">
-        <v>247.35</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1367,37 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C26" t="n">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D26" t="n">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E26" t="n">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F26" t="n">
-        <v>137.6</v>
+        <v>1092.203</v>
       </c>
       <c r="G26" t="n">
-        <v>245.1333333333333</v>
+        <v>72573.02509999996</v>
       </c>
       <c r="H26" t="n">
-        <v>247.1833333333333</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1406,37 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C27" t="n">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D27" t="n">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E27" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F27" t="n">
-        <v>1400</v>
+        <v>5050</v>
       </c>
       <c r="G27" t="n">
-        <v>245.1333333333333</v>
+        <v>72573.02509999996</v>
       </c>
       <c r="H27" t="n">
-        <v>247.0333333333333</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1445,37 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C28" t="n">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D28" t="n">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="E28" t="n">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F28" t="n">
-        <v>346.9685</v>
+        <v>231.7679</v>
       </c>
       <c r="G28" t="n">
-        <v>245.4666666666667</v>
+        <v>72341.25719999995</v>
       </c>
       <c r="H28" t="n">
-        <v>247.05</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1484,37 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C29" t="n">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D29" t="n">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="E29" t="n">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F29" t="n">
-        <v>231.647</v>
+        <v>1276</v>
       </c>
       <c r="G29" t="n">
-        <v>245.4</v>
+        <v>73617.25719999995</v>
       </c>
       <c r="H29" t="n">
-        <v>246.9666666666667</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1523,37 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C30" t="n">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D30" t="n">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="E30" t="n">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F30" t="n">
-        <v>3169.9921</v>
+        <v>5345</v>
       </c>
       <c r="G30" t="n">
-        <v>245.3333333333333</v>
+        <v>78962.25719999995</v>
       </c>
       <c r="H30" t="n">
-        <v>246.9666666666667</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1562,37 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C31" t="n">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="D31" t="n">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E31" t="n">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="F31" t="n">
-        <v>350.566</v>
+        <v>222.3043</v>
       </c>
       <c r="G31" t="n">
-        <v>245.2</v>
+        <v>78962.25719999995</v>
       </c>
       <c r="H31" t="n">
-        <v>246.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1601,37 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C32" t="n">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D32" t="n">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="E32" t="n">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F32" t="n">
-        <v>287.55</v>
+        <v>2.1356</v>
       </c>
       <c r="G32" t="n">
-        <v>245.0666666666667</v>
+        <v>78962.25719999995</v>
       </c>
       <c r="H32" t="n">
-        <v>246.7833333333333</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1640,37 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C33" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D33" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E33" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F33" t="n">
-        <v>819.39</v>
+        <v>175.6899</v>
       </c>
       <c r="G33" t="n">
-        <v>245.0666666666667</v>
+        <v>78786.56729999995</v>
       </c>
       <c r="H33" t="n">
-        <v>246.7833333333333</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1666,24 +1691,25 @@
         <v>245</v>
       </c>
       <c r="F34" t="n">
-        <v>146.15</v>
+        <v>706.5937</v>
       </c>
       <c r="G34" t="n">
-        <v>245</v>
+        <v>78079.97359999995</v>
       </c>
       <c r="H34" t="n">
-        <v>246.7166666666667</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1718,37 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C35" t="n">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D35" t="n">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E35" t="n">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F35" t="n">
-        <v>46.6422</v>
+        <v>1575.6899</v>
       </c>
       <c r="G35" t="n">
-        <v>245.0666666666667</v>
+        <v>79655.66349999995</v>
       </c>
       <c r="H35" t="n">
-        <v>246.65</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1757,37 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C36" t="n">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D36" t="n">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E36" t="n">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="F36" t="n">
-        <v>1015.7397</v>
+        <v>2108.8792</v>
       </c>
       <c r="G36" t="n">
-        <v>244.9333333333333</v>
+        <v>79655.66349999995</v>
       </c>
       <c r="H36" t="n">
-        <v>246.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1796,37 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C37" t="n">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D37" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E37" t="n">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F37" t="n">
-        <v>1007.9747</v>
+        <v>115.2747</v>
       </c>
       <c r="G37" t="n">
-        <v>244.8</v>
+        <v>79540.38879999996</v>
       </c>
       <c r="H37" t="n">
-        <v>246.3666666666667</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1835,37 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C38" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D38" t="n">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E38" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F38" t="n">
-        <v>293</v>
+        <v>1000</v>
       </c>
       <c r="G38" t="n">
-        <v>244.7333333333333</v>
+        <v>78540.38879999996</v>
       </c>
       <c r="H38" t="n">
-        <v>246.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1874,37 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C39" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D39" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E39" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F39" t="n">
-        <v>4285.1595</v>
+        <v>125.9748</v>
       </c>
       <c r="G39" t="n">
-        <v>244.7333333333333</v>
+        <v>78540.38879999996</v>
       </c>
       <c r="H39" t="n">
-        <v>246.1833333333333</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1885,33 +1916,34 @@
         <v>246</v>
       </c>
       <c r="C40" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D40" t="n">
         <v>246</v>
       </c>
       <c r="E40" t="n">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F40" t="n">
-        <v>2557.6776</v>
+        <v>107.792</v>
       </c>
       <c r="G40" t="n">
-        <v>244.7333333333333</v>
+        <v>78540.38879999996</v>
       </c>
       <c r="H40" t="n">
-        <v>246.2333333333333</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1952,37 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C41" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D41" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E41" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F41" t="n">
-        <v>180.1824</v>
+        <v>5000</v>
       </c>
       <c r="G41" t="n">
-        <v>244.7333333333333</v>
+        <v>78540.38879999996</v>
       </c>
       <c r="H41" t="n">
-        <v>245.9</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1991,37 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C42" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D42" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E42" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F42" t="n">
-        <v>1358.6</v>
+        <v>855.8099999999999</v>
       </c>
       <c r="G42" t="n">
-        <v>244.6666666666667</v>
+        <v>77684.57879999996</v>
       </c>
       <c r="H42" t="n">
-        <v>245.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +2030,37 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C43" t="n">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D43" t="n">
         <v>245</v>
       </c>
       <c r="E43" t="n">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F43" t="n">
-        <v>4684.5128</v>
+        <v>30.9891</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2</v>
+        <v>77715.56789999997</v>
       </c>
       <c r="H43" t="n">
-        <v>245.7833333333333</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +2069,37 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C44" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D44" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E44" t="n">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F44" t="n">
-        <v>726.2067</v>
+        <v>694.1375</v>
       </c>
       <c r="G44" t="n">
-        <v>244.1333333333333</v>
+        <v>77715.56789999997</v>
       </c>
       <c r="H44" t="n">
-        <v>245.6833333333333</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +2108,37 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C45" t="n">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D45" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E45" t="n">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F45" t="n">
-        <v>1237.9163</v>
+        <v>92.0438</v>
       </c>
       <c r="G45" t="n">
-        <v>244</v>
+        <v>77715.56789999997</v>
       </c>
       <c r="H45" t="n">
-        <v>245.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +2147,37 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C46" t="n">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D46" t="n">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E46" t="n">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F46" t="n">
-        <v>2308.0781</v>
+        <v>299.714</v>
       </c>
       <c r="G46" t="n">
-        <v>244</v>
+        <v>78015.28189999997</v>
       </c>
       <c r="H46" t="n">
-        <v>245.5</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2186,37 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C47" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D47" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E47" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F47" t="n">
-        <v>10</v>
+        <v>1400</v>
       </c>
       <c r="G47" t="n">
-        <v>244</v>
+        <v>76615.28189999997</v>
       </c>
       <c r="H47" t="n">
-        <v>245.5333333333333</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2225,37 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C48" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D48" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E48" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F48" t="n">
-        <v>2690</v>
+        <v>200</v>
       </c>
       <c r="G48" t="n">
-        <v>243.9333333333333</v>
+        <v>76815.28189999997</v>
       </c>
       <c r="H48" t="n">
-        <v>245.4333333333333</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2264,37 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C49" t="n">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D49" t="n">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E49" t="n">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F49" t="n">
-        <v>1686.0478</v>
+        <v>250</v>
       </c>
       <c r="G49" t="n">
-        <v>243.6666666666667</v>
+        <v>76565.28189999997</v>
       </c>
       <c r="H49" t="n">
-        <v>245.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2303,37 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C50" t="n">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D50" t="n">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E50" t="n">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="F50" t="n">
-        <v>107.5627</v>
+        <v>2900.5298</v>
       </c>
       <c r="G50" t="n">
-        <v>243.2666666666667</v>
+        <v>76565.28189999997</v>
       </c>
       <c r="H50" t="n">
-        <v>245.25</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2342,37 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C51" t="n">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D51" t="n">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="E51" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F51" t="n">
-        <v>186.0478</v>
+        <v>7973.9556</v>
       </c>
       <c r="G51" t="n">
-        <v>243.0666666666667</v>
+        <v>76565.28189999997</v>
       </c>
       <c r="H51" t="n">
-        <v>245.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2381,37 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C52" t="n">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D52" t="n">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E52" t="n">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F52" t="n">
-        <v>313.9522</v>
+        <v>286.166</v>
       </c>
       <c r="G52" t="n">
-        <v>242.8666666666667</v>
+        <v>76565.28189999997</v>
       </c>
       <c r="H52" t="n">
-        <v>244.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2420,37 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C53" t="n">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="D53" t="n">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="E53" t="n">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="F53" t="n">
-        <v>989</v>
+        <v>216.177</v>
       </c>
       <c r="G53" t="n">
-        <v>242.5333333333333</v>
+        <v>76565.28189999997</v>
       </c>
       <c r="H53" t="n">
-        <v>244.85</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2459,37 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C54" t="n">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D54" t="n">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="E54" t="n">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="F54" t="n">
-        <v>567.0337</v>
+        <v>500</v>
       </c>
       <c r="G54" t="n">
-        <v>242.0666666666667</v>
+        <v>76565.28189999997</v>
       </c>
       <c r="H54" t="n">
-        <v>244.7</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,40 +2498,37 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="C55" t="n">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D55" t="n">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="E55" t="n">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="F55" t="n">
-        <v>11927.4094</v>
+        <v>137.6</v>
       </c>
       <c r="G55" t="n">
-        <v>241.6</v>
+        <v>76565.28189999997</v>
       </c>
       <c r="H55" t="n">
-        <v>244.5333333333333</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="n">
-        <v>238</v>
-      </c>
-      <c r="L55" t="n">
-        <v>238</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2494,42 +2537,37 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="C56" t="n">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D56" t="n">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="E56" t="n">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="F56" t="n">
-        <v>5025.6702</v>
+        <v>1400</v>
       </c>
       <c r="G56" t="n">
-        <v>241.2666666666667</v>
+        <v>77965.28189999997</v>
       </c>
       <c r="H56" t="n">
-        <v>244.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>238</v>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2538,42 +2576,37 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C57" t="n">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="D57" t="n">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="E57" t="n">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F57" t="n">
-        <v>120.5702</v>
+        <v>346.9685</v>
       </c>
       <c r="G57" t="n">
-        <v>241</v>
+        <v>78312.25039999998</v>
       </c>
       <c r="H57" t="n">
-        <v>244.3666666666667</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>238</v>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2582,44 +2615,37 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C58" t="n">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D58" t="n">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E58" t="n">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F58" t="n">
-        <v>4731.2559</v>
+        <v>231.647</v>
       </c>
       <c r="G58" t="n">
-        <v>240.9333333333333</v>
+        <v>78080.60339999998</v>
       </c>
       <c r="H58" t="n">
-        <v>244.25</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="n">
-        <v>241</v>
-      </c>
-      <c r="L58" t="n">
-        <v>238</v>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2628,7 +2654,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C59" t="n">
         <v>244</v>
@@ -2637,33 +2663,28 @@
         <v>244</v>
       </c>
       <c r="E59" t="n">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="F59" t="n">
-        <v>2818.9606</v>
+        <v>3169.9921</v>
       </c>
       <c r="G59" t="n">
-        <v>241</v>
+        <v>78080.60339999998</v>
       </c>
       <c r="H59" t="n">
-        <v>244.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>238</v>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2672,44 +2693,37 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
+        <v>246</v>
+      </c>
+      <c r="C60" t="n">
         <v>243</v>
       </c>
-      <c r="C60" t="n">
-        <v>241</v>
-      </c>
       <c r="D60" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E60" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F60" t="n">
-        <v>469.4754591836735</v>
+        <v>350.566</v>
       </c>
       <c r="G60" t="n">
-        <v>240.9333333333333</v>
+        <v>77730.03739999997</v>
       </c>
       <c r="H60" t="n">
-        <v>244.2166666666667</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="n">
-        <v>244</v>
-      </c>
-      <c r="L60" t="n">
-        <v>238</v>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2721,41 +2735,34 @@
         <v>244</v>
       </c>
       <c r="C61" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D61" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E61" t="n">
         <v>244</v>
       </c>
       <c r="F61" t="n">
-        <v>231.154732244898</v>
+        <v>287.55</v>
       </c>
       <c r="G61" t="n">
-        <v>241.0666666666667</v>
+        <v>78017.58739999997</v>
       </c>
       <c r="H61" t="n">
-        <v>244.15</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="n">
-        <v>241</v>
-      </c>
-      <c r="L61" t="n">
-        <v>238</v>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2767,41 +2774,34 @@
         <v>244</v>
       </c>
       <c r="C62" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D62" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E62" t="n">
         <v>244</v>
       </c>
       <c r="F62" t="n">
-        <v>1400</v>
+        <v>819.39</v>
       </c>
       <c r="G62" t="n">
-        <v>241.0666666666667</v>
+        <v>78836.97739999997</v>
       </c>
       <c r="H62" t="n">
-        <v>244.0666666666667</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="n">
-        <v>245</v>
-      </c>
-      <c r="L62" t="n">
-        <v>238</v>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2810,44 +2810,37 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C63" t="n">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D63" t="n">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E63" t="n">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F63" t="n">
-        <v>231.1547</v>
+        <v>146.15</v>
       </c>
       <c r="G63" t="n">
-        <v>240.9333333333333</v>
+        <v>78836.97739999997</v>
       </c>
       <c r="H63" t="n">
-        <v>243.95</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="n">
-        <v>244</v>
-      </c>
-      <c r="L63" t="n">
-        <v>238</v>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2856,44 +2849,37 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C64" t="n">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D64" t="n">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E64" t="n">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F64" t="n">
-        <v>49.8533</v>
+        <v>46.6422</v>
       </c>
       <c r="G64" t="n">
-        <v>241.0666666666667</v>
+        <v>78883.61959999998</v>
       </c>
       <c r="H64" t="n">
-        <v>243.9</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="n">
-        <v>242</v>
-      </c>
-      <c r="L64" t="n">
-        <v>238</v>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2905,41 +2891,34 @@
         <v>245</v>
       </c>
       <c r="C65" t="n">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D65" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E65" t="n">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F65" t="n">
-        <v>48</v>
+        <v>1015.7397</v>
       </c>
       <c r="G65" t="n">
-        <v>241.4666666666667</v>
+        <v>77867.87989999997</v>
       </c>
       <c r="H65" t="n">
-        <v>243.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="n">
-        <v>243</v>
-      </c>
-      <c r="L65" t="n">
-        <v>238</v>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2948,44 +2927,37 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C66" t="n">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D66" t="n">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E66" t="n">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F66" t="n">
-        <v>902</v>
+        <v>1007.9747</v>
       </c>
       <c r="G66" t="n">
-        <v>242</v>
+        <v>77867.87989999997</v>
       </c>
       <c r="H66" t="n">
-        <v>243.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="n">
-        <v>246</v>
-      </c>
-      <c r="L66" t="n">
-        <v>238</v>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2994,42 +2966,37 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C67" t="n">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D67" t="n">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E67" t="n">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F67" t="n">
-        <v>816.383</v>
+        <v>293</v>
       </c>
       <c r="G67" t="n">
-        <v>242.5333333333333</v>
+        <v>78160.87989999997</v>
       </c>
       <c r="H67" t="n">
-        <v>243.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>238</v>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,42 +3005,37 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C68" t="n">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D68" t="n">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E68" t="n">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F68" t="n">
-        <v>3046.2322</v>
+        <v>4285.1595</v>
       </c>
       <c r="G68" t="n">
-        <v>243.1333333333333</v>
+        <v>82446.03939999997</v>
       </c>
       <c r="H68" t="n">
-        <v>243.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>238</v>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3082,42 +3044,37 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C69" t="n">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D69" t="n">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E69" t="n">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F69" t="n">
-        <v>6670</v>
+        <v>2557.6776</v>
       </c>
       <c r="G69" t="n">
-        <v>243.8666666666667</v>
+        <v>82446.03939999997</v>
       </c>
       <c r="H69" t="n">
-        <v>243.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>238</v>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3126,42 +3083,37 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C70" t="n">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="D70" t="n">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="E70" t="n">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F70" t="n">
-        <v>3998</v>
+        <v>180.1824</v>
       </c>
       <c r="G70" t="n">
-        <v>244.9333333333333</v>
+        <v>82446.03939999997</v>
       </c>
       <c r="H70" t="n">
-        <v>244.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>238</v>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3170,42 +3122,37 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C71" t="n">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="D71" t="n">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="E71" t="n">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="F71" t="n">
-        <v>2</v>
+        <v>1358.6</v>
       </c>
       <c r="G71" t="n">
-        <v>245.9333333333333</v>
+        <v>82446.03939999997</v>
       </c>
       <c r="H71" t="n">
-        <v>244.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>238</v>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3214,42 +3161,37 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="C72" t="n">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="D72" t="n">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="E72" t="n">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="F72" t="n">
-        <v>300</v>
+        <v>4684.5128</v>
       </c>
       <c r="G72" t="n">
-        <v>246.8666666666667</v>
+        <v>77761.52659999997</v>
       </c>
       <c r="H72" t="n">
-        <v>244.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>238</v>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3258,42 +3200,37 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="C73" t="n">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="D73" t="n">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="E73" t="n">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="F73" t="n">
-        <v>2257.2296</v>
+        <v>726.2067</v>
       </c>
       <c r="G73" t="n">
-        <v>247.9333333333333</v>
+        <v>78487.73329999996</v>
       </c>
       <c r="H73" t="n">
-        <v>244.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>238</v>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3302,42 +3239,37 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="C74" t="n">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="D74" t="n">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="E74" t="n">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="F74" t="n">
-        <v>429.7443</v>
+        <v>1237.9163</v>
       </c>
       <c r="G74" t="n">
-        <v>248.8</v>
+        <v>77249.81699999997</v>
       </c>
       <c r="H74" t="n">
-        <v>244.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>238</v>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3346,42 +3278,37 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="C75" t="n">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="D75" t="n">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="E75" t="n">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="F75" t="n">
-        <v>1711.7099</v>
+        <v>2308.0781</v>
       </c>
       <c r="G75" t="n">
-        <v>249.8</v>
+        <v>79557.89509999997</v>
       </c>
       <c r="H75" t="n">
-        <v>245.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>238</v>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3390,42 +3317,37 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C76" t="n">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="D76" t="n">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="E76" t="n">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="F76" t="n">
-        <v>1300.454</v>
+        <v>10</v>
       </c>
       <c r="G76" t="n">
-        <v>250.6</v>
+        <v>79567.89509999997</v>
       </c>
       <c r="H76" t="n">
-        <v>245.2166666666667</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>238</v>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3434,42 +3356,37 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="C77" t="n">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="D77" t="n">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="E77" t="n">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="F77" t="n">
-        <v>2198.0099</v>
+        <v>2690</v>
       </c>
       <c r="G77" t="n">
-        <v>251.5333333333333</v>
+        <v>79567.89509999997</v>
       </c>
       <c r="H77" t="n">
-        <v>245.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>238</v>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,42 +3395,37 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="C78" t="n">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="D78" t="n">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="E78" t="n">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="F78" t="n">
-        <v>438</v>
+        <v>1686.0478</v>
       </c>
       <c r="G78" t="n">
-        <v>252.6666666666667</v>
+        <v>77881.84729999996</v>
       </c>
       <c r="H78" t="n">
-        <v>245.65</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>238</v>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3522,42 +3434,37 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="C79" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D79" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="E79" t="n">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="F79" t="n">
-        <v>452.203</v>
+        <v>107.5627</v>
       </c>
       <c r="G79" t="n">
-        <v>253.8</v>
+        <v>77774.28459999997</v>
       </c>
       <c r="H79" t="n">
-        <v>245.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>238</v>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3566,42 +3473,37 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="C80" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D80" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="E80" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="F80" t="n">
-        <v>3652</v>
+        <v>186.0478</v>
       </c>
       <c r="G80" t="n">
-        <v>254.7333333333333</v>
+        <v>77774.28459999997</v>
       </c>
       <c r="H80" t="n">
-        <v>246.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>238</v>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3610,42 +3512,37 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="C81" t="n">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="D81" t="n">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="E81" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="F81" t="n">
-        <v>2812.0023</v>
+        <v>313.9522</v>
       </c>
       <c r="G81" t="n">
-        <v>255.6666666666667</v>
+        <v>77774.28459999997</v>
       </c>
       <c r="H81" t="n">
-        <v>246.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>238</v>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3654,42 +3551,37 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="C82" t="n">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="D82" t="n">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="E82" t="n">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="F82" t="n">
-        <v>1000</v>
+        <v>989</v>
       </c>
       <c r="G82" t="n">
-        <v>256.6666666666667</v>
+        <v>76785.28459999997</v>
       </c>
       <c r="H82" t="n">
-        <v>246.7166666666667</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>238</v>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3698,42 +3590,37 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="C83" t="n">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="D83" t="n">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="E83" t="n">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="F83" t="n">
-        <v>127</v>
+        <v>567.0337</v>
       </c>
       <c r="G83" t="n">
-        <v>257.6666666666667</v>
+        <v>76218.25089999997</v>
       </c>
       <c r="H83" t="n">
-        <v>247.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>238</v>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3742,42 +3629,37 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="C84" t="n">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="D84" t="n">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="E84" t="n">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="F84" t="n">
-        <v>5006.4435</v>
+        <v>11927.4094</v>
       </c>
       <c r="G84" t="n">
-        <v>258.7333333333333</v>
+        <v>76218.25089999997</v>
       </c>
       <c r="H84" t="n">
-        <v>247.35</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>238</v>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3786,42 +3668,37 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="C85" t="n">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="D85" t="n">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="E85" t="n">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="F85" t="n">
-        <v>4080.1769</v>
+        <v>5025.6702</v>
       </c>
       <c r="G85" t="n">
-        <v>259.2666666666667</v>
+        <v>81243.92109999996</v>
       </c>
       <c r="H85" t="n">
-        <v>247.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>238</v>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3830,42 +3707,37 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="C86" t="n">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="D86" t="n">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="E86" t="n">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="F86" t="n">
-        <v>5165.5299</v>
+        <v>120.5702</v>
       </c>
       <c r="G86" t="n">
-        <v>259.6</v>
+        <v>81364.49129999997</v>
       </c>
       <c r="H86" t="n">
-        <v>247.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>238</v>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3874,42 +3746,37 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="C87" t="n">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="D87" t="n">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="E87" t="n">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="F87" t="n">
-        <v>4649.4033</v>
+        <v>4731.2559</v>
       </c>
       <c r="G87" t="n">
-        <v>259.9333333333333</v>
+        <v>81364.49129999997</v>
       </c>
       <c r="H87" t="n">
-        <v>248.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>238</v>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3918,42 +3785,37 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="C88" t="n">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="D88" t="n">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="E88" t="n">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="F88" t="n">
-        <v>471.0641</v>
+        <v>2818.9606</v>
       </c>
       <c r="G88" t="n">
-        <v>260.3333333333333</v>
+        <v>84183.45189999997</v>
       </c>
       <c r="H88" t="n">
-        <v>248.35</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>238</v>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3962,42 +3824,37 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="C89" t="n">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="D89" t="n">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="E89" t="n">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="F89" t="n">
-        <v>661.1477</v>
+        <v>469.4754591836735</v>
       </c>
       <c r="G89" t="n">
-        <v>260.8</v>
+        <v>83713.9764408163</v>
       </c>
       <c r="H89" t="n">
-        <v>248.6833333333333</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>238</v>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4006,43 +3863,38 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="C90" t="n">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="D90" t="n">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="E90" t="n">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="F90" t="n">
-        <v>240.031</v>
+        <v>231.154732244898</v>
       </c>
       <c r="G90" t="n">
-        <v>261.1333333333333</v>
+        <v>83945.13117306121</v>
       </c>
       <c r="H90" t="n">
-        <v>248.9666666666667</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>1</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>238</v>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
-        <v>1.091638655462185</v>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -4050,36 +3902,37 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="C91" t="n">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="D91" t="n">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="E91" t="n">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="F91" t="n">
-        <v>8388.2505</v>
+        <v>1400</v>
       </c>
       <c r="G91" t="n">
-        <v>261.2666666666667</v>
+        <v>82545.13117306121</v>
       </c>
       <c r="H91" t="n">
-        <v>249.2333333333333</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>1</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,36 +3941,37 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="C92" t="n">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="D92" t="n">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="E92" t="n">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="F92" t="n">
-        <v>500</v>
+        <v>231.1547</v>
       </c>
       <c r="G92" t="n">
-        <v>261.3333333333333</v>
+        <v>82313.97647306121</v>
       </c>
       <c r="H92" t="n">
-        <v>249.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>1</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4126,36 +3980,37 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="C93" t="n">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="D93" t="n">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="E93" t="n">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="F93" t="n">
-        <v>304.2737</v>
+        <v>49.8533</v>
       </c>
       <c r="G93" t="n">
-        <v>261.2</v>
+        <v>82363.82977306121</v>
       </c>
       <c r="H93" t="n">
-        <v>249.6833333333333</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>1</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4164,36 +4019,37 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C94" t="n">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D94" t="n">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="E94" t="n">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="F94" t="n">
-        <v>2859.69140625</v>
+        <v>48</v>
       </c>
       <c r="G94" t="n">
-        <v>260.9333333333333</v>
+        <v>82411.82977306121</v>
       </c>
       <c r="H94" t="n">
-        <v>249.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>1</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4202,36 +4058,37 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C95" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D95" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E95" t="n">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F95" t="n">
-        <v>500</v>
+        <v>902</v>
       </c>
       <c r="G95" t="n">
-        <v>260.6</v>
+        <v>83313.82977306121</v>
       </c>
       <c r="H95" t="n">
-        <v>250.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>1</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4240,36 +4097,37 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C96" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D96" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E96" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F96" t="n">
-        <v>272.0172</v>
+        <v>816.383</v>
       </c>
       <c r="G96" t="n">
-        <v>260.1333333333333</v>
+        <v>83313.82977306121</v>
       </c>
       <c r="H96" t="n">
-        <v>250.2166666666667</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>1</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4278,36 +4136,37 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C97" t="n">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D97" t="n">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E97" t="n">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F97" t="n">
-        <v>1207.65</v>
+        <v>3046.2322</v>
       </c>
       <c r="G97" t="n">
-        <v>259.3333333333333</v>
+        <v>83313.82977306121</v>
       </c>
       <c r="H97" t="n">
-        <v>250.35</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>1</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4316,36 +4175,37 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C98" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D98" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E98" t="n">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F98" t="n">
-        <v>73.18380000000001</v>
+        <v>6670</v>
       </c>
       <c r="G98" t="n">
-        <v>258.4666666666666</v>
+        <v>89983.82977306121</v>
       </c>
       <c r="H98" t="n">
-        <v>250.45</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4354,36 +4214,37 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C99" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D99" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E99" t="n">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F99" t="n">
-        <v>273.0909090909091</v>
+        <v>3998</v>
       </c>
       <c r="G99" t="n">
-        <v>257.6666666666667</v>
+        <v>93981.82977306121</v>
       </c>
       <c r="H99" t="n">
-        <v>250.5833333333333</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4392,36 +4253,37 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C100" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D100" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E100" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F100" t="n">
-        <v>261.681</v>
+        <v>2</v>
       </c>
       <c r="G100" t="n">
-        <v>257.3333333333333</v>
+        <v>93983.82977306121</v>
       </c>
       <c r="H100" t="n">
-        <v>250.7833333333333</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4430,36 +4292,37 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C101" t="n">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D101" t="n">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E101" t="n">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F101" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G101" t="n">
-        <v>256.7333333333333</v>
+        <v>93983.82977306121</v>
       </c>
       <c r="H101" t="n">
-        <v>250.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4468,36 +4331,37 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C102" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D102" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E102" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F102" t="n">
-        <v>10</v>
+        <v>2257.2296</v>
       </c>
       <c r="G102" t="n">
-        <v>256.4</v>
+        <v>96241.05937306122</v>
       </c>
       <c r="H102" t="n">
-        <v>251.05</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4506,7 +4370,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C103" t="n">
         <v>257</v>
@@ -4515,27 +4379,28 @@
         <v>257</v>
       </c>
       <c r="E103" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F103" t="n">
-        <v>404</v>
+        <v>429.7443</v>
       </c>
       <c r="G103" t="n">
-        <v>256</v>
+        <v>96241.05937306122</v>
       </c>
       <c r="H103" t="n">
-        <v>251.3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4544,36 +4409,37 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C104" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D104" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E104" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F104" t="n">
-        <v>1629.747</v>
+        <v>1711.7099</v>
       </c>
       <c r="G104" t="n">
-        <v>255.6</v>
+        <v>94529.34947306121</v>
       </c>
       <c r="H104" t="n">
-        <v>251.55</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4582,36 +4448,37 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C105" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D105" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E105" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F105" t="n">
-        <v>1464</v>
+        <v>1300.454</v>
       </c>
       <c r="G105" t="n">
-        <v>255.4</v>
+        <v>95829.80347306121</v>
       </c>
       <c r="H105" t="n">
-        <v>251.8166666666667</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4620,36 +4487,37 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
+        <v>257</v>
+      </c>
+      <c r="C106" t="n">
         <v>258</v>
       </c>
-      <c r="C106" t="n">
-        <v>259</v>
-      </c>
       <c r="D106" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E106" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F106" t="n">
-        <v>250</v>
+        <v>2198.0099</v>
       </c>
       <c r="G106" t="n">
-        <v>255.4</v>
+        <v>98027.81337306122</v>
       </c>
       <c r="H106" t="n">
-        <v>252.0833333333333</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4658,36 +4526,37 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
+        <v>258</v>
+      </c>
+      <c r="C107" t="n">
         <v>259</v>
       </c>
-      <c r="C107" t="n">
-        <v>260</v>
-      </c>
       <c r="D107" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E107" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F107" t="n">
-        <v>6108.4606</v>
+        <v>438</v>
       </c>
       <c r="G107" t="n">
-        <v>255.4666666666667</v>
+        <v>98465.81337306122</v>
       </c>
       <c r="H107" t="n">
-        <v>252.35</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4696,36 +4565,37 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
+        <v>259</v>
+      </c>
+      <c r="C108" t="n">
         <v>260</v>
       </c>
-      <c r="C108" t="n">
-        <v>261</v>
-      </c>
       <c r="D108" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E108" t="n">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="F108" t="n">
-        <v>5588.4606</v>
+        <v>452.203</v>
       </c>
       <c r="G108" t="n">
-        <v>255.7333333333333</v>
+        <v>98918.01637306121</v>
       </c>
       <c r="H108" t="n">
-        <v>252.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4746,24 +4616,25 @@
         <v>260</v>
       </c>
       <c r="F109" t="n">
-        <v>2</v>
+        <v>3652</v>
       </c>
       <c r="G109" t="n">
-        <v>256</v>
+        <v>98918.01637306121</v>
       </c>
       <c r="H109" t="n">
-        <v>252.95</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4775,33 +4646,34 @@
         <v>260</v>
       </c>
       <c r="C110" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D110" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E110" t="n">
         <v>260</v>
       </c>
       <c r="F110" t="n">
-        <v>267</v>
+        <v>2812.0023</v>
       </c>
       <c r="G110" t="n">
-        <v>256.3333333333333</v>
+        <v>101730.0186730612</v>
       </c>
       <c r="H110" t="n">
-        <v>253.2833333333333</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>1</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4810,36 +4682,37 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C111" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D111" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E111" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F111" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="G111" t="n">
-        <v>256.7333333333333</v>
+        <v>102730.0186730612</v>
       </c>
       <c r="H111" t="n">
-        <v>253.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4848,36 +4721,37 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C112" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D112" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E112" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F112" t="n">
-        <v>500</v>
+        <v>127</v>
       </c>
       <c r="G112" t="n">
-        <v>257.4</v>
+        <v>102730.0186730612</v>
       </c>
       <c r="H112" t="n">
-        <v>253.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4886,36 +4760,37 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C113" t="n">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D113" t="n">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E113" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F113" t="n">
-        <v>1068.882</v>
+        <v>5006.4435</v>
       </c>
       <c r="G113" t="n">
-        <v>258.1333333333333</v>
+        <v>107736.4621730612</v>
       </c>
       <c r="H113" t="n">
-        <v>254.35</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4924,74 +4799,70 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C114" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D114" t="n">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E114" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F114" t="n">
-        <v>783.373</v>
+        <v>4080.1769</v>
       </c>
       <c r="G114" t="n">
-        <v>258.6666666666667</v>
+        <v>103656.2852730612</v>
       </c>
       <c r="H114" t="n">
-        <v>254.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C115" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D115" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E115" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F115" t="n">
-        <v>1815.267</v>
+        <v>5165.5299</v>
       </c>
       <c r="G115" t="n">
-        <v>258.9333333333333</v>
+        <v>98490.75537306121</v>
       </c>
       <c r="H115" t="n">
-        <v>255.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5003,33 +4874,30 @@
         <v>260</v>
       </c>
       <c r="C116" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D116" t="n">
         <v>260</v>
       </c>
       <c r="E116" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F116" t="n">
-        <v>3710.8057</v>
+        <v>4649.4033</v>
       </c>
       <c r="G116" t="n">
-        <v>259.4666666666666</v>
+        <v>98490.75537306121</v>
       </c>
       <c r="H116" t="n">
-        <v>255.4333333333333</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5038,36 +4906,33 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C117" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D117" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="E117" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F117" t="n">
-        <v>342.5339</v>
+        <v>471.0641</v>
       </c>
       <c r="G117" t="n">
-        <v>259.7333333333333</v>
+        <v>98961.81947306122</v>
       </c>
       <c r="H117" t="n">
-        <v>255.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>1</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5076,36 +4941,33 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C118" t="n">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D118" t="n">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E118" t="n">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="F118" t="n">
-        <v>315.3684</v>
+        <v>661.1477</v>
       </c>
       <c r="G118" t="n">
-        <v>259.8666666666667</v>
+        <v>99622.96717306122</v>
       </c>
       <c r="H118" t="n">
-        <v>256.0333333333334</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5126,24 +4988,21 @@
         <v>261</v>
       </c>
       <c r="F119" t="n">
-        <v>345.8299</v>
+        <v>240.031</v>
       </c>
       <c r="G119" t="n">
-        <v>260.0666666666667</v>
+        <v>99382.93617306121</v>
       </c>
       <c r="H119" t="n">
-        <v>256.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>1</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5152,36 +5011,33 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C120" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D120" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E120" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F120" t="n">
-        <v>1207.7973</v>
+        <v>8388.2505</v>
       </c>
       <c r="G120" t="n">
-        <v>260.3333333333333</v>
+        <v>90994.68567306122</v>
       </c>
       <c r="H120" t="n">
-        <v>256.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5190,36 +5046,33 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C121" t="n">
         <v>259</v>
       </c>
       <c r="D121" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E121" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F121" t="n">
-        <v>3491.317</v>
+        <v>500</v>
       </c>
       <c r="G121" t="n">
-        <v>260.3333333333333</v>
+        <v>90994.68567306122</v>
       </c>
       <c r="H121" t="n">
-        <v>256.9</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5228,36 +5081,33 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C122" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D122" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E122" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F122" t="n">
-        <v>114.1756</v>
+        <v>304.2737</v>
       </c>
       <c r="G122" t="n">
-        <v>260.2666666666667</v>
+        <v>90690.41197306121</v>
       </c>
       <c r="H122" t="n">
-        <v>257.15</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>1</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5266,36 +5116,1048 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C123" t="n">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D123" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="E123" t="n">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F123" t="n">
-        <v>1592.418</v>
+        <v>2859.69140625</v>
       </c>
       <c r="G123" t="n">
-        <v>260.4</v>
+        <v>87830.72056681121</v>
       </c>
       <c r="H123" t="n">
-        <v>257.5</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>1</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>255</v>
+      </c>
+      <c r="C124" t="n">
+        <v>255</v>
+      </c>
+      <c r="D124" t="n">
+        <v>255</v>
+      </c>
+      <c r="E124" t="n">
+        <v>255</v>
+      </c>
+      <c r="F124" t="n">
+        <v>500</v>
+      </c>
+      <c r="G124" t="n">
+        <v>87330.72056681121</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>255</v>
+      </c>
+      <c r="C125" t="n">
+        <v>255</v>
+      </c>
+      <c r="D125" t="n">
+        <v>255</v>
+      </c>
+      <c r="E125" t="n">
+        <v>255</v>
+      </c>
+      <c r="F125" t="n">
+        <v>272.0172</v>
+      </c>
+      <c r="G125" t="n">
+        <v>87330.72056681121</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>252</v>
+      </c>
+      <c r="C126" t="n">
+        <v>251</v>
+      </c>
+      <c r="D126" t="n">
+        <v>252</v>
+      </c>
+      <c r="E126" t="n">
+        <v>251</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1207.65</v>
+      </c>
+      <c r="G126" t="n">
+        <v>86123.07056681122</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>250</v>
+      </c>
+      <c r="C127" t="n">
+        <v>250</v>
+      </c>
+      <c r="D127" t="n">
+        <v>250</v>
+      </c>
+      <c r="E127" t="n">
+        <v>250</v>
+      </c>
+      <c r="F127" t="n">
+        <v>73.18380000000001</v>
+      </c>
+      <c r="G127" t="n">
+        <v>86049.88676681122</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>253</v>
+      </c>
+      <c r="C128" t="n">
+        <v>253</v>
+      </c>
+      <c r="D128" t="n">
+        <v>253</v>
+      </c>
+      <c r="E128" t="n">
+        <v>253</v>
+      </c>
+      <c r="F128" t="n">
+        <v>273.0909090909091</v>
+      </c>
+      <c r="G128" t="n">
+        <v>86322.97767590213</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>257</v>
+      </c>
+      <c r="C129" t="n">
+        <v>257</v>
+      </c>
+      <c r="D129" t="n">
+        <v>257</v>
+      </c>
+      <c r="E129" t="n">
+        <v>257</v>
+      </c>
+      <c r="F129" t="n">
+        <v>261.681</v>
+      </c>
+      <c r="G129" t="n">
+        <v>86584.65867590213</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>251</v>
+      </c>
+      <c r="C130" t="n">
+        <v>251</v>
+      </c>
+      <c r="D130" t="n">
+        <v>251</v>
+      </c>
+      <c r="E130" t="n">
+        <v>251</v>
+      </c>
+      <c r="F130" t="n">
+        <v>200</v>
+      </c>
+      <c r="G130" t="n">
+        <v>86384.65867590213</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>255</v>
+      </c>
+      <c r="C131" t="n">
+        <v>255</v>
+      </c>
+      <c r="D131" t="n">
+        <v>255</v>
+      </c>
+      <c r="E131" t="n">
+        <v>255</v>
+      </c>
+      <c r="F131" t="n">
+        <v>10</v>
+      </c>
+      <c r="G131" t="n">
+        <v>86394.65867590213</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>255</v>
+      </c>
+      <c r="C132" t="n">
+        <v>257</v>
+      </c>
+      <c r="D132" t="n">
+        <v>257</v>
+      </c>
+      <c r="E132" t="n">
+        <v>255</v>
+      </c>
+      <c r="F132" t="n">
+        <v>404</v>
+      </c>
+      <c r="G132" t="n">
+        <v>86798.65867590213</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>257</v>
+      </c>
+      <c r="C133" t="n">
+        <v>258</v>
+      </c>
+      <c r="D133" t="n">
+        <v>258</v>
+      </c>
+      <c r="E133" t="n">
+        <v>257</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1629.747</v>
+      </c>
+      <c r="G133" t="n">
+        <v>88428.40567590213</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>258</v>
+      </c>
+      <c r="C134" t="n">
+        <v>258</v>
+      </c>
+      <c r="D134" t="n">
+        <v>258</v>
+      </c>
+      <c r="E134" t="n">
+        <v>258</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1464</v>
+      </c>
+      <c r="G134" t="n">
+        <v>88428.40567590213</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>258</v>
+      </c>
+      <c r="C135" t="n">
+        <v>259</v>
+      </c>
+      <c r="D135" t="n">
+        <v>259</v>
+      </c>
+      <c r="E135" t="n">
+        <v>258</v>
+      </c>
+      <c r="F135" t="n">
+        <v>250</v>
+      </c>
+      <c r="G135" t="n">
+        <v>88678.40567590213</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>259</v>
+      </c>
+      <c r="C136" t="n">
+        <v>260</v>
+      </c>
+      <c r="D136" t="n">
+        <v>260</v>
+      </c>
+      <c r="E136" t="n">
+        <v>259</v>
+      </c>
+      <c r="F136" t="n">
+        <v>6108.4606</v>
+      </c>
+      <c r="G136" t="n">
+        <v>94786.86627590214</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>260</v>
+      </c>
+      <c r="C137" t="n">
+        <v>261</v>
+      </c>
+      <c r="D137" t="n">
+        <v>261</v>
+      </c>
+      <c r="E137" t="n">
+        <v>254</v>
+      </c>
+      <c r="F137" t="n">
+        <v>5588.4606</v>
+      </c>
+      <c r="G137" t="n">
+        <v>100375.3268759021</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>260</v>
+      </c>
+      <c r="C138" t="n">
+        <v>260</v>
+      </c>
+      <c r="D138" t="n">
+        <v>260</v>
+      </c>
+      <c r="E138" t="n">
+        <v>260</v>
+      </c>
+      <c r="F138" t="n">
+        <v>2</v>
+      </c>
+      <c r="G138" t="n">
+        <v>100373.3268759021</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>260</v>
+      </c>
+      <c r="C139" t="n">
+        <v>260</v>
+      </c>
+      <c r="D139" t="n">
+        <v>260</v>
+      </c>
+      <c r="E139" t="n">
+        <v>260</v>
+      </c>
+      <c r="F139" t="n">
+        <v>267</v>
+      </c>
+      <c r="G139" t="n">
+        <v>100373.3268759021</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>260</v>
+      </c>
+      <c r="C140" t="n">
+        <v>261</v>
+      </c>
+      <c r="D140" t="n">
+        <v>261</v>
+      </c>
+      <c r="E140" t="n">
+        <v>260</v>
+      </c>
+      <c r="F140" t="n">
+        <v>750</v>
+      </c>
+      <c r="G140" t="n">
+        <v>101123.3268759021</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>261</v>
+      </c>
+      <c r="C141" t="n">
+        <v>261</v>
+      </c>
+      <c r="D141" t="n">
+        <v>261</v>
+      </c>
+      <c r="E141" t="n">
+        <v>261</v>
+      </c>
+      <c r="F141" t="n">
+        <v>500</v>
+      </c>
+      <c r="G141" t="n">
+        <v>101123.3268759021</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>261</v>
+      </c>
+      <c r="C142" t="n">
+        <v>261</v>
+      </c>
+      <c r="D142" t="n">
+        <v>261</v>
+      </c>
+      <c r="E142" t="n">
+        <v>261</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1068.882</v>
+      </c>
+      <c r="G142" t="n">
+        <v>101123.3268759021</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>261</v>
+      </c>
+      <c r="C143" t="n">
+        <v>261</v>
+      </c>
+      <c r="D143" t="n">
+        <v>261</v>
+      </c>
+      <c r="E143" t="n">
+        <v>261</v>
+      </c>
+      <c r="F143" t="n">
+        <v>783.373</v>
+      </c>
+      <c r="G143" t="n">
+        <v>101123.3268759021</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>261</v>
+      </c>
+      <c r="C144" t="n">
+        <v>261</v>
+      </c>
+      <c r="D144" t="n">
+        <v>261</v>
+      </c>
+      <c r="E144" t="n">
+        <v>261</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1815.267</v>
+      </c>
+      <c r="G144" t="n">
+        <v>101123.3268759021</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>260</v>
+      </c>
+      <c r="C145" t="n">
+        <v>259</v>
+      </c>
+      <c r="D145" t="n">
+        <v>260</v>
+      </c>
+      <c r="E145" t="n">
+        <v>259</v>
+      </c>
+      <c r="F145" t="n">
+        <v>3710.8057</v>
+      </c>
+      <c r="G145" t="n">
+        <v>97412.52117590215</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>259</v>
+      </c>
+      <c r="C146" t="n">
+        <v>259</v>
+      </c>
+      <c r="D146" t="n">
+        <v>259</v>
+      </c>
+      <c r="E146" t="n">
+        <v>259</v>
+      </c>
+      <c r="F146" t="n">
+        <v>342.5339</v>
+      </c>
+      <c r="G146" t="n">
+        <v>97412.52117590215</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>259</v>
+      </c>
+      <c r="C147" t="n">
+        <v>259</v>
+      </c>
+      <c r="D147" t="n">
+        <v>259</v>
+      </c>
+      <c r="E147" t="n">
+        <v>259</v>
+      </c>
+      <c r="F147" t="n">
+        <v>315.3684</v>
+      </c>
+      <c r="G147" t="n">
+        <v>97412.52117590215</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>261</v>
+      </c>
+      <c r="C148" t="n">
+        <v>261</v>
+      </c>
+      <c r="D148" t="n">
+        <v>261</v>
+      </c>
+      <c r="E148" t="n">
+        <v>261</v>
+      </c>
+      <c r="F148" t="n">
+        <v>345.8299</v>
+      </c>
+      <c r="G148" t="n">
+        <v>97758.35107590214</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>262</v>
+      </c>
+      <c r="C149" t="n">
+        <v>262</v>
+      </c>
+      <c r="D149" t="n">
+        <v>262</v>
+      </c>
+      <c r="E149" t="n">
+        <v>262</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1207.7973</v>
+      </c>
+      <c r="G149" t="n">
+        <v>98966.14837590215</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>260</v>
+      </c>
+      <c r="C150" t="n">
+        <v>259</v>
+      </c>
+      <c r="D150" t="n">
+        <v>260</v>
+      </c>
+      <c r="E150" t="n">
+        <v>259</v>
+      </c>
+      <c r="F150" t="n">
+        <v>3491.317</v>
+      </c>
+      <c r="G150" t="n">
+        <v>95474.83137590215</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>259</v>
+      </c>
+      <c r="C151" t="n">
+        <v>259</v>
+      </c>
+      <c r="D151" t="n">
+        <v>259</v>
+      </c>
+      <c r="E151" t="n">
+        <v>259</v>
+      </c>
+      <c r="F151" t="n">
+        <v>114.1756</v>
+      </c>
+      <c r="G151" t="n">
+        <v>95474.83137590215</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>263</v>
+      </c>
+      <c r="C152" t="n">
+        <v>263</v>
+      </c>
+      <c r="D152" t="n">
+        <v>264</v>
+      </c>
+      <c r="E152" t="n">
+        <v>263</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1592.418</v>
+      </c>
+      <c r="G152" t="n">
+        <v>97067.24937590216</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-15 BackTest ABT.xlsx
+++ b/BackTest/2019-11-15 BackTest ABT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M152"/>
+  <dimension ref="A1:N110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -442,13 +447,13 @@
         <v>245</v>
       </c>
       <c r="E2" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F2" t="n">
-        <v>624.2215</v>
+        <v>694.1375</v>
       </c>
       <c r="G2" t="n">
-        <v>66413.66279999999</v>
+        <v>77715.56789999997</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C3" t="n">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D3" t="n">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E3" t="n">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>92.0438</v>
       </c>
       <c r="G3" t="n">
-        <v>66418.66279999999</v>
+        <v>77715.56789999997</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,151 +503,137 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C4" t="n">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D4" t="n">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="E4" t="n">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F4" t="n">
-        <v>8537.5388</v>
+        <v>299.714</v>
       </c>
       <c r="G4" t="n">
-        <v>74956.20159999999</v>
+        <v>78015.28189999997</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>249</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C5" t="n">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D5" t="n">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E5" t="n">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>1400</v>
       </c>
       <c r="G5" t="n">
-        <v>74959.20159999999</v>
+        <v>76615.28189999997</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>250</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C6" t="n">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D6" t="n">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E6" t="n">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F6" t="n">
-        <v>42.6291</v>
+        <v>200</v>
       </c>
       <c r="G6" t="n">
-        <v>74916.57249999998</v>
+        <v>76815.28189999997</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>253</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>245</v>
+      </c>
+      <c r="C7" t="n">
+        <v>245</v>
+      </c>
+      <c r="D7" t="n">
+        <v>245</v>
+      </c>
+      <c r="E7" t="n">
+        <v>245</v>
+      </c>
+      <c r="F7" t="n">
         <v>250</v>
       </c>
-      <c r="C7" t="n">
-        <v>250</v>
-      </c>
-      <c r="D7" t="n">
-        <v>250</v>
-      </c>
-      <c r="E7" t="n">
-        <v>250</v>
-      </c>
-      <c r="F7" t="n">
-        <v>150</v>
-      </c>
       <c r="G7" t="n">
-        <v>74916.57249999998</v>
+        <v>76565.28189999997</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -651,36 +643,33 @@
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C8" t="n">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D8" t="n">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E8" t="n">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F8" t="n">
-        <v>11</v>
+        <v>2900.5298</v>
       </c>
       <c r="G8" t="n">
-        <v>74916.57249999998</v>
+        <v>76565.28189999997</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,36 +679,33 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C9" t="n">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D9" t="n">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="E9" t="n">
         <v>242</v>
       </c>
       <c r="F9" t="n">
-        <v>3357.6115</v>
+        <v>7973.9556</v>
       </c>
       <c r="G9" t="n">
-        <v>71558.96099999998</v>
+        <v>76565.28189999997</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -729,36 +715,33 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C10" t="n">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="D10" t="n">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="E10" t="n">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F10" t="n">
-        <v>16416.4269</v>
+        <v>286.166</v>
       </c>
       <c r="G10" t="n">
-        <v>87975.38789999997</v>
+        <v>76565.28189999997</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -768,36 +751,33 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C11" t="n">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D11" t="n">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E11" t="n">
         <v>245</v>
       </c>
       <c r="F11" t="n">
-        <v>10880.9058</v>
+        <v>216.177</v>
       </c>
       <c r="G11" t="n">
-        <v>77094.48209999996</v>
+        <v>76565.28189999997</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -807,36 +787,33 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C12" t="n">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D12" t="n">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E12" t="n">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F12" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="G12" t="n">
-        <v>77094.48209999996</v>
+        <v>76565.28189999997</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -846,36 +823,33 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C13" t="n">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D13" t="n">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E13" t="n">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F13" t="n">
-        <v>150</v>
+        <v>137.6</v>
       </c>
       <c r="G13" t="n">
-        <v>77244.48209999996</v>
+        <v>76565.28189999997</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -885,36 +859,33 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C14" t="n">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="D14" t="n">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="E14" t="n">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F14" t="n">
-        <v>162</v>
+        <v>1400</v>
       </c>
       <c r="G14" t="n">
-        <v>77406.48209999996</v>
+        <v>77965.28189999997</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -924,36 +895,33 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C15" t="n">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="D15" t="n">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E15" t="n">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="F15" t="n">
-        <v>8730.1999</v>
+        <v>346.9685</v>
       </c>
       <c r="G15" t="n">
-        <v>68676.28219999996</v>
+        <v>78312.25039999998</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -963,36 +931,33 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C16" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D16" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E16" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F16" t="n">
-        <v>1097.7388</v>
+        <v>231.647</v>
       </c>
       <c r="G16" t="n">
-        <v>69774.02099999996</v>
+        <v>78080.60339999998</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1002,36 +967,33 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C17" t="n">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D17" t="n">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E17" t="n">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F17" t="n">
-        <v>5350.6221</v>
+        <v>3169.9921</v>
       </c>
       <c r="G17" t="n">
-        <v>75124.64309999996</v>
+        <v>78080.60339999998</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1041,36 +1003,33 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C18" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D18" t="n">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E18" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F18" t="n">
-        <v>1069.5724</v>
+        <v>350.566</v>
       </c>
       <c r="G18" t="n">
-        <v>74055.07069999995</v>
+        <v>77730.03739999997</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1080,36 +1039,33 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C19" t="n">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D19" t="n">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E19" t="n">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F19" t="n">
-        <v>590.04</v>
+        <v>287.55</v>
       </c>
       <c r="G19" t="n">
-        <v>74645.11069999995</v>
+        <v>78017.58739999997</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1119,36 +1075,33 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C20" t="n">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D20" t="n">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E20" t="n">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F20" t="n">
-        <v>1380.0619</v>
+        <v>819.39</v>
       </c>
       <c r="G20" t="n">
-        <v>73265.04879999995</v>
+        <v>78836.97739999997</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1158,36 +1111,33 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C21" t="n">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D21" t="n">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E21" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F21" t="n">
-        <v>274.8494</v>
+        <v>146.15</v>
       </c>
       <c r="G21" t="n">
-        <v>73265.04879999995</v>
+        <v>78836.97739999997</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1197,36 +1147,33 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C22" t="n">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D22" t="n">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E22" t="n">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F22" t="n">
-        <v>2264.4077</v>
+        <v>46.6422</v>
       </c>
       <c r="G22" t="n">
-        <v>71000.64109999995</v>
+        <v>78883.61959999998</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1236,36 +1183,33 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C23" t="n">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D23" t="n">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E23" t="n">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F23" t="n">
-        <v>6.0728</v>
+        <v>1015.7397</v>
       </c>
       <c r="G23" t="n">
-        <v>71000.64109999995</v>
+        <v>77867.87989999997</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1275,14 +1219,11 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1292,19 +1233,19 @@
         <v>245</v>
       </c>
       <c r="C24" t="n">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D24" t="n">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E24" t="n">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F24" t="n">
-        <v>1316.221</v>
+        <v>1007.9747</v>
       </c>
       <c r="G24" t="n">
-        <v>72316.86209999995</v>
+        <v>77867.87989999997</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1314,36 +1255,33 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C25" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D25" t="n">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E25" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F25" t="n">
-        <v>836.04</v>
+        <v>293</v>
       </c>
       <c r="G25" t="n">
-        <v>71480.82209999996</v>
+        <v>78160.87989999997</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1353,36 +1291,33 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C26" t="n">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D26" t="n">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E26" t="n">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F26" t="n">
-        <v>1092.203</v>
+        <v>4285.1595</v>
       </c>
       <c r="G26" t="n">
-        <v>72573.02509999996</v>
+        <v>82446.03939999997</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1392,36 +1327,33 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C27" t="n">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D27" t="n">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E27" t="n">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F27" t="n">
-        <v>5050</v>
+        <v>2557.6776</v>
       </c>
       <c r="G27" t="n">
-        <v>72573.02509999996</v>
+        <v>82446.03939999997</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1431,36 +1363,33 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C28" t="n">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="D28" t="n">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="E28" t="n">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="F28" t="n">
-        <v>231.7679</v>
+        <v>180.1824</v>
       </c>
       <c r="G28" t="n">
-        <v>72341.25719999995</v>
+        <v>82446.03939999997</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1470,36 +1399,33 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C29" t="n">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D29" t="n">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E29" t="n">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F29" t="n">
-        <v>1276</v>
+        <v>1358.6</v>
       </c>
       <c r="G29" t="n">
-        <v>73617.25719999995</v>
+        <v>82446.03939999997</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1509,36 +1435,33 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C30" t="n">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D30" t="n">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E30" t="n">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F30" t="n">
-        <v>5345</v>
+        <v>4684.5128</v>
       </c>
       <c r="G30" t="n">
-        <v>78962.25719999995</v>
+        <v>77761.52659999997</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1548,36 +1471,33 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C31" t="n">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D31" t="n">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E31" t="n">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F31" t="n">
-        <v>222.3043</v>
+        <v>726.2067</v>
       </c>
       <c r="G31" t="n">
-        <v>78962.25719999995</v>
+        <v>78487.73329999996</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1587,36 +1507,33 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C32" t="n">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D32" t="n">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E32" t="n">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F32" t="n">
-        <v>2.1356</v>
+        <v>1237.9163</v>
       </c>
       <c r="G32" t="n">
-        <v>78962.25719999995</v>
+        <v>77249.81699999997</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1626,36 +1543,33 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C33" t="n">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D33" t="n">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E33" t="n">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F33" t="n">
-        <v>175.6899</v>
+        <v>2308.0781</v>
       </c>
       <c r="G33" t="n">
-        <v>78786.56729999995</v>
+        <v>79557.89509999997</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1665,36 +1579,33 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C34" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D34" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E34" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F34" t="n">
-        <v>706.5937</v>
+        <v>10</v>
       </c>
       <c r="G34" t="n">
-        <v>78079.97359999995</v>
+        <v>79567.89509999997</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1704,36 +1615,33 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C35" t="n">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D35" t="n">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E35" t="n">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F35" t="n">
-        <v>1575.6899</v>
+        <v>2690</v>
       </c>
       <c r="G35" t="n">
-        <v>79655.66349999995</v>
+        <v>79567.89509999997</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1743,36 +1651,33 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C36" t="n">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D36" t="n">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E36" t="n">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="F36" t="n">
-        <v>2108.8792</v>
+        <v>1686.0478</v>
       </c>
       <c r="G36" t="n">
-        <v>79655.66349999995</v>
+        <v>77881.84729999996</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1782,36 +1687,33 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C37" t="n">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D37" t="n">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="E37" t="n">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="F37" t="n">
-        <v>115.2747</v>
+        <v>107.5627</v>
       </c>
       <c r="G37" t="n">
-        <v>79540.38879999996</v>
+        <v>77774.28459999997</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1821,36 +1723,33 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C38" t="n">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D38" t="n">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="E38" t="n">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F38" t="n">
-        <v>1000</v>
+        <v>186.0478</v>
       </c>
       <c r="G38" t="n">
-        <v>78540.38879999996</v>
+        <v>77774.28459999997</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1860,36 +1759,33 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C39" t="n">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D39" t="n">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E39" t="n">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F39" t="n">
-        <v>125.9748</v>
+        <v>313.9522</v>
       </c>
       <c r="G39" t="n">
-        <v>78540.38879999996</v>
+        <v>77774.28459999997</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1899,36 +1795,33 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C40" t="n">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D40" t="n">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="E40" t="n">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F40" t="n">
-        <v>107.792</v>
+        <v>989</v>
       </c>
       <c r="G40" t="n">
-        <v>78540.38879999996</v>
+        <v>76785.28459999997</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1938,83 +1831,85 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C41" t="n">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D41" t="n">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="E41" t="n">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="F41" t="n">
-        <v>5000</v>
+        <v>567.0337</v>
       </c>
       <c r="G41" t="n">
-        <v>78540.38879999996</v>
+        <v>76218.25089999997</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>239</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C42" t="n">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D42" t="n">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="E42" t="n">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F42" t="n">
-        <v>855.8099999999999</v>
+        <v>11927.4094</v>
       </c>
       <c r="G42" t="n">
-        <v>77684.57879999996</v>
+        <v>76218.25089999997</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>238</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
@@ -2024,36 +1919,39 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C43" t="n">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D43" t="n">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E43" t="n">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F43" t="n">
-        <v>30.9891</v>
+        <v>5025.6702</v>
       </c>
       <c r="G43" t="n">
-        <v>77715.56789999997</v>
+        <v>81243.92109999996</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>238</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
@@ -2063,28 +1961,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C44" t="n">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D44" t="n">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E44" t="n">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F44" t="n">
-        <v>694.1375</v>
+        <v>120.5702</v>
       </c>
       <c r="G44" t="n">
-        <v>77715.56789999997</v>
+        <v>81364.49129999997</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2102,36 +2001,39 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C45" t="n">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D45" t="n">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E45" t="n">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F45" t="n">
-        <v>92.0438</v>
+        <v>4731.2559</v>
       </c>
       <c r="G45" t="n">
-        <v>77715.56789999997</v>
+        <v>81364.49129999997</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>241</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
@@ -2141,28 +2043,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C46" t="n">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D46" t="n">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E46" t="n">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F46" t="n">
-        <v>299.714</v>
+        <v>2818.9606</v>
       </c>
       <c r="G46" t="n">
-        <v>78015.28189999997</v>
+        <v>84183.45189999997</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2180,28 +2083,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C47" t="n">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D47" t="n">
         <v>245</v>
       </c>
       <c r="E47" t="n">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F47" t="n">
-        <v>1400</v>
+        <v>469.4754591836735</v>
       </c>
       <c r="G47" t="n">
-        <v>76615.28189999997</v>
+        <v>83713.9764408163</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2219,28 +2123,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C48" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D48" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E48" t="n">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F48" t="n">
-        <v>200</v>
+        <v>231.154732244898</v>
       </c>
       <c r="G48" t="n">
-        <v>76815.28189999997</v>
+        <v>83945.13117306121</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2258,28 +2163,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C49" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D49" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E49" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F49" t="n">
-        <v>250</v>
+        <v>1400</v>
       </c>
       <c r="G49" t="n">
-        <v>76565.28189999997</v>
+        <v>82545.13117306121</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2297,28 +2203,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C50" t="n">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D50" t="n">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E50" t="n">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F50" t="n">
-        <v>2900.5298</v>
+        <v>231.1547</v>
       </c>
       <c r="G50" t="n">
-        <v>76565.28189999997</v>
+        <v>82313.97647306121</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2336,28 +2243,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C51" t="n">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D51" t="n">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E51" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F51" t="n">
-        <v>7973.9556</v>
+        <v>49.8533</v>
       </c>
       <c r="G51" t="n">
-        <v>76565.28189999997</v>
+        <v>82363.82977306121</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2375,28 +2283,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C52" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D52" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E52" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F52" t="n">
-        <v>286.166</v>
+        <v>48</v>
       </c>
       <c r="G52" t="n">
-        <v>76565.28189999997</v>
+        <v>82411.82977306121</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2414,28 +2323,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C53" t="n">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D53" t="n">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E53" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F53" t="n">
-        <v>216.177</v>
+        <v>902</v>
       </c>
       <c r="G53" t="n">
-        <v>76565.28189999997</v>
+        <v>83313.82977306121</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2453,28 +2363,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C54" t="n">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D54" t="n">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E54" t="n">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F54" t="n">
-        <v>500</v>
+        <v>816.383</v>
       </c>
       <c r="G54" t="n">
-        <v>76565.28189999997</v>
+        <v>83313.82977306121</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2492,28 +2403,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C55" t="n">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D55" t="n">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E55" t="n">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F55" t="n">
-        <v>137.6</v>
+        <v>3046.2322</v>
       </c>
       <c r="G55" t="n">
-        <v>76565.28189999997</v>
+        <v>83313.82977306121</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2531,28 +2443,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C56" t="n">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D56" t="n">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E56" t="n">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F56" t="n">
-        <v>1400</v>
+        <v>6670</v>
       </c>
       <c r="G56" t="n">
-        <v>77965.28189999997</v>
+        <v>89983.82977306121</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2570,28 +2483,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C57" t="n">
+        <v>254</v>
+      </c>
+      <c r="D57" t="n">
+        <v>254</v>
+      </c>
+      <c r="E57" t="n">
         <v>249</v>
       </c>
-      <c r="D57" t="n">
-        <v>249</v>
-      </c>
-      <c r="E57" t="n">
-        <v>244</v>
-      </c>
       <c r="F57" t="n">
-        <v>346.9685</v>
+        <v>3998</v>
       </c>
       <c r="G57" t="n">
-        <v>78312.25039999998</v>
+        <v>93981.82977306121</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2609,28 +2523,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="C58" t="n">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="D58" t="n">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="E58" t="n">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="F58" t="n">
-        <v>231.647</v>
+        <v>2</v>
       </c>
       <c r="G58" t="n">
-        <v>78080.60339999998</v>
+        <v>93983.82977306121</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2648,28 +2563,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="C59" t="n">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="D59" t="n">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="E59" t="n">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="F59" t="n">
-        <v>3169.9921</v>
+        <v>300</v>
       </c>
       <c r="G59" t="n">
-        <v>78080.60339999998</v>
+        <v>93983.82977306121</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2687,28 +2603,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="C60" t="n">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="D60" t="n">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="E60" t="n">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="F60" t="n">
-        <v>350.566</v>
+        <v>2257.2296</v>
       </c>
       <c r="G60" t="n">
-        <v>77730.03739999997</v>
+        <v>96241.05937306122</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2726,28 +2643,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="C61" t="n">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="D61" t="n">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="E61" t="n">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="F61" t="n">
-        <v>287.55</v>
+        <v>429.7443</v>
       </c>
       <c r="G61" t="n">
-        <v>78017.58739999997</v>
+        <v>96241.05937306122</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2765,28 +2683,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="C62" t="n">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="D62" t="n">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="E62" t="n">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="F62" t="n">
-        <v>819.39</v>
+        <v>1711.7099</v>
       </c>
       <c r="G62" t="n">
-        <v>78836.97739999997</v>
+        <v>94529.34947306121</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2804,28 +2723,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="C63" t="n">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="D63" t="n">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="E63" t="n">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="F63" t="n">
-        <v>146.15</v>
+        <v>1300.454</v>
       </c>
       <c r="G63" t="n">
-        <v>78836.97739999997</v>
+        <v>95829.80347306121</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2843,28 +2763,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="C64" t="n">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="D64" t="n">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="E64" t="n">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="F64" t="n">
-        <v>46.6422</v>
+        <v>2198.0099</v>
       </c>
       <c r="G64" t="n">
-        <v>78883.61959999998</v>
+        <v>98027.81337306122</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2882,28 +2803,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="C65" t="n">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="D65" t="n">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="E65" t="n">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="F65" t="n">
-        <v>1015.7397</v>
+        <v>438</v>
       </c>
       <c r="G65" t="n">
-        <v>77867.87989999997</v>
+        <v>98465.81337306122</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2921,28 +2843,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="C66" t="n">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="D66" t="n">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="E66" t="n">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="F66" t="n">
-        <v>1007.9747</v>
+        <v>452.203</v>
       </c>
       <c r="G66" t="n">
-        <v>77867.87989999997</v>
+        <v>98918.01637306121</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2960,28 +2883,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="C67" t="n">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="D67" t="n">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="E67" t="n">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="F67" t="n">
-        <v>293</v>
+        <v>3652</v>
       </c>
       <c r="G67" t="n">
-        <v>78160.87989999997</v>
+        <v>98918.01637306121</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2999,28 +2923,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="C68" t="n">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="D68" t="n">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="E68" t="n">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="F68" t="n">
-        <v>4285.1595</v>
+        <v>2812.0023</v>
       </c>
       <c r="G68" t="n">
-        <v>82446.03939999997</v>
+        <v>101730.0186730612</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3038,28 +2963,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="C69" t="n">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="D69" t="n">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="E69" t="n">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="F69" t="n">
-        <v>2557.6776</v>
+        <v>1000</v>
       </c>
       <c r="G69" t="n">
-        <v>82446.03939999997</v>
+        <v>102730.0186730612</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3077,28 +3003,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="C70" t="n">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="D70" t="n">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="E70" t="n">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="F70" t="n">
-        <v>180.1824</v>
+        <v>127</v>
       </c>
       <c r="G70" t="n">
-        <v>82446.03939999997</v>
+        <v>102730.0186730612</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3116,28 +3043,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="C71" t="n">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="D71" t="n">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="E71" t="n">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="F71" t="n">
-        <v>1358.6</v>
+        <v>5006.4435</v>
       </c>
       <c r="G71" t="n">
-        <v>82446.03939999997</v>
+        <v>107736.4621730612</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3155,28 +3083,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="C72" t="n">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="D72" t="n">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="E72" t="n">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="F72" t="n">
-        <v>4684.5128</v>
+        <v>4080.1769</v>
       </c>
       <c r="G72" t="n">
-        <v>77761.52659999997</v>
+        <v>103656.2852730612</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3194,28 +3123,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="C73" t="n">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="D73" t="n">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="E73" t="n">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="F73" t="n">
-        <v>726.2067</v>
+        <v>5165.5299</v>
       </c>
       <c r="G73" t="n">
-        <v>78487.73329999996</v>
+        <v>98490.75537306121</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3233,28 +3163,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="C74" t="n">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="D74" t="n">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="E74" t="n">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="F74" t="n">
-        <v>1237.9163</v>
+        <v>4649.4033</v>
       </c>
       <c r="G74" t="n">
-        <v>77249.81699999997</v>
+        <v>98490.75537306121</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3272,28 +3203,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="C75" t="n">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="D75" t="n">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="E75" t="n">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="F75" t="n">
-        <v>2308.0781</v>
+        <v>471.0641</v>
       </c>
       <c r="G75" t="n">
-        <v>79557.89509999997</v>
+        <v>98961.81947306122</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3311,28 +3243,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="C76" t="n">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="D76" t="n">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="E76" t="n">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="F76" t="n">
-        <v>10</v>
+        <v>661.1477</v>
       </c>
       <c r="G76" t="n">
-        <v>79567.89509999997</v>
+        <v>99622.96717306122</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3350,145 +3283,139 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="C77" t="n">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="D77" t="n">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="E77" t="n">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="F77" t="n">
-        <v>2690</v>
+        <v>240.031</v>
       </c>
       <c r="G77" t="n">
-        <v>79567.89509999997</v>
+        <v>99382.93617306121</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="C78" t="n">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="D78" t="n">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="E78" t="n">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="F78" t="n">
-        <v>1686.0478</v>
+        <v>8388.2505</v>
       </c>
       <c r="G78" t="n">
-        <v>77881.84729999996</v>
+        <v>90994.68567306122</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="C79" t="n">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="D79" t="n">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="E79" t="n">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="F79" t="n">
-        <v>107.5627</v>
+        <v>500</v>
       </c>
       <c r="G79" t="n">
-        <v>77774.28459999997</v>
+        <v>90994.68567306122</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="C80" t="n">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="D80" t="n">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="E80" t="n">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="F80" t="n">
-        <v>186.0478</v>
+        <v>304.2737</v>
       </c>
       <c r="G80" t="n">
-        <v>77774.28459999997</v>
+        <v>90690.41197306121</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3498,36 +3425,33 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="C81" t="n">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="D81" t="n">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="E81" t="n">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="F81" t="n">
-        <v>313.9522</v>
+        <v>2859.69140625</v>
       </c>
       <c r="G81" t="n">
-        <v>77774.28459999997</v>
+        <v>87830.72056681121</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3537,36 +3461,33 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="C82" t="n">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="D82" t="n">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="E82" t="n">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="F82" t="n">
-        <v>989</v>
+        <v>500</v>
       </c>
       <c r="G82" t="n">
-        <v>76785.28459999997</v>
+        <v>87330.72056681121</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3576,36 +3497,33 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="C83" t="n">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="D83" t="n">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="E83" t="n">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="F83" t="n">
-        <v>567.0337</v>
+        <v>272.0172</v>
       </c>
       <c r="G83" t="n">
-        <v>76218.25089999997</v>
+        <v>87330.72056681121</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3615,36 +3533,33 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="C84" t="n">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="D84" t="n">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="E84" t="n">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="F84" t="n">
-        <v>11927.4094</v>
+        <v>1207.65</v>
       </c>
       <c r="G84" t="n">
-        <v>76218.25089999997</v>
+        <v>86123.07056681122</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3654,36 +3569,33 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="C85" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D85" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="E85" t="n">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="F85" t="n">
-        <v>5025.6702</v>
+        <v>73.18380000000001</v>
       </c>
       <c r="G85" t="n">
-        <v>81243.92109999996</v>
+        <v>86049.88676681122</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3693,36 +3605,33 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="C86" t="n">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="D86" t="n">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="E86" t="n">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="F86" t="n">
-        <v>120.5702</v>
+        <v>273.0909090909091</v>
       </c>
       <c r="G86" t="n">
-        <v>81364.49129999997</v>
+        <v>86322.97767590213</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3732,36 +3641,33 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="C87" t="n">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="D87" t="n">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="E87" t="n">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="F87" t="n">
-        <v>4731.2559</v>
+        <v>261.681</v>
       </c>
       <c r="G87" t="n">
-        <v>81364.49129999997</v>
+        <v>86584.65867590213</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3771,36 +3677,33 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="C88" t="n">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="D88" t="n">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="E88" t="n">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="F88" t="n">
-        <v>2818.9606</v>
+        <v>200</v>
       </c>
       <c r="G88" t="n">
-        <v>84183.45189999997</v>
+        <v>86384.65867590213</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3810,36 +3713,33 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="C89" t="n">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="D89" t="n">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="E89" t="n">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="F89" t="n">
-        <v>469.4754591836735</v>
+        <v>10</v>
       </c>
       <c r="G89" t="n">
-        <v>83713.9764408163</v>
+        <v>86394.65867590213</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3849,36 +3749,33 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="C90" t="n">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="D90" t="n">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="E90" t="n">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="F90" t="n">
-        <v>231.154732244898</v>
+        <v>404</v>
       </c>
       <c r="G90" t="n">
-        <v>83945.13117306121</v>
+        <v>86798.65867590213</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3888,36 +3785,33 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="C91" t="n">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="D91" t="n">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="E91" t="n">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="F91" t="n">
-        <v>1400</v>
+        <v>1629.747</v>
       </c>
       <c r="G91" t="n">
-        <v>82545.13117306121</v>
+        <v>88428.40567590213</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3927,36 +3821,33 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="C92" t="n">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="D92" t="n">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="E92" t="n">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="F92" t="n">
-        <v>231.1547</v>
+        <v>1464</v>
       </c>
       <c r="G92" t="n">
-        <v>82313.97647306121</v>
+        <v>88428.40567590213</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3966,36 +3857,33 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="C93" t="n">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="D93" t="n">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="E93" t="n">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="F93" t="n">
-        <v>49.8533</v>
+        <v>250</v>
       </c>
       <c r="G93" t="n">
-        <v>82363.82977306121</v>
+        <v>88678.40567590213</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4005,36 +3893,33 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="C94" t="n">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="D94" t="n">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="E94" t="n">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="F94" t="n">
-        <v>48</v>
+        <v>6108.4606</v>
       </c>
       <c r="G94" t="n">
-        <v>82411.82977306121</v>
+        <v>94786.86627590214</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4044,36 +3929,33 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="C95" t="n">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D95" t="n">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="E95" t="n">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="F95" t="n">
-        <v>902</v>
+        <v>5588.4606</v>
       </c>
       <c r="G95" t="n">
-        <v>83313.82977306121</v>
+        <v>100375.3268759021</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4083,36 +3965,33 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C96" t="n">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="D96" t="n">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="E96" t="n">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="F96" t="n">
-        <v>816.383</v>
+        <v>2</v>
       </c>
       <c r="G96" t="n">
-        <v>83313.82977306121</v>
+        <v>100373.3268759021</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4122,36 +4001,33 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C97" t="n">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="D97" t="n">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="E97" t="n">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="F97" t="n">
-        <v>3046.2322</v>
+        <v>267</v>
       </c>
       <c r="G97" t="n">
-        <v>83313.82977306121</v>
+        <v>100373.3268759021</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4161,36 +4037,33 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C98" t="n">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D98" t="n">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="E98" t="n">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="F98" t="n">
-        <v>6670</v>
+        <v>750</v>
       </c>
       <c r="G98" t="n">
-        <v>89983.82977306121</v>
+        <v>101123.3268759021</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4200,36 +4073,33 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="C99" t="n">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="D99" t="n">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="E99" t="n">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="F99" t="n">
-        <v>3998</v>
+        <v>500</v>
       </c>
       <c r="G99" t="n">
-        <v>93981.82977306121</v>
+        <v>101123.3268759021</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4239,36 +4109,33 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C100" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D100" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="E100" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="F100" t="n">
-        <v>2</v>
+        <v>1068.882</v>
       </c>
       <c r="G100" t="n">
-        <v>93983.82977306121</v>
+        <v>101123.3268759021</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4278,36 +4145,33 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C101" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D101" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="E101" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="F101" t="n">
-        <v>300</v>
+        <v>783.373</v>
       </c>
       <c r="G101" t="n">
-        <v>93983.82977306121</v>
+        <v>101123.3268759021</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4317,36 +4181,33 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C102" t="n">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D102" t="n">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E102" t="n">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="F102" t="n">
-        <v>2257.2296</v>
+        <v>1815.267</v>
       </c>
       <c r="G102" t="n">
-        <v>96241.05937306122</v>
+        <v>101123.3268759021</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4356,36 +4217,33 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C103" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D103" t="n">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E103" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F103" t="n">
-        <v>429.7443</v>
+        <v>3710.8057</v>
       </c>
       <c r="G103" t="n">
-        <v>96241.05937306122</v>
+        <v>97412.52117590215</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4395,36 +4253,33 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C104" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D104" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E104" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F104" t="n">
-        <v>1711.7099</v>
+        <v>342.5339</v>
       </c>
       <c r="G104" t="n">
-        <v>94529.34947306121</v>
+        <v>97412.52117590215</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4434,141 +4289,129 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C105" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D105" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E105" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F105" t="n">
-        <v>1300.454</v>
+        <v>315.3684</v>
       </c>
       <c r="G105" t="n">
-        <v>95829.80347306121</v>
+        <v>97412.52117590215</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C106" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D106" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E106" t="n">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F106" t="n">
-        <v>2198.0099</v>
+        <v>345.8299</v>
       </c>
       <c r="G106" t="n">
-        <v>98027.81337306122</v>
+        <v>97758.35107590214</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C107" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D107" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E107" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F107" t="n">
-        <v>438</v>
+        <v>1207.7973</v>
       </c>
       <c r="G107" t="n">
-        <v>98465.81337306122</v>
+        <v>98966.14837590215</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
+        <v>260</v>
+      </c>
+      <c r="C108" t="n">
         <v>259</v>
-      </c>
-      <c r="C108" t="n">
-        <v>260</v>
       </c>
       <c r="D108" t="n">
         <v>260</v>
@@ -4577,1589 +4420,96 @@
         <v>259</v>
       </c>
       <c r="F108" t="n">
-        <v>452.203</v>
+        <v>3491.317</v>
       </c>
       <c r="G108" t="n">
-        <v>98918.01637306121</v>
+        <v>95474.83137590215</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C109" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D109" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E109" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F109" t="n">
-        <v>3652</v>
+        <v>114.1756</v>
       </c>
       <c r="G109" t="n">
-        <v>98918.01637306121</v>
+        <v>95474.83137590215</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C110" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D110" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E110" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F110" t="n">
-        <v>2812.0023</v>
+        <v>1592.418</v>
       </c>
       <c r="G110" t="n">
-        <v>101730.0186730612</v>
+        <v>97067.24937590216</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>263</v>
-      </c>
-      <c r="C111" t="n">
-        <v>263</v>
-      </c>
-      <c r="D111" t="n">
-        <v>263</v>
-      </c>
-      <c r="E111" t="n">
-        <v>263</v>
-      </c>
-      <c r="F111" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G111" t="n">
-        <v>102730.0186730612</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>263</v>
-      </c>
-      <c r="C112" t="n">
-        <v>263</v>
-      </c>
-      <c r="D112" t="n">
-        <v>263</v>
-      </c>
-      <c r="E112" t="n">
-        <v>263</v>
-      </c>
-      <c r="F112" t="n">
-        <v>127</v>
-      </c>
-      <c r="G112" t="n">
-        <v>102730.0186730612</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>264</v>
-      </c>
-      <c r="C113" t="n">
-        <v>265</v>
-      </c>
-      <c r="D113" t="n">
-        <v>265</v>
-      </c>
-      <c r="E113" t="n">
-        <v>264</v>
-      </c>
-      <c r="F113" t="n">
-        <v>5006.4435</v>
-      </c>
-      <c r="G113" t="n">
-        <v>107736.4621730612</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>265</v>
-      </c>
-      <c r="C114" t="n">
-        <v>262</v>
-      </c>
-      <c r="D114" t="n">
-        <v>265</v>
-      </c>
-      <c r="E114" t="n">
-        <v>262</v>
-      </c>
-      <c r="F114" t="n">
-        <v>4080.1769</v>
-      </c>
-      <c r="G114" t="n">
-        <v>103656.2852730612</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>262</v>
-      </c>
-      <c r="C115" t="n">
-        <v>260</v>
-      </c>
-      <c r="D115" t="n">
-        <v>262</v>
-      </c>
-      <c r="E115" t="n">
-        <v>260</v>
-      </c>
-      <c r="F115" t="n">
-        <v>5165.5299</v>
-      </c>
-      <c r="G115" t="n">
-        <v>98490.75537306121</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>260</v>
-      </c>
-      <c r="C116" t="n">
-        <v>260</v>
-      </c>
-      <c r="D116" t="n">
-        <v>260</v>
-      </c>
-      <c r="E116" t="n">
-        <v>260</v>
-      </c>
-      <c r="F116" t="n">
-        <v>4649.4033</v>
-      </c>
-      <c r="G116" t="n">
-        <v>98490.75537306121</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>263</v>
-      </c>
-      <c r="C117" t="n">
-        <v>263</v>
-      </c>
-      <c r="D117" t="n">
-        <v>263</v>
-      </c>
-      <c r="E117" t="n">
-        <v>263</v>
-      </c>
-      <c r="F117" t="n">
-        <v>471.0641</v>
-      </c>
-      <c r="G117" t="n">
-        <v>98961.81947306122</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>264</v>
-      </c>
-      <c r="C118" t="n">
-        <v>264</v>
-      </c>
-      <c r="D118" t="n">
-        <v>264</v>
-      </c>
-      <c r="E118" t="n">
-        <v>264</v>
-      </c>
-      <c r="F118" t="n">
-        <v>661.1477</v>
-      </c>
-      <c r="G118" t="n">
-        <v>99622.96717306122</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>261</v>
-      </c>
-      <c r="C119" t="n">
-        <v>261</v>
-      </c>
-      <c r="D119" t="n">
-        <v>261</v>
-      </c>
-      <c r="E119" t="n">
-        <v>261</v>
-      </c>
-      <c r="F119" t="n">
-        <v>240.031</v>
-      </c>
-      <c r="G119" t="n">
-        <v>99382.93617306121</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>260</v>
-      </c>
-      <c r="C120" t="n">
-        <v>259</v>
-      </c>
-      <c r="D120" t="n">
-        <v>260</v>
-      </c>
-      <c r="E120" t="n">
-        <v>258</v>
-      </c>
-      <c r="F120" t="n">
-        <v>8388.2505</v>
-      </c>
-      <c r="G120" t="n">
-        <v>90994.68567306122</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>258</v>
-      </c>
-      <c r="C121" t="n">
-        <v>259</v>
-      </c>
-      <c r="D121" t="n">
-        <v>259</v>
-      </c>
-      <c r="E121" t="n">
-        <v>258</v>
-      </c>
-      <c r="F121" t="n">
-        <v>500</v>
-      </c>
-      <c r="G121" t="n">
-        <v>90994.68567306122</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>257</v>
-      </c>
-      <c r="C122" t="n">
-        <v>257</v>
-      </c>
-      <c r="D122" t="n">
-        <v>257</v>
-      </c>
-      <c r="E122" t="n">
-        <v>257</v>
-      </c>
-      <c r="F122" t="n">
-        <v>304.2737</v>
-      </c>
-      <c r="G122" t="n">
-        <v>90690.41197306121</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>256</v>
-      </c>
-      <c r="C123" t="n">
-        <v>256</v>
-      </c>
-      <c r="D123" t="n">
-        <v>256</v>
-      </c>
-      <c r="E123" t="n">
-        <v>256</v>
-      </c>
-      <c r="F123" t="n">
-        <v>2859.69140625</v>
-      </c>
-      <c r="G123" t="n">
-        <v>87830.72056681121</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>255</v>
-      </c>
-      <c r="C124" t="n">
-        <v>255</v>
-      </c>
-      <c r="D124" t="n">
-        <v>255</v>
-      </c>
-      <c r="E124" t="n">
-        <v>255</v>
-      </c>
-      <c r="F124" t="n">
-        <v>500</v>
-      </c>
-      <c r="G124" t="n">
-        <v>87330.72056681121</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>255</v>
-      </c>
-      <c r="C125" t="n">
-        <v>255</v>
-      </c>
-      <c r="D125" t="n">
-        <v>255</v>
-      </c>
-      <c r="E125" t="n">
-        <v>255</v>
-      </c>
-      <c r="F125" t="n">
-        <v>272.0172</v>
-      </c>
-      <c r="G125" t="n">
-        <v>87330.72056681121</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>252</v>
-      </c>
-      <c r="C126" t="n">
-        <v>251</v>
-      </c>
-      <c r="D126" t="n">
-        <v>252</v>
-      </c>
-      <c r="E126" t="n">
-        <v>251</v>
-      </c>
-      <c r="F126" t="n">
-        <v>1207.65</v>
-      </c>
-      <c r="G126" t="n">
-        <v>86123.07056681122</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>250</v>
-      </c>
-      <c r="C127" t="n">
-        <v>250</v>
-      </c>
-      <c r="D127" t="n">
-        <v>250</v>
-      </c>
-      <c r="E127" t="n">
-        <v>250</v>
-      </c>
-      <c r="F127" t="n">
-        <v>73.18380000000001</v>
-      </c>
-      <c r="G127" t="n">
-        <v>86049.88676681122</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>253</v>
-      </c>
-      <c r="C128" t="n">
-        <v>253</v>
-      </c>
-      <c r="D128" t="n">
-        <v>253</v>
-      </c>
-      <c r="E128" t="n">
-        <v>253</v>
-      </c>
-      <c r="F128" t="n">
-        <v>273.0909090909091</v>
-      </c>
-      <c r="G128" t="n">
-        <v>86322.97767590213</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>257</v>
-      </c>
-      <c r="C129" t="n">
-        <v>257</v>
-      </c>
-      <c r="D129" t="n">
-        <v>257</v>
-      </c>
-      <c r="E129" t="n">
-        <v>257</v>
-      </c>
-      <c r="F129" t="n">
-        <v>261.681</v>
-      </c>
-      <c r="G129" t="n">
-        <v>86584.65867590213</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>251</v>
-      </c>
-      <c r="C130" t="n">
-        <v>251</v>
-      </c>
-      <c r="D130" t="n">
-        <v>251</v>
-      </c>
-      <c r="E130" t="n">
-        <v>251</v>
-      </c>
-      <c r="F130" t="n">
-        <v>200</v>
-      </c>
-      <c r="G130" t="n">
-        <v>86384.65867590213</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>255</v>
-      </c>
-      <c r="C131" t="n">
-        <v>255</v>
-      </c>
-      <c r="D131" t="n">
-        <v>255</v>
-      </c>
-      <c r="E131" t="n">
-        <v>255</v>
-      </c>
-      <c r="F131" t="n">
-        <v>10</v>
-      </c>
-      <c r="G131" t="n">
-        <v>86394.65867590213</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>255</v>
-      </c>
-      <c r="C132" t="n">
-        <v>257</v>
-      </c>
-      <c r="D132" t="n">
-        <v>257</v>
-      </c>
-      <c r="E132" t="n">
-        <v>255</v>
-      </c>
-      <c r="F132" t="n">
-        <v>404</v>
-      </c>
-      <c r="G132" t="n">
-        <v>86798.65867590213</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>257</v>
-      </c>
-      <c r="C133" t="n">
-        <v>258</v>
-      </c>
-      <c r="D133" t="n">
-        <v>258</v>
-      </c>
-      <c r="E133" t="n">
-        <v>257</v>
-      </c>
-      <c r="F133" t="n">
-        <v>1629.747</v>
-      </c>
-      <c r="G133" t="n">
-        <v>88428.40567590213</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>258</v>
-      </c>
-      <c r="C134" t="n">
-        <v>258</v>
-      </c>
-      <c r="D134" t="n">
-        <v>258</v>
-      </c>
-      <c r="E134" t="n">
-        <v>258</v>
-      </c>
-      <c r="F134" t="n">
-        <v>1464</v>
-      </c>
-      <c r="G134" t="n">
-        <v>88428.40567590213</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>258</v>
-      </c>
-      <c r="C135" t="n">
-        <v>259</v>
-      </c>
-      <c r="D135" t="n">
-        <v>259</v>
-      </c>
-      <c r="E135" t="n">
-        <v>258</v>
-      </c>
-      <c r="F135" t="n">
-        <v>250</v>
-      </c>
-      <c r="G135" t="n">
-        <v>88678.40567590213</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>259</v>
-      </c>
-      <c r="C136" t="n">
-        <v>260</v>
-      </c>
-      <c r="D136" t="n">
-        <v>260</v>
-      </c>
-      <c r="E136" t="n">
-        <v>259</v>
-      </c>
-      <c r="F136" t="n">
-        <v>6108.4606</v>
-      </c>
-      <c r="G136" t="n">
-        <v>94786.86627590214</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>260</v>
-      </c>
-      <c r="C137" t="n">
-        <v>261</v>
-      </c>
-      <c r="D137" t="n">
-        <v>261</v>
-      </c>
-      <c r="E137" t="n">
-        <v>254</v>
-      </c>
-      <c r="F137" t="n">
-        <v>5588.4606</v>
-      </c>
-      <c r="G137" t="n">
-        <v>100375.3268759021</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>260</v>
-      </c>
-      <c r="C138" t="n">
-        <v>260</v>
-      </c>
-      <c r="D138" t="n">
-        <v>260</v>
-      </c>
-      <c r="E138" t="n">
-        <v>260</v>
-      </c>
-      <c r="F138" t="n">
-        <v>2</v>
-      </c>
-      <c r="G138" t="n">
-        <v>100373.3268759021</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>260</v>
-      </c>
-      <c r="C139" t="n">
-        <v>260</v>
-      </c>
-      <c r="D139" t="n">
-        <v>260</v>
-      </c>
-      <c r="E139" t="n">
-        <v>260</v>
-      </c>
-      <c r="F139" t="n">
-        <v>267</v>
-      </c>
-      <c r="G139" t="n">
-        <v>100373.3268759021</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>260</v>
-      </c>
-      <c r="C140" t="n">
-        <v>261</v>
-      </c>
-      <c r="D140" t="n">
-        <v>261</v>
-      </c>
-      <c r="E140" t="n">
-        <v>260</v>
-      </c>
-      <c r="F140" t="n">
-        <v>750</v>
-      </c>
-      <c r="G140" t="n">
-        <v>101123.3268759021</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>261</v>
-      </c>
-      <c r="C141" t="n">
-        <v>261</v>
-      </c>
-      <c r="D141" t="n">
-        <v>261</v>
-      </c>
-      <c r="E141" t="n">
-        <v>261</v>
-      </c>
-      <c r="F141" t="n">
-        <v>500</v>
-      </c>
-      <c r="G141" t="n">
-        <v>101123.3268759021</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>1</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>261</v>
-      </c>
-      <c r="C142" t="n">
-        <v>261</v>
-      </c>
-      <c r="D142" t="n">
-        <v>261</v>
-      </c>
-      <c r="E142" t="n">
-        <v>261</v>
-      </c>
-      <c r="F142" t="n">
-        <v>1068.882</v>
-      </c>
-      <c r="G142" t="n">
-        <v>101123.3268759021</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>261</v>
-      </c>
-      <c r="C143" t="n">
-        <v>261</v>
-      </c>
-      <c r="D143" t="n">
-        <v>261</v>
-      </c>
-      <c r="E143" t="n">
-        <v>261</v>
-      </c>
-      <c r="F143" t="n">
-        <v>783.373</v>
-      </c>
-      <c r="G143" t="n">
-        <v>101123.3268759021</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>261</v>
-      </c>
-      <c r="C144" t="n">
-        <v>261</v>
-      </c>
-      <c r="D144" t="n">
-        <v>261</v>
-      </c>
-      <c r="E144" t="n">
-        <v>261</v>
-      </c>
-      <c r="F144" t="n">
-        <v>1815.267</v>
-      </c>
-      <c r="G144" t="n">
-        <v>101123.3268759021</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>260</v>
-      </c>
-      <c r="C145" t="n">
-        <v>259</v>
-      </c>
-      <c r="D145" t="n">
-        <v>260</v>
-      </c>
-      <c r="E145" t="n">
-        <v>259</v>
-      </c>
-      <c r="F145" t="n">
-        <v>3710.8057</v>
-      </c>
-      <c r="G145" t="n">
-        <v>97412.52117590215</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>1</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>259</v>
-      </c>
-      <c r="C146" t="n">
-        <v>259</v>
-      </c>
-      <c r="D146" t="n">
-        <v>259</v>
-      </c>
-      <c r="E146" t="n">
-        <v>259</v>
-      </c>
-      <c r="F146" t="n">
-        <v>342.5339</v>
-      </c>
-      <c r="G146" t="n">
-        <v>97412.52117590215</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>1</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>259</v>
-      </c>
-      <c r="C147" t="n">
-        <v>259</v>
-      </c>
-      <c r="D147" t="n">
-        <v>259</v>
-      </c>
-      <c r="E147" t="n">
-        <v>259</v>
-      </c>
-      <c r="F147" t="n">
-        <v>315.3684</v>
-      </c>
-      <c r="G147" t="n">
-        <v>97412.52117590215</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>261</v>
-      </c>
-      <c r="C148" t="n">
-        <v>261</v>
-      </c>
-      <c r="D148" t="n">
-        <v>261</v>
-      </c>
-      <c r="E148" t="n">
-        <v>261</v>
-      </c>
-      <c r="F148" t="n">
-        <v>345.8299</v>
-      </c>
-      <c r="G148" t="n">
-        <v>97758.35107590214</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>262</v>
-      </c>
-      <c r="C149" t="n">
-        <v>262</v>
-      </c>
-      <c r="D149" t="n">
-        <v>262</v>
-      </c>
-      <c r="E149" t="n">
-        <v>262</v>
-      </c>
-      <c r="F149" t="n">
-        <v>1207.7973</v>
-      </c>
-      <c r="G149" t="n">
-        <v>98966.14837590215</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>1</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>260</v>
-      </c>
-      <c r="C150" t="n">
-        <v>259</v>
-      </c>
-      <c r="D150" t="n">
-        <v>260</v>
-      </c>
-      <c r="E150" t="n">
-        <v>259</v>
-      </c>
-      <c r="F150" t="n">
-        <v>3491.317</v>
-      </c>
-      <c r="G150" t="n">
-        <v>95474.83137590215</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>1</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>259</v>
-      </c>
-      <c r="C151" t="n">
-        <v>259</v>
-      </c>
-      <c r="D151" t="n">
-        <v>259</v>
-      </c>
-      <c r="E151" t="n">
-        <v>259</v>
-      </c>
-      <c r="F151" t="n">
-        <v>114.1756</v>
-      </c>
-      <c r="G151" t="n">
-        <v>95474.83137590215</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>1</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>263</v>
-      </c>
-      <c r="C152" t="n">
-        <v>263</v>
-      </c>
-      <c r="D152" t="n">
-        <v>264</v>
-      </c>
-      <c r="E152" t="n">
-        <v>263</v>
-      </c>
-      <c r="F152" t="n">
-        <v>1592.418</v>
-      </c>
-      <c r="G152" t="n">
-        <v>97067.24937590216</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>1</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
+      <c r="N110" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-15 BackTest ABT.xlsx
+++ b/BackTest/2019-11-15 BackTest ABT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N110"/>
+  <dimension ref="A1:N181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C2" t="n">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D2" t="n">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="E2" t="n">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F2" t="n">
-        <v>694.1375</v>
+        <v>2640.441</v>
       </c>
       <c r="G2" t="n">
-        <v>77715.56789999997</v>
+        <v>48743.8538</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C3" t="n">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D3" t="n">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E3" t="n">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="F3" t="n">
-        <v>92.0438</v>
+        <v>360</v>
       </c>
       <c r="G3" t="n">
-        <v>77715.56789999997</v>
+        <v>49103.8538</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="C4" t="n">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D4" t="n">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E4" t="n">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F4" t="n">
-        <v>299.714</v>
+        <v>3074.7</v>
       </c>
       <c r="G4" t="n">
-        <v>78015.28189999997</v>
+        <v>52178.55379999999</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="C5" t="n">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D5" t="n">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="E5" t="n">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F5" t="n">
-        <v>1400</v>
+        <v>1284.0553</v>
       </c>
       <c r="G5" t="n">
-        <v>76615.28189999997</v>
+        <v>50894.49849999999</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C6" t="n">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D6" t="n">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="E6" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F6" t="n">
-        <v>200</v>
+        <v>9659.097100000001</v>
       </c>
       <c r="G6" t="n">
-        <v>76815.28189999997</v>
+        <v>60553.59559999999</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="C7" t="n">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="D7" t="n">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="E7" t="n">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="F7" t="n">
-        <v>250</v>
+        <v>1228.2268</v>
       </c>
       <c r="G7" t="n">
-        <v>76565.28189999997</v>
+        <v>61781.82239999999</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="C8" t="n">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="D8" t="n">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="E8" t="n">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="F8" t="n">
-        <v>2900.5298</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>76565.28189999997</v>
+        <v>61783.82239999999</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="C9" t="n">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="D9" t="n">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="E9" t="n">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="F9" t="n">
-        <v>7973.9556</v>
+        <v>104.547</v>
       </c>
       <c r="G9" t="n">
-        <v>76565.28189999997</v>
+        <v>61783.82239999999</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="C10" t="n">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="D10" t="n">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="E10" t="n">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="F10" t="n">
-        <v>286.166</v>
+        <v>221.4646</v>
       </c>
       <c r="G10" t="n">
-        <v>76565.28189999997</v>
+        <v>61562.35779999999</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C11" t="n">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D11" t="n">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E11" t="n">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F11" t="n">
-        <v>216.177</v>
+        <v>120</v>
       </c>
       <c r="G11" t="n">
-        <v>76565.28189999997</v>
+        <v>61442.35779999999</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="C12" t="n">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="D12" t="n">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="E12" t="n">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="F12" t="n">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="G12" t="n">
-        <v>76565.28189999997</v>
+        <v>61482.35779999999</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="C13" t="n">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="D13" t="n">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="E13" t="n">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="F13" t="n">
-        <v>137.6</v>
+        <v>21.9924</v>
       </c>
       <c r="G13" t="n">
-        <v>76565.28189999997</v>
+        <v>61460.36539999999</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="C14" t="n">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D14" t="n">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E14" t="n">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="F14" t="n">
-        <v>1400</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>77965.28189999997</v>
+        <v>61462.36539999999</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="C15" t="n">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D15" t="n">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E15" t="n">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="F15" t="n">
-        <v>346.9685</v>
+        <v>48.4724</v>
       </c>
       <c r="G15" t="n">
-        <v>78312.25039999998</v>
+        <v>61413.89299999999</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="C16" t="n">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="D16" t="n">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="E16" t="n">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="F16" t="n">
-        <v>231.647</v>
+        <v>395.8358</v>
       </c>
       <c r="G16" t="n">
-        <v>78080.60339999998</v>
+        <v>61413.89299999999</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C17" t="n">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="D17" t="n">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="E17" t="n">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="F17" t="n">
-        <v>3169.9921</v>
+        <v>818.2306</v>
       </c>
       <c r="G17" t="n">
-        <v>78080.60339999998</v>
+        <v>60595.66239999999</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C18" t="n">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="D18" t="n">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E18" t="n">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="F18" t="n">
-        <v>350.566</v>
+        <v>1877.9958</v>
       </c>
       <c r="G18" t="n">
-        <v>77730.03739999997</v>
+        <v>58717.66659999999</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C19" t="n">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="D19" t="n">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="E19" t="n">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F19" t="n">
-        <v>287.55</v>
+        <v>3971.4646</v>
       </c>
       <c r="G19" t="n">
-        <v>78017.58739999997</v>
+        <v>62689.13119999999</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C20" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D20" t="n">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E20" t="n">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F20" t="n">
-        <v>819.39</v>
+        <v>1795.4392</v>
       </c>
       <c r="G20" t="n">
-        <v>78836.97739999997</v>
+        <v>60893.69199999999</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C21" t="n">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D21" t="n">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E21" t="n">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F21" t="n">
-        <v>146.15</v>
+        <v>9</v>
       </c>
       <c r="G21" t="n">
-        <v>78836.97739999997</v>
+        <v>60902.69199999999</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C22" t="n">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D22" t="n">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E22" t="n">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F22" t="n">
-        <v>46.6422</v>
+        <v>177.7508</v>
       </c>
       <c r="G22" t="n">
-        <v>78883.61959999998</v>
+        <v>60902.69199999999</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C23" t="n">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="D23" t="n">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="E23" t="n">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="F23" t="n">
-        <v>1015.7397</v>
+        <v>2000.194</v>
       </c>
       <c r="G23" t="n">
-        <v>77867.87989999997</v>
+        <v>62902.88599999999</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="C24" t="n">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D24" t="n">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="E24" t="n">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="F24" t="n">
-        <v>1007.9747</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
-        <v>77867.87989999997</v>
+        <v>62904.88599999999</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="C25" t="n">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="D25" t="n">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="E25" t="n">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F25" t="n">
-        <v>293</v>
+        <v>956</v>
       </c>
       <c r="G25" t="n">
-        <v>78160.87989999997</v>
+        <v>62904.88599999999</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C26" t="n">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D26" t="n">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E26" t="n">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F26" t="n">
-        <v>4285.1595</v>
+        <v>250</v>
       </c>
       <c r="G26" t="n">
-        <v>82446.03939999997</v>
+        <v>62654.88599999999</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C27" t="n">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D27" t="n">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E27" t="n">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F27" t="n">
-        <v>2557.6776</v>
+        <v>5415.2247</v>
       </c>
       <c r="G27" t="n">
-        <v>82446.03939999997</v>
+        <v>68070.11069999999</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C28" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D28" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E28" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F28" t="n">
-        <v>180.1824</v>
+        <v>1046.2264</v>
       </c>
       <c r="G28" t="n">
-        <v>82446.03939999997</v>
+        <v>67023.88429999999</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C29" t="n">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D29" t="n">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E29" t="n">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F29" t="n">
-        <v>1358.6</v>
+        <v>9</v>
       </c>
       <c r="G29" t="n">
-        <v>82446.03939999997</v>
+        <v>67032.88429999999</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C30" t="n">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="D30" t="n">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E30" t="n">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="F30" t="n">
-        <v>4684.5128</v>
+        <v>5</v>
       </c>
       <c r="G30" t="n">
-        <v>77761.52659999997</v>
+        <v>67037.88429999999</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C31" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D31" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E31" t="n">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F31" t="n">
-        <v>726.2067</v>
+        <v>624.2215</v>
       </c>
       <c r="G31" t="n">
-        <v>78487.73329999996</v>
+        <v>66413.66279999999</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C32" t="n">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="D32" t="n">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="E32" t="n">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="F32" t="n">
-        <v>1237.9163</v>
+        <v>5</v>
       </c>
       <c r="G32" t="n">
-        <v>77249.81699999997</v>
+        <v>66418.66279999999</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C33" t="n">
+        <v>250</v>
+      </c>
+      <c r="D33" t="n">
+        <v>260</v>
+      </c>
+      <c r="E33" t="n">
         <v>243</v>
       </c>
-      <c r="D33" t="n">
-        <v>243</v>
-      </c>
-      <c r="E33" t="n">
-        <v>242</v>
-      </c>
       <c r="F33" t="n">
-        <v>2308.0781</v>
+        <v>8537.5388</v>
       </c>
       <c r="G33" t="n">
-        <v>79557.89509999997</v>
+        <v>74956.20159999999</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="C34" t="n">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="D34" t="n">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="E34" t="n">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="F34" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G34" t="n">
-        <v>79567.89509999997</v>
+        <v>74959.20159999999</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C35" t="n">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D35" t="n">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="E35" t="n">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="F35" t="n">
-        <v>2690</v>
+        <v>42.6291</v>
       </c>
       <c r="G35" t="n">
-        <v>79567.89509999997</v>
+        <v>74916.57249999998</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="C36" t="n">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="D36" t="n">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="E36" t="n">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="F36" t="n">
-        <v>1686.0478</v>
+        <v>150</v>
       </c>
       <c r="G36" t="n">
-        <v>77881.84729999996</v>
+        <v>74916.57249999998</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="C37" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D37" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="E37" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="F37" t="n">
-        <v>107.5627</v>
+        <v>11</v>
       </c>
       <c r="G37" t="n">
-        <v>77774.28459999997</v>
+        <v>74916.57249999998</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C38" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D38" t="n">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E38" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F38" t="n">
-        <v>186.0478</v>
+        <v>3357.6115</v>
       </c>
       <c r="G38" t="n">
-        <v>77774.28459999997</v>
+        <v>71558.96099999998</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C39" t="n">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="D39" t="n">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="E39" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F39" t="n">
-        <v>313.9522</v>
+        <v>16416.4269</v>
       </c>
       <c r="G39" t="n">
-        <v>77774.28459999997</v>
+        <v>87975.38789999997</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="C40" t="n">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="D40" t="n">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="E40" t="n">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="F40" t="n">
-        <v>989</v>
+        <v>10880.9058</v>
       </c>
       <c r="G40" t="n">
-        <v>76785.28459999997</v>
+        <v>77094.48209999996</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,38 +1842,32 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C41" t="n">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="D41" t="n">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="E41" t="n">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="F41" t="n">
-        <v>567.0337</v>
+        <v>150</v>
       </c>
       <c r="G41" t="n">
-        <v>76218.25089999997</v>
+        <v>77094.48209999996</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>239</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1884,38 +1878,32 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="C42" t="n">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="D42" t="n">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="E42" t="n">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="F42" t="n">
-        <v>11927.4094</v>
+        <v>150</v>
       </c>
       <c r="G42" t="n">
-        <v>76218.25089999997</v>
+        <v>77244.48209999996</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>238</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1926,38 +1914,32 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="C43" t="n">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="D43" t="n">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="E43" t="n">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="F43" t="n">
-        <v>5025.6702</v>
+        <v>162</v>
       </c>
       <c r="G43" t="n">
-        <v>81243.92109999996</v>
+        <v>77406.48209999996</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>238</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1968,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="C44" t="n">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D44" t="n">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="E44" t="n">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F44" t="n">
-        <v>120.5702</v>
+        <v>8730.1999</v>
       </c>
       <c r="G44" t="n">
-        <v>81364.49129999997</v>
+        <v>68676.28219999996</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1993,11 +1975,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2008,38 +1986,32 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C45" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D45" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E45" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F45" t="n">
-        <v>4731.2559</v>
+        <v>1097.7388</v>
       </c>
       <c r="G45" t="n">
-        <v>81364.49129999997</v>
+        <v>69774.02099999996</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>241</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2050,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C46" t="n">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D46" t="n">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="E46" t="n">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="F46" t="n">
-        <v>2818.9606</v>
+        <v>5350.6221</v>
       </c>
       <c r="G46" t="n">
-        <v>84183.45189999997</v>
+        <v>75124.64309999996</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2075,11 +2047,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2090,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="C47" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D47" t="n">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E47" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F47" t="n">
-        <v>469.4754591836735</v>
+        <v>1069.5724</v>
       </c>
       <c r="G47" t="n">
-        <v>83713.9764408163</v>
+        <v>74055.07069999995</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2115,11 +2083,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2130,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C48" t="n">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D48" t="n">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E48" t="n">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F48" t="n">
-        <v>231.154732244898</v>
+        <v>590.04</v>
       </c>
       <c r="G48" t="n">
-        <v>83945.13117306121</v>
+        <v>74645.11069999995</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2155,11 +2119,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2170,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C49" t="n">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D49" t="n">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="E49" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F49" t="n">
-        <v>1400</v>
+        <v>1380.0619</v>
       </c>
       <c r="G49" t="n">
-        <v>82545.13117306121</v>
+        <v>73265.04879999995</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2195,11 +2155,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2210,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C50" t="n">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="D50" t="n">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="E50" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F50" t="n">
-        <v>231.1547</v>
+        <v>274.8494</v>
       </c>
       <c r="G50" t="n">
-        <v>82313.97647306121</v>
+        <v>73265.04879999995</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2235,11 +2191,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2250,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C51" t="n">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D51" t="n">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E51" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F51" t="n">
-        <v>49.8533</v>
+        <v>2264.4077</v>
       </c>
       <c r="G51" t="n">
-        <v>82363.82977306121</v>
+        <v>71000.64109999995</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2275,11 +2227,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2290,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C52" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D52" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E52" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F52" t="n">
-        <v>48</v>
+        <v>6.0728</v>
       </c>
       <c r="G52" t="n">
-        <v>82411.82977306121</v>
+        <v>71000.64109999995</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2315,11 +2263,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2330,7 +2274,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C53" t="n">
         <v>248</v>
@@ -2339,13 +2283,13 @@
         <v>248</v>
       </c>
       <c r="E53" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F53" t="n">
-        <v>902</v>
+        <v>1316.221</v>
       </c>
       <c r="G53" t="n">
-        <v>83313.82977306121</v>
+        <v>72316.86209999995</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2355,11 +2299,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2370,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C54" t="n">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D54" t="n">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E54" t="n">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F54" t="n">
-        <v>816.383</v>
+        <v>836.04</v>
       </c>
       <c r="G54" t="n">
-        <v>83313.82977306121</v>
+        <v>71480.82209999996</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2395,11 +2335,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2422,10 +2358,10 @@
         <v>248</v>
       </c>
       <c r="F55" t="n">
-        <v>3046.2322</v>
+        <v>1092.203</v>
       </c>
       <c r="G55" t="n">
-        <v>83313.82977306121</v>
+        <v>72573.02509999996</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2435,11 +2371,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2450,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
+        <v>247</v>
+      </c>
+      <c r="C56" t="n">
         <v>248</v>
       </c>
-      <c r="C56" t="n">
-        <v>249</v>
-      </c>
       <c r="D56" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E56" t="n">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F56" t="n">
-        <v>6670</v>
+        <v>5050</v>
       </c>
       <c r="G56" t="n">
-        <v>89983.82977306121</v>
+        <v>72573.02509999996</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2475,11 +2407,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2490,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C57" t="n">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="D57" t="n">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="E57" t="n">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="F57" t="n">
-        <v>3998</v>
+        <v>231.7679</v>
       </c>
       <c r="G57" t="n">
-        <v>93981.82977306121</v>
+        <v>72341.25719999995</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2515,11 +2443,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2530,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C58" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D58" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E58" t="n">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="F58" t="n">
-        <v>2</v>
+        <v>1276</v>
       </c>
       <c r="G58" t="n">
-        <v>93983.82977306121</v>
+        <v>73617.25719999995</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2555,11 +2479,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2570,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C59" t="n">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D59" t="n">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E59" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F59" t="n">
-        <v>300</v>
+        <v>5345</v>
       </c>
       <c r="G59" t="n">
-        <v>93983.82977306121</v>
+        <v>78962.25719999995</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2595,11 +2515,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2610,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C60" t="n">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D60" t="n">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E60" t="n">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="F60" t="n">
-        <v>2257.2296</v>
+        <v>222.3043</v>
       </c>
       <c r="G60" t="n">
-        <v>96241.05937306122</v>
+        <v>78962.25719999995</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2635,11 +2551,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2650,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C61" t="n">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D61" t="n">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E61" t="n">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="F61" t="n">
-        <v>429.7443</v>
+        <v>2.1356</v>
       </c>
       <c r="G61" t="n">
-        <v>96241.05937306122</v>
+        <v>78962.25719999995</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2675,11 +2587,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2690,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C62" t="n">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D62" t="n">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="E62" t="n">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="F62" t="n">
-        <v>1711.7099</v>
+        <v>175.6899</v>
       </c>
       <c r="G62" t="n">
-        <v>94529.34947306121</v>
+        <v>78786.56729999995</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2715,11 +2623,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2730,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C63" t="n">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="D63" t="n">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="E63" t="n">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="F63" t="n">
-        <v>1300.454</v>
+        <v>706.5937</v>
       </c>
       <c r="G63" t="n">
-        <v>95829.80347306121</v>
+        <v>78079.97359999995</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2755,11 +2659,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2770,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C64" t="n">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="D64" t="n">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="E64" t="n">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="F64" t="n">
-        <v>2198.0099</v>
+        <v>1575.6899</v>
       </c>
       <c r="G64" t="n">
-        <v>98027.81337306122</v>
+        <v>79655.66349999995</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2795,11 +2695,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2810,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C65" t="n">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D65" t="n">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="E65" t="n">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="F65" t="n">
-        <v>438</v>
+        <v>2108.8792</v>
       </c>
       <c r="G65" t="n">
-        <v>98465.81337306122</v>
+        <v>79655.66349999995</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2835,11 +2731,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2850,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="C66" t="n">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="D66" t="n">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="E66" t="n">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="F66" t="n">
-        <v>452.203</v>
+        <v>115.2747</v>
       </c>
       <c r="G66" t="n">
-        <v>98918.01637306121</v>
+        <v>79540.38879999996</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2875,11 +2767,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2890,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="C67" t="n">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="D67" t="n">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="E67" t="n">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="F67" t="n">
-        <v>3652</v>
+        <v>1000</v>
       </c>
       <c r="G67" t="n">
-        <v>98918.01637306121</v>
+        <v>78540.38879999996</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2915,11 +2803,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2930,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="C68" t="n">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="D68" t="n">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="E68" t="n">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="F68" t="n">
-        <v>2812.0023</v>
+        <v>125.9748</v>
       </c>
       <c r="G68" t="n">
-        <v>101730.0186730612</v>
+        <v>78540.38879999996</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2955,11 +2839,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2970,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="C69" t="n">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="D69" t="n">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="E69" t="n">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="F69" t="n">
-        <v>1000</v>
+        <v>107.792</v>
       </c>
       <c r="G69" t="n">
-        <v>102730.0186730612</v>
+        <v>78540.38879999996</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2995,11 +2875,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3010,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="C70" t="n">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="D70" t="n">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="E70" t="n">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="F70" t="n">
-        <v>127</v>
+        <v>5000</v>
       </c>
       <c r="G70" t="n">
-        <v>102730.0186730612</v>
+        <v>78540.38879999996</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3035,11 +2911,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3050,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="C71" t="n">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="D71" t="n">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="E71" t="n">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="F71" t="n">
-        <v>5006.4435</v>
+        <v>855.8099999999999</v>
       </c>
       <c r="G71" t="n">
-        <v>107736.4621730612</v>
+        <v>77684.57879999996</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3075,11 +2947,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3090,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="C72" t="n">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="D72" t="n">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="E72" t="n">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="F72" t="n">
-        <v>4080.1769</v>
+        <v>30.9891</v>
       </c>
       <c r="G72" t="n">
-        <v>103656.2852730612</v>
+        <v>77715.56789999997</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3115,11 +2983,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3130,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="C73" t="n">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="D73" t="n">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="E73" t="n">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="F73" t="n">
-        <v>5165.5299</v>
+        <v>694.1375</v>
       </c>
       <c r="G73" t="n">
-        <v>98490.75537306121</v>
+        <v>77715.56789999997</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3155,11 +3019,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3170,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="C74" t="n">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="D74" t="n">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="E74" t="n">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="F74" t="n">
-        <v>4649.4033</v>
+        <v>92.0438</v>
       </c>
       <c r="G74" t="n">
-        <v>98490.75537306121</v>
+        <v>77715.56789999997</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3195,11 +3055,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3210,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="C75" t="n">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="D75" t="n">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="E75" t="n">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="F75" t="n">
-        <v>471.0641</v>
+        <v>299.714</v>
       </c>
       <c r="G75" t="n">
-        <v>98961.81947306122</v>
+        <v>78015.28189999997</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3235,11 +3091,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3250,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="C76" t="n">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="D76" t="n">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="E76" t="n">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="F76" t="n">
-        <v>661.1477</v>
+        <v>1400</v>
       </c>
       <c r="G76" t="n">
-        <v>99622.96717306122</v>
+        <v>76615.28189999997</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3275,11 +3127,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3290,37 +3138,35 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="C77" t="n">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="D77" t="n">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="E77" t="n">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="F77" t="n">
-        <v>240.031</v>
+        <v>200</v>
       </c>
       <c r="G77" t="n">
-        <v>99382.93617306121</v>
+        <v>76815.28189999997</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
       <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
@@ -3328,28 +3174,28 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="C78" t="n">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="D78" t="n">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="E78" t="n">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="F78" t="n">
-        <v>8388.2505</v>
+        <v>250</v>
       </c>
       <c r="G78" t="n">
-        <v>90994.68567306122</v>
+        <v>76565.28189999997</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3364,28 +3210,28 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C79" t="n">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="D79" t="n">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="E79" t="n">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="F79" t="n">
-        <v>500</v>
+        <v>2900.5298</v>
       </c>
       <c r="G79" t="n">
-        <v>90994.68567306122</v>
+        <v>76565.28189999997</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3400,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="C80" t="n">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="D80" t="n">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E80" t="n">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="F80" t="n">
-        <v>304.2737</v>
+        <v>7973.9556</v>
       </c>
       <c r="G80" t="n">
-        <v>90690.41197306121</v>
+        <v>76565.28189999997</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3436,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="C81" t="n">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="D81" t="n">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="E81" t="n">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="F81" t="n">
-        <v>2859.69140625</v>
+        <v>286.166</v>
       </c>
       <c r="G81" t="n">
-        <v>87830.72056681121</v>
+        <v>76565.28189999997</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3472,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C82" t="n">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="D82" t="n">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="E82" t="n">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="F82" t="n">
-        <v>500</v>
+        <v>216.177</v>
       </c>
       <c r="G82" t="n">
-        <v>87330.72056681121</v>
+        <v>76565.28189999997</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3508,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="C83" t="n">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="D83" t="n">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="E83" t="n">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="F83" t="n">
-        <v>272.0172</v>
+        <v>500</v>
       </c>
       <c r="G83" t="n">
-        <v>87330.72056681121</v>
+        <v>76565.28189999997</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3544,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C84" t="n">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D84" t="n">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="E84" t="n">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F84" t="n">
-        <v>1207.65</v>
+        <v>137.6</v>
       </c>
       <c r="G84" t="n">
-        <v>86123.07056681122</v>
+        <v>76565.28189999997</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3580,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C85" t="n">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D85" t="n">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E85" t="n">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F85" t="n">
-        <v>73.18380000000001</v>
+        <v>1400</v>
       </c>
       <c r="G85" t="n">
-        <v>86049.88676681122</v>
+        <v>77965.28189999997</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3616,22 +3462,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C86" t="n">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D86" t="n">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E86" t="n">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="F86" t="n">
-        <v>273.0909090909091</v>
+        <v>346.9685</v>
       </c>
       <c r="G86" t="n">
-        <v>86322.97767590213</v>
+        <v>78312.25039999998</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3652,22 +3498,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="C87" t="n">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="D87" t="n">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="E87" t="n">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="F87" t="n">
-        <v>261.681</v>
+        <v>231.647</v>
       </c>
       <c r="G87" t="n">
-        <v>86584.65867590213</v>
+        <v>78080.60339999998</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3688,22 +3534,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C88" t="n">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D88" t="n">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="E88" t="n">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="F88" t="n">
-        <v>200</v>
+        <v>3169.9921</v>
       </c>
       <c r="G88" t="n">
-        <v>86384.65867590213</v>
+        <v>78080.60339999998</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3724,22 +3570,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C89" t="n">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="D89" t="n">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="E89" t="n">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="F89" t="n">
-        <v>10</v>
+        <v>350.566</v>
       </c>
       <c r="G89" t="n">
-        <v>86394.65867590213</v>
+        <v>77730.03739999997</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3760,22 +3606,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="C90" t="n">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="D90" t="n">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="E90" t="n">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="F90" t="n">
-        <v>404</v>
+        <v>287.55</v>
       </c>
       <c r="G90" t="n">
-        <v>86798.65867590213</v>
+        <v>78017.58739999997</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3796,22 +3642,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="C91" t="n">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="D91" t="n">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="E91" t="n">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="F91" t="n">
-        <v>1629.747</v>
+        <v>819.39</v>
       </c>
       <c r="G91" t="n">
-        <v>88428.40567590213</v>
+        <v>78836.97739999997</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3832,22 +3678,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C92" t="n">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="D92" t="n">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="E92" t="n">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="F92" t="n">
-        <v>1464</v>
+        <v>146.15</v>
       </c>
       <c r="G92" t="n">
-        <v>88428.40567590213</v>
+        <v>78836.97739999997</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3868,22 +3714,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C93" t="n">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="D93" t="n">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="E93" t="n">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="F93" t="n">
-        <v>250</v>
+        <v>46.6422</v>
       </c>
       <c r="G93" t="n">
-        <v>88678.40567590213</v>
+        <v>78883.61959999998</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3904,22 +3750,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="C94" t="n">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D94" t="n">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="E94" t="n">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="F94" t="n">
-        <v>6108.4606</v>
+        <v>1015.7397</v>
       </c>
       <c r="G94" t="n">
-        <v>94786.86627590214</v>
+        <v>77867.87989999997</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3940,22 +3786,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="C95" t="n">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="D95" t="n">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="E95" t="n">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="F95" t="n">
-        <v>5588.4606</v>
+        <v>1007.9747</v>
       </c>
       <c r="G95" t="n">
-        <v>100375.3268759021</v>
+        <v>77867.87989999997</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3976,22 +3822,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="C96" t="n">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="D96" t="n">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="E96" t="n">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="F96" t="n">
-        <v>2</v>
+        <v>293</v>
       </c>
       <c r="G96" t="n">
-        <v>100373.3268759021</v>
+        <v>78160.87989999997</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4012,22 +3858,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="C97" t="n">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="D97" t="n">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="E97" t="n">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="F97" t="n">
-        <v>267</v>
+        <v>4285.1595</v>
       </c>
       <c r="G97" t="n">
-        <v>100373.3268759021</v>
+        <v>82446.03939999997</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4048,22 +3894,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="C98" t="n">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="D98" t="n">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="E98" t="n">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="F98" t="n">
-        <v>750</v>
+        <v>2557.6776</v>
       </c>
       <c r="G98" t="n">
-        <v>101123.3268759021</v>
+        <v>82446.03939999997</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4084,22 +3930,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="C99" t="n">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="D99" t="n">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="E99" t="n">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="F99" t="n">
-        <v>500</v>
+        <v>180.1824</v>
       </c>
       <c r="G99" t="n">
-        <v>101123.3268759021</v>
+        <v>82446.03939999997</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4120,22 +3966,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="C100" t="n">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="D100" t="n">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="E100" t="n">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="F100" t="n">
-        <v>1068.882</v>
+        <v>1358.6</v>
       </c>
       <c r="G100" t="n">
-        <v>101123.3268759021</v>
+        <v>82446.03939999997</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4156,22 +4002,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="C101" t="n">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="D101" t="n">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="E101" t="n">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="F101" t="n">
-        <v>783.373</v>
+        <v>4684.5128</v>
       </c>
       <c r="G101" t="n">
-        <v>101123.3268759021</v>
+        <v>77761.52659999997</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4192,22 +4038,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="C102" t="n">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="D102" t="n">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="E102" t="n">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="F102" t="n">
-        <v>1815.267</v>
+        <v>726.2067</v>
       </c>
       <c r="G102" t="n">
-        <v>101123.3268759021</v>
+        <v>78487.73329999996</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4228,22 +4074,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="C103" t="n">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="D103" t="n">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="E103" t="n">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="F103" t="n">
-        <v>3710.8057</v>
+        <v>1237.9163</v>
       </c>
       <c r="G103" t="n">
-        <v>97412.52117590215</v>
+        <v>77249.81699999997</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4264,22 +4110,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="C104" t="n">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="D104" t="n">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="E104" t="n">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="F104" t="n">
-        <v>342.5339</v>
+        <v>2308.0781</v>
       </c>
       <c r="G104" t="n">
-        <v>97412.52117590215</v>
+        <v>79557.89509999997</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4300,28 +4146,28 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="C105" t="n">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="D105" t="n">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="E105" t="n">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="F105" t="n">
-        <v>315.3684</v>
+        <v>10</v>
       </c>
       <c r="G105" t="n">
-        <v>97412.52117590215</v>
+        <v>79567.89509999997</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4336,28 +4182,28 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="C106" t="n">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="D106" t="n">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="E106" t="n">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="F106" t="n">
-        <v>345.8299</v>
+        <v>2690</v>
       </c>
       <c r="G106" t="n">
-        <v>97758.35107590214</v>
+        <v>79567.89509999997</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4372,28 +4218,28 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="C107" t="n">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="D107" t="n">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="E107" t="n">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="F107" t="n">
-        <v>1207.7973</v>
+        <v>1686.0478</v>
       </c>
       <c r="G107" t="n">
-        <v>98966.14837590215</v>
+        <v>77881.84729999996</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4408,28 +4254,28 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="C108" t="n">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="D108" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="E108" t="n">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="F108" t="n">
-        <v>3491.317</v>
+        <v>107.5627</v>
       </c>
       <c r="G108" t="n">
-        <v>95474.83137590215</v>
+        <v>77774.28459999997</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4444,28 +4290,28 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="C109" t="n">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="D109" t="n">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="E109" t="n">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="F109" t="n">
-        <v>114.1756</v>
+        <v>186.0478</v>
       </c>
       <c r="G109" t="n">
-        <v>95474.83137590215</v>
+        <v>77774.28459999997</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4480,28 +4326,28 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="C110" t="n">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="D110" t="n">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="E110" t="n">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="F110" t="n">
-        <v>1592.418</v>
+        <v>313.9522</v>
       </c>
       <c r="G110" t="n">
-        <v>97067.24937590216</v>
+        <v>77774.28459999997</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4511,6 +4357,2816 @@
       </c>
       <c r="N110" t="inlineStr"/>
     </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>239</v>
+      </c>
+      <c r="C111" t="n">
+        <v>239</v>
+      </c>
+      <c r="D111" t="n">
+        <v>239</v>
+      </c>
+      <c r="E111" t="n">
+        <v>239</v>
+      </c>
+      <c r="F111" t="n">
+        <v>989</v>
+      </c>
+      <c r="G111" t="n">
+        <v>76785.28459999997</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>240</v>
+      </c>
+      <c r="K111" t="n">
+        <v>240</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>239</v>
+      </c>
+      <c r="C112" t="n">
+        <v>238</v>
+      </c>
+      <c r="D112" t="n">
+        <v>239</v>
+      </c>
+      <c r="E112" t="n">
+        <v>238</v>
+      </c>
+      <c r="F112" t="n">
+        <v>567.0337</v>
+      </c>
+      <c r="G112" t="n">
+        <v>76218.25089999997</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>239</v>
+      </c>
+      <c r="K112" t="n">
+        <v>240</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>238</v>
+      </c>
+      <c r="C113" t="n">
+        <v>238</v>
+      </c>
+      <c r="D113" t="n">
+        <v>238</v>
+      </c>
+      <c r="E113" t="n">
+        <v>238</v>
+      </c>
+      <c r="F113" t="n">
+        <v>11927.4094</v>
+      </c>
+      <c r="G113" t="n">
+        <v>76218.25089999997</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>238</v>
+      </c>
+      <c r="K113" t="n">
+        <v>240</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>238</v>
+      </c>
+      <c r="C114" t="n">
+        <v>240</v>
+      </c>
+      <c r="D114" t="n">
+        <v>240</v>
+      </c>
+      <c r="E114" t="n">
+        <v>238</v>
+      </c>
+      <c r="F114" t="n">
+        <v>5025.6702</v>
+      </c>
+      <c r="G114" t="n">
+        <v>81243.92109999996</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>238</v>
+      </c>
+      <c r="K114" t="n">
+        <v>240</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>241</v>
+      </c>
+      <c r="C115" t="n">
+        <v>241</v>
+      </c>
+      <c r="D115" t="n">
+        <v>241</v>
+      </c>
+      <c r="E115" t="n">
+        <v>241</v>
+      </c>
+      <c r="F115" t="n">
+        <v>120.5702</v>
+      </c>
+      <c r="G115" t="n">
+        <v>81364.49129999997</v>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>240</v>
+      </c>
+      <c r="K115" t="n">
+        <v>240</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>241</v>
+      </c>
+      <c r="C116" t="n">
+        <v>241</v>
+      </c>
+      <c r="D116" t="n">
+        <v>241</v>
+      </c>
+      <c r="E116" t="n">
+        <v>241</v>
+      </c>
+      <c r="F116" t="n">
+        <v>4731.2559</v>
+      </c>
+      <c r="G116" t="n">
+        <v>81364.49129999997</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>241</v>
+      </c>
+      <c r="K116" t="n">
+        <v>240</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>239</v>
+      </c>
+      <c r="C117" t="n">
+        <v>244</v>
+      </c>
+      <c r="D117" t="n">
+        <v>244</v>
+      </c>
+      <c r="E117" t="n">
+        <v>239</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2818.9606</v>
+      </c>
+      <c r="G117" t="n">
+        <v>84183.45189999997</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>241</v>
+      </c>
+      <c r="K117" t="n">
+        <v>240</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>243</v>
+      </c>
+      <c r="C118" t="n">
+        <v>241</v>
+      </c>
+      <c r="D118" t="n">
+        <v>245</v>
+      </c>
+      <c r="E118" t="n">
+        <v>241</v>
+      </c>
+      <c r="F118" t="n">
+        <v>469.4754591836735</v>
+      </c>
+      <c r="G118" t="n">
+        <v>83713.9764408163</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>244</v>
+      </c>
+      <c r="K118" t="n">
+        <v>240</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>244</v>
+      </c>
+      <c r="C119" t="n">
+        <v>245</v>
+      </c>
+      <c r="D119" t="n">
+        <v>245</v>
+      </c>
+      <c r="E119" t="n">
+        <v>244</v>
+      </c>
+      <c r="F119" t="n">
+        <v>231.154732244898</v>
+      </c>
+      <c r="G119" t="n">
+        <v>83945.13117306121</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>241</v>
+      </c>
+      <c r="K119" t="n">
+        <v>240</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>244</v>
+      </c>
+      <c r="C120" t="n">
+        <v>244</v>
+      </c>
+      <c r="D120" t="n">
+        <v>244</v>
+      </c>
+      <c r="E120" t="n">
+        <v>244</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1400</v>
+      </c>
+      <c r="G120" t="n">
+        <v>82545.13117306121</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>245</v>
+      </c>
+      <c r="K120" t="n">
+        <v>240</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>242</v>
+      </c>
+      <c r="C121" t="n">
+        <v>242</v>
+      </c>
+      <c r="D121" t="n">
+        <v>242</v>
+      </c>
+      <c r="E121" t="n">
+        <v>242</v>
+      </c>
+      <c r="F121" t="n">
+        <v>231.1547</v>
+      </c>
+      <c r="G121" t="n">
+        <v>82313.97647306121</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>244</v>
+      </c>
+      <c r="K121" t="n">
+        <v>240</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>243</v>
+      </c>
+      <c r="C122" t="n">
+        <v>243</v>
+      </c>
+      <c r="D122" t="n">
+        <v>243</v>
+      </c>
+      <c r="E122" t="n">
+        <v>243</v>
+      </c>
+      <c r="F122" t="n">
+        <v>49.8533</v>
+      </c>
+      <c r="G122" t="n">
+        <v>82363.82977306121</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>242</v>
+      </c>
+      <c r="K122" t="n">
+        <v>240</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>245</v>
+      </c>
+      <c r="C123" t="n">
+        <v>246</v>
+      </c>
+      <c r="D123" t="n">
+        <v>246</v>
+      </c>
+      <c r="E123" t="n">
+        <v>245</v>
+      </c>
+      <c r="F123" t="n">
+        <v>48</v>
+      </c>
+      <c r="G123" t="n">
+        <v>82411.82977306121</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>243</v>
+      </c>
+      <c r="K123" t="n">
+        <v>240</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>246</v>
+      </c>
+      <c r="C124" t="n">
+        <v>248</v>
+      </c>
+      <c r="D124" t="n">
+        <v>248</v>
+      </c>
+      <c r="E124" t="n">
+        <v>246</v>
+      </c>
+      <c r="F124" t="n">
+        <v>902</v>
+      </c>
+      <c r="G124" t="n">
+        <v>83313.82977306121</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>246</v>
+      </c>
+      <c r="K124" t="n">
+        <v>240</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>248</v>
+      </c>
+      <c r="C125" t="n">
+        <v>248</v>
+      </c>
+      <c r="D125" t="n">
+        <v>248</v>
+      </c>
+      <c r="E125" t="n">
+        <v>248</v>
+      </c>
+      <c r="F125" t="n">
+        <v>816.383</v>
+      </c>
+      <c r="G125" t="n">
+        <v>83313.82977306121</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>240</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>248</v>
+      </c>
+      <c r="C126" t="n">
+        <v>248</v>
+      </c>
+      <c r="D126" t="n">
+        <v>248</v>
+      </c>
+      <c r="E126" t="n">
+        <v>248</v>
+      </c>
+      <c r="F126" t="n">
+        <v>3046.2322</v>
+      </c>
+      <c r="G126" t="n">
+        <v>83313.82977306121</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>240</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>248</v>
+      </c>
+      <c r="C127" t="n">
+        <v>249</v>
+      </c>
+      <c r="D127" t="n">
+        <v>249</v>
+      </c>
+      <c r="E127" t="n">
+        <v>248</v>
+      </c>
+      <c r="F127" t="n">
+        <v>6670</v>
+      </c>
+      <c r="G127" t="n">
+        <v>89983.82977306121</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>240</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>249</v>
+      </c>
+      <c r="C128" t="n">
+        <v>254</v>
+      </c>
+      <c r="D128" t="n">
+        <v>254</v>
+      </c>
+      <c r="E128" t="n">
+        <v>249</v>
+      </c>
+      <c r="F128" t="n">
+        <v>3998</v>
+      </c>
+      <c r="G128" t="n">
+        <v>93981.82977306121</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>240</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>255</v>
+      </c>
+      <c r="C129" t="n">
+        <v>255</v>
+      </c>
+      <c r="D129" t="n">
+        <v>255</v>
+      </c>
+      <c r="E129" t="n">
+        <v>255</v>
+      </c>
+      <c r="F129" t="n">
+        <v>2</v>
+      </c>
+      <c r="G129" t="n">
+        <v>93983.82977306121</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>240</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>255</v>
+      </c>
+      <c r="C130" t="n">
+        <v>255</v>
+      </c>
+      <c r="D130" t="n">
+        <v>255</v>
+      </c>
+      <c r="E130" t="n">
+        <v>255</v>
+      </c>
+      <c r="F130" t="n">
+        <v>300</v>
+      </c>
+      <c r="G130" t="n">
+        <v>93983.82977306121</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>240</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>256</v>
+      </c>
+      <c r="C131" t="n">
+        <v>257</v>
+      </c>
+      <c r="D131" t="n">
+        <v>257</v>
+      </c>
+      <c r="E131" t="n">
+        <v>256</v>
+      </c>
+      <c r="F131" t="n">
+        <v>2257.2296</v>
+      </c>
+      <c r="G131" t="n">
+        <v>96241.05937306122</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>240</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>257</v>
+      </c>
+      <c r="C132" t="n">
+        <v>257</v>
+      </c>
+      <c r="D132" t="n">
+        <v>257</v>
+      </c>
+      <c r="E132" t="n">
+        <v>257</v>
+      </c>
+      <c r="F132" t="n">
+        <v>429.7443</v>
+      </c>
+      <c r="G132" t="n">
+        <v>96241.05937306122</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>240</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>256</v>
+      </c>
+      <c r="C133" t="n">
+        <v>256</v>
+      </c>
+      <c r="D133" t="n">
+        <v>256</v>
+      </c>
+      <c r="E133" t="n">
+        <v>256</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1711.7099</v>
+      </c>
+      <c r="G133" t="n">
+        <v>94529.34947306121</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>240</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>256</v>
+      </c>
+      <c r="C134" t="n">
+        <v>257</v>
+      </c>
+      <c r="D134" t="n">
+        <v>257</v>
+      </c>
+      <c r="E134" t="n">
+        <v>256</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1300.454</v>
+      </c>
+      <c r="G134" t="n">
+        <v>95829.80347306121</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>240</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>257</v>
+      </c>
+      <c r="C135" t="n">
+        <v>258</v>
+      </c>
+      <c r="D135" t="n">
+        <v>258</v>
+      </c>
+      <c r="E135" t="n">
+        <v>257</v>
+      </c>
+      <c r="F135" t="n">
+        <v>2198.0099</v>
+      </c>
+      <c r="G135" t="n">
+        <v>98027.81337306122</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>240</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>258</v>
+      </c>
+      <c r="C136" t="n">
+        <v>259</v>
+      </c>
+      <c r="D136" t="n">
+        <v>259</v>
+      </c>
+      <c r="E136" t="n">
+        <v>258</v>
+      </c>
+      <c r="F136" t="n">
+        <v>438</v>
+      </c>
+      <c r="G136" t="n">
+        <v>98465.81337306122</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>240</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>259</v>
+      </c>
+      <c r="C137" t="n">
+        <v>260</v>
+      </c>
+      <c r="D137" t="n">
+        <v>260</v>
+      </c>
+      <c r="E137" t="n">
+        <v>259</v>
+      </c>
+      <c r="F137" t="n">
+        <v>452.203</v>
+      </c>
+      <c r="G137" t="n">
+        <v>98918.01637306121</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>240</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>260</v>
+      </c>
+      <c r="C138" t="n">
+        <v>260</v>
+      </c>
+      <c r="D138" t="n">
+        <v>260</v>
+      </c>
+      <c r="E138" t="n">
+        <v>260</v>
+      </c>
+      <c r="F138" t="n">
+        <v>3652</v>
+      </c>
+      <c r="G138" t="n">
+        <v>98918.01637306121</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>240</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>260</v>
+      </c>
+      <c r="C139" t="n">
+        <v>262</v>
+      </c>
+      <c r="D139" t="n">
+        <v>262</v>
+      </c>
+      <c r="E139" t="n">
+        <v>260</v>
+      </c>
+      <c r="F139" t="n">
+        <v>2812.0023</v>
+      </c>
+      <c r="G139" t="n">
+        <v>101730.0186730612</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>240</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>263</v>
+      </c>
+      <c r="C140" t="n">
+        <v>263</v>
+      </c>
+      <c r="D140" t="n">
+        <v>263</v>
+      </c>
+      <c r="E140" t="n">
+        <v>263</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G140" t="n">
+        <v>102730.0186730612</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>240</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>263</v>
+      </c>
+      <c r="C141" t="n">
+        <v>263</v>
+      </c>
+      <c r="D141" t="n">
+        <v>263</v>
+      </c>
+      <c r="E141" t="n">
+        <v>263</v>
+      </c>
+      <c r="F141" t="n">
+        <v>127</v>
+      </c>
+      <c r="G141" t="n">
+        <v>102730.0186730612</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>240</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>264</v>
+      </c>
+      <c r="C142" t="n">
+        <v>265</v>
+      </c>
+      <c r="D142" t="n">
+        <v>265</v>
+      </c>
+      <c r="E142" t="n">
+        <v>264</v>
+      </c>
+      <c r="F142" t="n">
+        <v>5006.4435</v>
+      </c>
+      <c r="G142" t="n">
+        <v>107736.4621730612</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>240</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>265</v>
+      </c>
+      <c r="C143" t="n">
+        <v>262</v>
+      </c>
+      <c r="D143" t="n">
+        <v>265</v>
+      </c>
+      <c r="E143" t="n">
+        <v>262</v>
+      </c>
+      <c r="F143" t="n">
+        <v>4080.1769</v>
+      </c>
+      <c r="G143" t="n">
+        <v>103656.2852730612</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>240</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>262</v>
+      </c>
+      <c r="C144" t="n">
+        <v>260</v>
+      </c>
+      <c r="D144" t="n">
+        <v>262</v>
+      </c>
+      <c r="E144" t="n">
+        <v>260</v>
+      </c>
+      <c r="F144" t="n">
+        <v>5165.5299</v>
+      </c>
+      <c r="G144" t="n">
+        <v>98490.75537306121</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>240</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>260</v>
+      </c>
+      <c r="C145" t="n">
+        <v>260</v>
+      </c>
+      <c r="D145" t="n">
+        <v>260</v>
+      </c>
+      <c r="E145" t="n">
+        <v>260</v>
+      </c>
+      <c r="F145" t="n">
+        <v>4649.4033</v>
+      </c>
+      <c r="G145" t="n">
+        <v>98490.75537306121</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>240</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>263</v>
+      </c>
+      <c r="C146" t="n">
+        <v>263</v>
+      </c>
+      <c r="D146" t="n">
+        <v>263</v>
+      </c>
+      <c r="E146" t="n">
+        <v>263</v>
+      </c>
+      <c r="F146" t="n">
+        <v>471.0641</v>
+      </c>
+      <c r="G146" t="n">
+        <v>98961.81947306122</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>240</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>264</v>
+      </c>
+      <c r="C147" t="n">
+        <v>264</v>
+      </c>
+      <c r="D147" t="n">
+        <v>264</v>
+      </c>
+      <c r="E147" t="n">
+        <v>264</v>
+      </c>
+      <c r="F147" t="n">
+        <v>661.1477</v>
+      </c>
+      <c r="G147" t="n">
+        <v>99622.96717306122</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>240</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>261</v>
+      </c>
+      <c r="C148" t="n">
+        <v>261</v>
+      </c>
+      <c r="D148" t="n">
+        <v>261</v>
+      </c>
+      <c r="E148" t="n">
+        <v>261</v>
+      </c>
+      <c r="F148" t="n">
+        <v>240.031</v>
+      </c>
+      <c r="G148" t="n">
+        <v>99382.93617306121</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>240</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1.0825</v>
+      </c>
+      <c r="N148" t="n">
+        <v>1.113445378151261</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>260</v>
+      </c>
+      <c r="C149" t="n">
+        <v>259</v>
+      </c>
+      <c r="D149" t="n">
+        <v>260</v>
+      </c>
+      <c r="E149" t="n">
+        <v>258</v>
+      </c>
+      <c r="F149" t="n">
+        <v>8388.2505</v>
+      </c>
+      <c r="G149" t="n">
+        <v>90994.68567306122</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>258</v>
+      </c>
+      <c r="C150" t="n">
+        <v>259</v>
+      </c>
+      <c r="D150" t="n">
+        <v>259</v>
+      </c>
+      <c r="E150" t="n">
+        <v>258</v>
+      </c>
+      <c r="F150" t="n">
+        <v>500</v>
+      </c>
+      <c r="G150" t="n">
+        <v>90994.68567306122</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>257</v>
+      </c>
+      <c r="C151" t="n">
+        <v>257</v>
+      </c>
+      <c r="D151" t="n">
+        <v>257</v>
+      </c>
+      <c r="E151" t="n">
+        <v>257</v>
+      </c>
+      <c r="F151" t="n">
+        <v>304.2737</v>
+      </c>
+      <c r="G151" t="n">
+        <v>90690.41197306121</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>256</v>
+      </c>
+      <c r="C152" t="n">
+        <v>256</v>
+      </c>
+      <c r="D152" t="n">
+        <v>256</v>
+      </c>
+      <c r="E152" t="n">
+        <v>256</v>
+      </c>
+      <c r="F152" t="n">
+        <v>2859.69140625</v>
+      </c>
+      <c r="G152" t="n">
+        <v>87830.72056681121</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>255</v>
+      </c>
+      <c r="C153" t="n">
+        <v>255</v>
+      </c>
+      <c r="D153" t="n">
+        <v>255</v>
+      </c>
+      <c r="E153" t="n">
+        <v>255</v>
+      </c>
+      <c r="F153" t="n">
+        <v>500</v>
+      </c>
+      <c r="G153" t="n">
+        <v>87330.72056681121</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>255</v>
+      </c>
+      <c r="C154" t="n">
+        <v>255</v>
+      </c>
+      <c r="D154" t="n">
+        <v>255</v>
+      </c>
+      <c r="E154" t="n">
+        <v>255</v>
+      </c>
+      <c r="F154" t="n">
+        <v>272.0172</v>
+      </c>
+      <c r="G154" t="n">
+        <v>87330.72056681121</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>252</v>
+      </c>
+      <c r="C155" t="n">
+        <v>251</v>
+      </c>
+      <c r="D155" t="n">
+        <v>252</v>
+      </c>
+      <c r="E155" t="n">
+        <v>251</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1207.65</v>
+      </c>
+      <c r="G155" t="n">
+        <v>86123.07056681122</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>250</v>
+      </c>
+      <c r="C156" t="n">
+        <v>250</v>
+      </c>
+      <c r="D156" t="n">
+        <v>250</v>
+      </c>
+      <c r="E156" t="n">
+        <v>250</v>
+      </c>
+      <c r="F156" t="n">
+        <v>73.18380000000001</v>
+      </c>
+      <c r="G156" t="n">
+        <v>86049.88676681122</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>253</v>
+      </c>
+      <c r="C157" t="n">
+        <v>253</v>
+      </c>
+      <c r="D157" t="n">
+        <v>253</v>
+      </c>
+      <c r="E157" t="n">
+        <v>253</v>
+      </c>
+      <c r="F157" t="n">
+        <v>273.0909090909091</v>
+      </c>
+      <c r="G157" t="n">
+        <v>86322.97767590213</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>257</v>
+      </c>
+      <c r="C158" t="n">
+        <v>257</v>
+      </c>
+      <c r="D158" t="n">
+        <v>257</v>
+      </c>
+      <c r="E158" t="n">
+        <v>257</v>
+      </c>
+      <c r="F158" t="n">
+        <v>261.681</v>
+      </c>
+      <c r="G158" t="n">
+        <v>86584.65867590213</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>251</v>
+      </c>
+      <c r="C159" t="n">
+        <v>251</v>
+      </c>
+      <c r="D159" t="n">
+        <v>251</v>
+      </c>
+      <c r="E159" t="n">
+        <v>251</v>
+      </c>
+      <c r="F159" t="n">
+        <v>200</v>
+      </c>
+      <c r="G159" t="n">
+        <v>86384.65867590213</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>255</v>
+      </c>
+      <c r="C160" t="n">
+        <v>255</v>
+      </c>
+      <c r="D160" t="n">
+        <v>255</v>
+      </c>
+      <c r="E160" t="n">
+        <v>255</v>
+      </c>
+      <c r="F160" t="n">
+        <v>10</v>
+      </c>
+      <c r="G160" t="n">
+        <v>86394.65867590213</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>255</v>
+      </c>
+      <c r="C161" t="n">
+        <v>257</v>
+      </c>
+      <c r="D161" t="n">
+        <v>257</v>
+      </c>
+      <c r="E161" t="n">
+        <v>255</v>
+      </c>
+      <c r="F161" t="n">
+        <v>404</v>
+      </c>
+      <c r="G161" t="n">
+        <v>86798.65867590213</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>257</v>
+      </c>
+      <c r="C162" t="n">
+        <v>258</v>
+      </c>
+      <c r="D162" t="n">
+        <v>258</v>
+      </c>
+      <c r="E162" t="n">
+        <v>257</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1629.747</v>
+      </c>
+      <c r="G162" t="n">
+        <v>88428.40567590213</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>258</v>
+      </c>
+      <c r="C163" t="n">
+        <v>258</v>
+      </c>
+      <c r="D163" t="n">
+        <v>258</v>
+      </c>
+      <c r="E163" t="n">
+        <v>258</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1464</v>
+      </c>
+      <c r="G163" t="n">
+        <v>88428.40567590213</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>258</v>
+      </c>
+      <c r="C164" t="n">
+        <v>259</v>
+      </c>
+      <c r="D164" t="n">
+        <v>259</v>
+      </c>
+      <c r="E164" t="n">
+        <v>258</v>
+      </c>
+      <c r="F164" t="n">
+        <v>250</v>
+      </c>
+      <c r="G164" t="n">
+        <v>88678.40567590213</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>259</v>
+      </c>
+      <c r="C165" t="n">
+        <v>260</v>
+      </c>
+      <c r="D165" t="n">
+        <v>260</v>
+      </c>
+      <c r="E165" t="n">
+        <v>259</v>
+      </c>
+      <c r="F165" t="n">
+        <v>6108.4606</v>
+      </c>
+      <c r="G165" t="n">
+        <v>94786.86627590214</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>260</v>
+      </c>
+      <c r="C166" t="n">
+        <v>261</v>
+      </c>
+      <c r="D166" t="n">
+        <v>261</v>
+      </c>
+      <c r="E166" t="n">
+        <v>254</v>
+      </c>
+      <c r="F166" t="n">
+        <v>5588.4606</v>
+      </c>
+      <c r="G166" t="n">
+        <v>100375.3268759021</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>260</v>
+      </c>
+      <c r="C167" t="n">
+        <v>260</v>
+      </c>
+      <c r="D167" t="n">
+        <v>260</v>
+      </c>
+      <c r="E167" t="n">
+        <v>260</v>
+      </c>
+      <c r="F167" t="n">
+        <v>2</v>
+      </c>
+      <c r="G167" t="n">
+        <v>100373.3268759021</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>260</v>
+      </c>
+      <c r="C168" t="n">
+        <v>260</v>
+      </c>
+      <c r="D168" t="n">
+        <v>260</v>
+      </c>
+      <c r="E168" t="n">
+        <v>260</v>
+      </c>
+      <c r="F168" t="n">
+        <v>267</v>
+      </c>
+      <c r="G168" t="n">
+        <v>100373.3268759021</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>260</v>
+      </c>
+      <c r="C169" t="n">
+        <v>261</v>
+      </c>
+      <c r="D169" t="n">
+        <v>261</v>
+      </c>
+      <c r="E169" t="n">
+        <v>260</v>
+      </c>
+      <c r="F169" t="n">
+        <v>750</v>
+      </c>
+      <c r="G169" t="n">
+        <v>101123.3268759021</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>261</v>
+      </c>
+      <c r="C170" t="n">
+        <v>261</v>
+      </c>
+      <c r="D170" t="n">
+        <v>261</v>
+      </c>
+      <c r="E170" t="n">
+        <v>261</v>
+      </c>
+      <c r="F170" t="n">
+        <v>500</v>
+      </c>
+      <c r="G170" t="n">
+        <v>101123.3268759021</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>1</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>261</v>
+      </c>
+      <c r="C171" t="n">
+        <v>261</v>
+      </c>
+      <c r="D171" t="n">
+        <v>261</v>
+      </c>
+      <c r="E171" t="n">
+        <v>261</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1068.882</v>
+      </c>
+      <c r="G171" t="n">
+        <v>101123.3268759021</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>261</v>
+      </c>
+      <c r="C172" t="n">
+        <v>261</v>
+      </c>
+      <c r="D172" t="n">
+        <v>261</v>
+      </c>
+      <c r="E172" t="n">
+        <v>261</v>
+      </c>
+      <c r="F172" t="n">
+        <v>783.373</v>
+      </c>
+      <c r="G172" t="n">
+        <v>101123.3268759021</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>261</v>
+      </c>
+      <c r="C173" t="n">
+        <v>261</v>
+      </c>
+      <c r="D173" t="n">
+        <v>261</v>
+      </c>
+      <c r="E173" t="n">
+        <v>261</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1815.267</v>
+      </c>
+      <c r="G173" t="n">
+        <v>101123.3268759021</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>1</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>260</v>
+      </c>
+      <c r="C174" t="n">
+        <v>259</v>
+      </c>
+      <c r="D174" t="n">
+        <v>260</v>
+      </c>
+      <c r="E174" t="n">
+        <v>259</v>
+      </c>
+      <c r="F174" t="n">
+        <v>3710.8057</v>
+      </c>
+      <c r="G174" t="n">
+        <v>97412.52117590215</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>259</v>
+      </c>
+      <c r="C175" t="n">
+        <v>259</v>
+      </c>
+      <c r="D175" t="n">
+        <v>259</v>
+      </c>
+      <c r="E175" t="n">
+        <v>259</v>
+      </c>
+      <c r="F175" t="n">
+        <v>342.5339</v>
+      </c>
+      <c r="G175" t="n">
+        <v>97412.52117590215</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>1</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>259</v>
+      </c>
+      <c r="C176" t="n">
+        <v>259</v>
+      </c>
+      <c r="D176" t="n">
+        <v>259</v>
+      </c>
+      <c r="E176" t="n">
+        <v>259</v>
+      </c>
+      <c r="F176" t="n">
+        <v>315.3684</v>
+      </c>
+      <c r="G176" t="n">
+        <v>97412.52117590215</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>261</v>
+      </c>
+      <c r="C177" t="n">
+        <v>261</v>
+      </c>
+      <c r="D177" t="n">
+        <v>261</v>
+      </c>
+      <c r="E177" t="n">
+        <v>261</v>
+      </c>
+      <c r="F177" t="n">
+        <v>345.8299</v>
+      </c>
+      <c r="G177" t="n">
+        <v>97758.35107590214</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>262</v>
+      </c>
+      <c r="C178" t="n">
+        <v>262</v>
+      </c>
+      <c r="D178" t="n">
+        <v>262</v>
+      </c>
+      <c r="E178" t="n">
+        <v>262</v>
+      </c>
+      <c r="F178" t="n">
+        <v>1207.7973</v>
+      </c>
+      <c r="G178" t="n">
+        <v>98966.14837590215</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>260</v>
+      </c>
+      <c r="C179" t="n">
+        <v>259</v>
+      </c>
+      <c r="D179" t="n">
+        <v>260</v>
+      </c>
+      <c r="E179" t="n">
+        <v>259</v>
+      </c>
+      <c r="F179" t="n">
+        <v>3491.317</v>
+      </c>
+      <c r="G179" t="n">
+        <v>95474.83137590215</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>259</v>
+      </c>
+      <c r="C180" t="n">
+        <v>259</v>
+      </c>
+      <c r="D180" t="n">
+        <v>259</v>
+      </c>
+      <c r="E180" t="n">
+        <v>259</v>
+      </c>
+      <c r="F180" t="n">
+        <v>114.1756</v>
+      </c>
+      <c r="G180" t="n">
+        <v>95474.83137590215</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>263</v>
+      </c>
+      <c r="C181" t="n">
+        <v>263</v>
+      </c>
+      <c r="D181" t="n">
+        <v>264</v>
+      </c>
+      <c r="E181" t="n">
+        <v>263</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1592.418</v>
+      </c>
+      <c r="G181" t="n">
+        <v>97067.24937590216</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-11-15 BackTest ABT.xlsx
+++ b/BackTest/2019-11-15 BackTest ABT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N181"/>
+  <dimension ref="A1:M181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4380,22 +4048,15 @@
         <v>76785.28459999997</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
-        <v>240</v>
-      </c>
-      <c r="K111" t="n">
-        <v>240</v>
-      </c>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4420,1184 +4081,1024 @@
         <v>76218.25089999997</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>239</v>
-      </c>
-      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>238</v>
+      </c>
+      <c r="C113" t="n">
+        <v>238</v>
+      </c>
+      <c r="D113" t="n">
+        <v>238</v>
+      </c>
+      <c r="E113" t="n">
+        <v>238</v>
+      </c>
+      <c r="F113" t="n">
+        <v>11927.4094</v>
+      </c>
+      <c r="G113" t="n">
+        <v>76218.25089999997</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>238</v>
+      </c>
+      <c r="C114" t="n">
         <v>240</v>
       </c>
-      <c r="L112" t="inlineStr">
+      <c r="D114" t="n">
+        <v>240</v>
+      </c>
+      <c r="E114" t="n">
+        <v>238</v>
+      </c>
+      <c r="F114" t="n">
+        <v>5025.6702</v>
+      </c>
+      <c r="G114" t="n">
+        <v>81243.92109999996</v>
+      </c>
+      <c r="H114" t="n">
+        <v>2</v>
+      </c>
+      <c r="I114" t="n">
+        <v>238</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>238</v>
-      </c>
-      <c r="C113" t="n">
-        <v>238</v>
-      </c>
-      <c r="D113" t="n">
-        <v>238</v>
-      </c>
-      <c r="E113" t="n">
-        <v>238</v>
-      </c>
-      <c r="F113" t="n">
-        <v>11927.4094</v>
-      </c>
-      <c r="G113" t="n">
-        <v>76218.25089999997</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
-        <v>238</v>
-      </c>
-      <c r="K113" t="n">
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>241</v>
+      </c>
+      <c r="C115" t="n">
+        <v>241</v>
+      </c>
+      <c r="D115" t="n">
+        <v>241</v>
+      </c>
+      <c r="E115" t="n">
+        <v>241</v>
+      </c>
+      <c r="F115" t="n">
+        <v>120.5702</v>
+      </c>
+      <c r="G115" t="n">
+        <v>81364.49129999997</v>
+      </c>
+      <c r="H115" t="n">
+        <v>2</v>
+      </c>
+      <c r="I115" t="n">
         <v>240</v>
       </c>
-      <c r="L113" t="inlineStr">
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>238</v>
-      </c>
-      <c r="C114" t="n">
-        <v>240</v>
-      </c>
-      <c r="D114" t="n">
-        <v>240</v>
-      </c>
-      <c r="E114" t="n">
-        <v>238</v>
-      </c>
-      <c r="F114" t="n">
-        <v>5025.6702</v>
-      </c>
-      <c r="G114" t="n">
-        <v>81243.92109999996</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>238</v>
-      </c>
-      <c r="K114" t="n">
-        <v>240</v>
-      </c>
-      <c r="L114" t="inlineStr">
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>241</v>
+      </c>
+      <c r="C116" t="n">
+        <v>241</v>
+      </c>
+      <c r="D116" t="n">
+        <v>241</v>
+      </c>
+      <c r="E116" t="n">
+        <v>241</v>
+      </c>
+      <c r="F116" t="n">
+        <v>4731.2559</v>
+      </c>
+      <c r="G116" t="n">
+        <v>81364.49129999997</v>
+      </c>
+      <c r="H116" t="n">
+        <v>2</v>
+      </c>
+      <c r="I116" t="n">
+        <v>241</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>239</v>
+      </c>
+      <c r="C117" t="n">
+        <v>244</v>
+      </c>
+      <c r="D117" t="n">
+        <v>244</v>
+      </c>
+      <c r="E117" t="n">
+        <v>239</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2818.9606</v>
+      </c>
+      <c r="G117" t="n">
+        <v>84183.45189999997</v>
+      </c>
+      <c r="H117" t="n">
+        <v>2</v>
+      </c>
+      <c r="I117" t="n">
         <v>241</v>
       </c>
-      <c r="C115" t="n">
-        <v>241</v>
-      </c>
-      <c r="D115" t="n">
-        <v>241</v>
-      </c>
-      <c r="E115" t="n">
-        <v>241</v>
-      </c>
-      <c r="F115" t="n">
-        <v>120.5702</v>
-      </c>
-      <c r="G115" t="n">
-        <v>81364.49129999997</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="n">
-        <v>240</v>
-      </c>
-      <c r="K115" t="n">
-        <v>240</v>
-      </c>
-      <c r="L115" t="inlineStr">
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>243</v>
+      </c>
+      <c r="C118" t="n">
         <v>241</v>
       </c>
-      <c r="C116" t="n">
+      <c r="D118" t="n">
+        <v>245</v>
+      </c>
+      <c r="E118" t="n">
         <v>241</v>
       </c>
-      <c r="D116" t="n">
-        <v>241</v>
-      </c>
-      <c r="E116" t="n">
-        <v>241</v>
-      </c>
-      <c r="F116" t="n">
-        <v>4731.2559</v>
-      </c>
-      <c r="G116" t="n">
-        <v>81364.49129999997</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="n">
-        <v>241</v>
-      </c>
-      <c r="K116" t="n">
-        <v>240</v>
-      </c>
-      <c r="L116" t="inlineStr">
+      <c r="F118" t="n">
+        <v>469.4754591836735</v>
+      </c>
+      <c r="G118" t="n">
+        <v>83713.9764408163</v>
+      </c>
+      <c r="H118" t="n">
+        <v>2</v>
+      </c>
+      <c r="I118" t="n">
+        <v>244</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>239</v>
-      </c>
-      <c r="C117" t="n">
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
         <v>244</v>
       </c>
-      <c r="D117" t="n">
+      <c r="C119" t="n">
+        <v>245</v>
+      </c>
+      <c r="D119" t="n">
+        <v>245</v>
+      </c>
+      <c r="E119" t="n">
         <v>244</v>
       </c>
-      <c r="E117" t="n">
-        <v>239</v>
-      </c>
-      <c r="F117" t="n">
-        <v>2818.9606</v>
-      </c>
-      <c r="G117" t="n">
-        <v>84183.45189999997</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="n">
+      <c r="F119" t="n">
+        <v>231.154732244898</v>
+      </c>
+      <c r="G119" t="n">
+        <v>83945.13117306121</v>
+      </c>
+      <c r="H119" t="n">
+        <v>2</v>
+      </c>
+      <c r="I119" t="n">
         <v>241</v>
       </c>
-      <c r="K117" t="n">
-        <v>240</v>
-      </c>
-      <c r="L117" t="inlineStr">
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>243</v>
-      </c>
-      <c r="C118" t="n">
-        <v>241</v>
-      </c>
-      <c r="D118" t="n">
-        <v>245</v>
-      </c>
-      <c r="E118" t="n">
-        <v>241</v>
-      </c>
-      <c r="F118" t="n">
-        <v>469.4754591836735</v>
-      </c>
-      <c r="G118" t="n">
-        <v>83713.9764408163</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="n">
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
         <v>244</v>
       </c>
-      <c r="K118" t="n">
-        <v>240</v>
-      </c>
-      <c r="L118" t="inlineStr">
+      <c r="C120" t="n">
+        <v>244</v>
+      </c>
+      <c r="D120" t="n">
+        <v>244</v>
+      </c>
+      <c r="E120" t="n">
+        <v>244</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1400</v>
+      </c>
+      <c r="G120" t="n">
+        <v>82545.13117306121</v>
+      </c>
+      <c r="H120" t="n">
+        <v>2</v>
+      </c>
+      <c r="I120" t="n">
+        <v>245</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>244</v>
-      </c>
-      <c r="C119" t="n">
-        <v>245</v>
-      </c>
-      <c r="D119" t="n">
-        <v>245</v>
-      </c>
-      <c r="E119" t="n">
-        <v>244</v>
-      </c>
-      <c r="F119" t="n">
-        <v>231.154732244898</v>
-      </c>
-      <c r="G119" t="n">
-        <v>83945.13117306121</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="n">
-        <v>241</v>
-      </c>
-      <c r="K119" t="n">
-        <v>240</v>
-      </c>
-      <c r="L119" t="inlineStr">
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>242</v>
+      </c>
+      <c r="C121" t="n">
+        <v>242</v>
+      </c>
+      <c r="D121" t="n">
+        <v>242</v>
+      </c>
+      <c r="E121" t="n">
+        <v>242</v>
+      </c>
+      <c r="F121" t="n">
+        <v>231.1547</v>
+      </c>
+      <c r="G121" t="n">
+        <v>82313.97647306121</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>244</v>
-      </c>
-      <c r="C120" t="n">
-        <v>244</v>
-      </c>
-      <c r="D120" t="n">
-        <v>244</v>
-      </c>
-      <c r="E120" t="n">
-        <v>244</v>
-      </c>
-      <c r="F120" t="n">
-        <v>1400</v>
-      </c>
-      <c r="G120" t="n">
-        <v>82545.13117306121</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
-        <v>245</v>
-      </c>
-      <c r="K120" t="n">
-        <v>240</v>
-      </c>
-      <c r="L120" t="inlineStr">
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>243</v>
+      </c>
+      <c r="C122" t="n">
+        <v>243</v>
+      </c>
+      <c r="D122" t="n">
+        <v>243</v>
+      </c>
+      <c r="E122" t="n">
+        <v>243</v>
+      </c>
+      <c r="F122" t="n">
+        <v>49.8533</v>
+      </c>
+      <c r="G122" t="n">
+        <v>82363.82977306121</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>242</v>
-      </c>
-      <c r="C121" t="n">
-        <v>242</v>
-      </c>
-      <c r="D121" t="n">
-        <v>242</v>
-      </c>
-      <c r="E121" t="n">
-        <v>242</v>
-      </c>
-      <c r="F121" t="n">
-        <v>231.1547</v>
-      </c>
-      <c r="G121" t="n">
-        <v>82313.97647306121</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="n">
-        <v>244</v>
-      </c>
-      <c r="K121" t="n">
-        <v>240</v>
-      </c>
-      <c r="L121" t="inlineStr">
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>245</v>
+      </c>
+      <c r="C123" t="n">
+        <v>246</v>
+      </c>
+      <c r="D123" t="n">
+        <v>246</v>
+      </c>
+      <c r="E123" t="n">
+        <v>245</v>
+      </c>
+      <c r="F123" t="n">
+        <v>48</v>
+      </c>
+      <c r="G123" t="n">
+        <v>82411.82977306121</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>243</v>
-      </c>
-      <c r="C122" t="n">
-        <v>243</v>
-      </c>
-      <c r="D122" t="n">
-        <v>243</v>
-      </c>
-      <c r="E122" t="n">
-        <v>243</v>
-      </c>
-      <c r="F122" t="n">
-        <v>49.8533</v>
-      </c>
-      <c r="G122" t="n">
-        <v>82363.82977306121</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="n">
-        <v>242</v>
-      </c>
-      <c r="K122" t="n">
-        <v>240</v>
-      </c>
-      <c r="L122" t="inlineStr">
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>246</v>
+      </c>
+      <c r="C124" t="n">
+        <v>248</v>
+      </c>
+      <c r="D124" t="n">
+        <v>248</v>
+      </c>
+      <c r="E124" t="n">
+        <v>246</v>
+      </c>
+      <c r="F124" t="n">
+        <v>902</v>
+      </c>
+      <c r="G124" t="n">
+        <v>83313.82977306121</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>245</v>
-      </c>
-      <c r="C123" t="n">
-        <v>246</v>
-      </c>
-      <c r="D123" t="n">
-        <v>246</v>
-      </c>
-      <c r="E123" t="n">
-        <v>245</v>
-      </c>
-      <c r="F123" t="n">
-        <v>48</v>
-      </c>
-      <c r="G123" t="n">
-        <v>82411.82977306121</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="n">
-        <v>243</v>
-      </c>
-      <c r="K123" t="n">
-        <v>240</v>
-      </c>
-      <c r="L123" t="inlineStr">
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>248</v>
+      </c>
+      <c r="C125" t="n">
+        <v>248</v>
+      </c>
+      <c r="D125" t="n">
+        <v>248</v>
+      </c>
+      <c r="E125" t="n">
+        <v>248</v>
+      </c>
+      <c r="F125" t="n">
+        <v>816.383</v>
+      </c>
+      <c r="G125" t="n">
+        <v>83313.82977306121</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>246</v>
-      </c>
-      <c r="C124" t="n">
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
         <v>248</v>
       </c>
-      <c r="D124" t="n">
+      <c r="C126" t="n">
         <v>248</v>
       </c>
-      <c r="E124" t="n">
-        <v>246</v>
-      </c>
-      <c r="F124" t="n">
-        <v>902</v>
-      </c>
-      <c r="G124" t="n">
+      <c r="D126" t="n">
+        <v>248</v>
+      </c>
+      <c r="E126" t="n">
+        <v>248</v>
+      </c>
+      <c r="F126" t="n">
+        <v>3046.2322</v>
+      </c>
+      <c r="G126" t="n">
         <v>83313.82977306121</v>
       </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="n">
-        <v>246</v>
-      </c>
-      <c r="K124" t="n">
-        <v>240</v>
-      </c>
-      <c r="L124" t="inlineStr">
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
         <v>248</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C127" t="n">
+        <v>249</v>
+      </c>
+      <c r="D127" t="n">
+        <v>249</v>
+      </c>
+      <c r="E127" t="n">
         <v>248</v>
       </c>
-      <c r="D125" t="n">
-        <v>248</v>
-      </c>
-      <c r="E125" t="n">
-        <v>248</v>
-      </c>
-      <c r="F125" t="n">
-        <v>816.383</v>
-      </c>
-      <c r="G125" t="n">
-        <v>83313.82977306121</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>240</v>
-      </c>
-      <c r="L125" t="inlineStr">
+      <c r="F127" t="n">
+        <v>6670</v>
+      </c>
+      <c r="G127" t="n">
+        <v>89983.82977306121</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>248</v>
-      </c>
-      <c r="C126" t="n">
-        <v>248</v>
-      </c>
-      <c r="D126" t="n">
-        <v>248</v>
-      </c>
-      <c r="E126" t="n">
-        <v>248</v>
-      </c>
-      <c r="F126" t="n">
-        <v>3046.2322</v>
-      </c>
-      <c r="G126" t="n">
-        <v>83313.82977306121</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>240</v>
-      </c>
-      <c r="L126" t="inlineStr">
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>249</v>
+      </c>
+      <c r="C128" t="n">
+        <v>254</v>
+      </c>
+      <c r="D128" t="n">
+        <v>254</v>
+      </c>
+      <c r="E128" t="n">
+        <v>249</v>
+      </c>
+      <c r="F128" t="n">
+        <v>3998</v>
+      </c>
+      <c r="G128" t="n">
+        <v>93981.82977306121</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>248</v>
-      </c>
-      <c r="C127" t="n">
-        <v>249</v>
-      </c>
-      <c r="D127" t="n">
-        <v>249</v>
-      </c>
-      <c r="E127" t="n">
-        <v>248</v>
-      </c>
-      <c r="F127" t="n">
-        <v>6670</v>
-      </c>
-      <c r="G127" t="n">
-        <v>89983.82977306121</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>240</v>
-      </c>
-      <c r="L127" t="inlineStr">
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>255</v>
+      </c>
+      <c r="C129" t="n">
+        <v>255</v>
+      </c>
+      <c r="D129" t="n">
+        <v>255</v>
+      </c>
+      <c r="E129" t="n">
+        <v>255</v>
+      </c>
+      <c r="F129" t="n">
+        <v>2</v>
+      </c>
+      <c r="G129" t="n">
+        <v>93983.82977306121</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>249</v>
-      </c>
-      <c r="C128" t="n">
-        <v>254</v>
-      </c>
-      <c r="D128" t="n">
-        <v>254</v>
-      </c>
-      <c r="E128" t="n">
-        <v>249</v>
-      </c>
-      <c r="F128" t="n">
-        <v>3998</v>
-      </c>
-      <c r="G128" t="n">
-        <v>93981.82977306121</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>240</v>
-      </c>
-      <c r="L128" t="inlineStr">
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>255</v>
+      </c>
+      <c r="C130" t="n">
+        <v>255</v>
+      </c>
+      <c r="D130" t="n">
+        <v>255</v>
+      </c>
+      <c r="E130" t="n">
+        <v>255</v>
+      </c>
+      <c r="F130" t="n">
+        <v>300</v>
+      </c>
+      <c r="G130" t="n">
+        <v>93983.82977306121</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>255</v>
-      </c>
-      <c r="C129" t="n">
-        <v>255</v>
-      </c>
-      <c r="D129" t="n">
-        <v>255</v>
-      </c>
-      <c r="E129" t="n">
-        <v>255</v>
-      </c>
-      <c r="F129" t="n">
-        <v>2</v>
-      </c>
-      <c r="G129" t="n">
-        <v>93983.82977306121</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>240</v>
-      </c>
-      <c r="L129" t="inlineStr">
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>256</v>
+      </c>
+      <c r="C131" t="n">
+        <v>257</v>
+      </c>
+      <c r="D131" t="n">
+        <v>257</v>
+      </c>
+      <c r="E131" t="n">
+        <v>256</v>
+      </c>
+      <c r="F131" t="n">
+        <v>2257.2296</v>
+      </c>
+      <c r="G131" t="n">
+        <v>96241.05937306122</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>255</v>
-      </c>
-      <c r="C130" t="n">
-        <v>255</v>
-      </c>
-      <c r="D130" t="n">
-        <v>255</v>
-      </c>
-      <c r="E130" t="n">
-        <v>255</v>
-      </c>
-      <c r="F130" t="n">
-        <v>300</v>
-      </c>
-      <c r="G130" t="n">
-        <v>93983.82977306121</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>240</v>
-      </c>
-      <c r="L130" t="inlineStr">
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>257</v>
+      </c>
+      <c r="C132" t="n">
+        <v>257</v>
+      </c>
+      <c r="D132" t="n">
+        <v>257</v>
+      </c>
+      <c r="E132" t="n">
+        <v>257</v>
+      </c>
+      <c r="F132" t="n">
+        <v>429.7443</v>
+      </c>
+      <c r="G132" t="n">
+        <v>96241.05937306122</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
         <v>256</v>
       </c>
-      <c r="C131" t="n">
-        <v>257</v>
-      </c>
-      <c r="D131" t="n">
-        <v>257</v>
-      </c>
-      <c r="E131" t="n">
+      <c r="C133" t="n">
         <v>256</v>
       </c>
-      <c r="F131" t="n">
-        <v>2257.2296</v>
-      </c>
-      <c r="G131" t="n">
-        <v>96241.05937306122</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>240</v>
-      </c>
-      <c r="L131" t="inlineStr">
+      <c r="D133" t="n">
+        <v>256</v>
+      </c>
+      <c r="E133" t="n">
+        <v>256</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1711.7099</v>
+      </c>
+      <c r="G133" t="n">
+        <v>94529.34947306121</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>256</v>
+      </c>
+      <c r="C134" t="n">
         <v>257</v>
       </c>
-      <c r="C132" t="n">
+      <c r="D134" t="n">
         <v>257</v>
       </c>
-      <c r="D132" t="n">
-        <v>257</v>
-      </c>
-      <c r="E132" t="n">
-        <v>257</v>
-      </c>
-      <c r="F132" t="n">
-        <v>429.7443</v>
-      </c>
-      <c r="G132" t="n">
-        <v>96241.05937306122</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>240</v>
-      </c>
-      <c r="L132" t="inlineStr">
+      <c r="E134" t="n">
+        <v>256</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1300.454</v>
+      </c>
+      <c r="G134" t="n">
+        <v>95829.80347306121</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>256</v>
-      </c>
-      <c r="C133" t="n">
-        <v>256</v>
-      </c>
-      <c r="D133" t="n">
-        <v>256</v>
-      </c>
-      <c r="E133" t="n">
-        <v>256</v>
-      </c>
-      <c r="F133" t="n">
-        <v>1711.7099</v>
-      </c>
-      <c r="G133" t="n">
-        <v>94529.34947306121</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>240</v>
-      </c>
-      <c r="L133" t="inlineStr">
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>257</v>
+      </c>
+      <c r="C135" t="n">
+        <v>258</v>
+      </c>
+      <c r="D135" t="n">
+        <v>258</v>
+      </c>
+      <c r="E135" t="n">
+        <v>257</v>
+      </c>
+      <c r="F135" t="n">
+        <v>2198.0099</v>
+      </c>
+      <c r="G135" t="n">
+        <v>98027.81337306122</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>256</v>
-      </c>
-      <c r="C134" t="n">
-        <v>257</v>
-      </c>
-      <c r="D134" t="n">
-        <v>257</v>
-      </c>
-      <c r="E134" t="n">
-        <v>256</v>
-      </c>
-      <c r="F134" t="n">
-        <v>1300.454</v>
-      </c>
-      <c r="G134" t="n">
-        <v>95829.80347306121</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>240</v>
-      </c>
-      <c r="L134" t="inlineStr">
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>258</v>
+      </c>
+      <c r="C136" t="n">
+        <v>259</v>
+      </c>
+      <c r="D136" t="n">
+        <v>259</v>
+      </c>
+      <c r="E136" t="n">
+        <v>258</v>
+      </c>
+      <c r="F136" t="n">
+        <v>438</v>
+      </c>
+      <c r="G136" t="n">
+        <v>98465.81337306122</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>257</v>
-      </c>
-      <c r="C135" t="n">
-        <v>258</v>
-      </c>
-      <c r="D135" t="n">
-        <v>258</v>
-      </c>
-      <c r="E135" t="n">
-        <v>257</v>
-      </c>
-      <c r="F135" t="n">
-        <v>2198.0099</v>
-      </c>
-      <c r="G135" t="n">
-        <v>98027.81337306122</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>240</v>
-      </c>
-      <c r="L135" t="inlineStr">
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>259</v>
+      </c>
+      <c r="C137" t="n">
+        <v>260</v>
+      </c>
+      <c r="D137" t="n">
+        <v>260</v>
+      </c>
+      <c r="E137" t="n">
+        <v>259</v>
+      </c>
+      <c r="F137" t="n">
+        <v>452.203</v>
+      </c>
+      <c r="G137" t="n">
+        <v>98918.01637306121</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>258</v>
-      </c>
-      <c r="C136" t="n">
-        <v>259</v>
-      </c>
-      <c r="D136" t="n">
-        <v>259</v>
-      </c>
-      <c r="E136" t="n">
-        <v>258</v>
-      </c>
-      <c r="F136" t="n">
-        <v>438</v>
-      </c>
-      <c r="G136" t="n">
-        <v>98465.81337306122</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>240</v>
-      </c>
-      <c r="L136" t="inlineStr">
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>260</v>
+      </c>
+      <c r="C138" t="n">
+        <v>260</v>
+      </c>
+      <c r="D138" t="n">
+        <v>260</v>
+      </c>
+      <c r="E138" t="n">
+        <v>260</v>
+      </c>
+      <c r="F138" t="n">
+        <v>3652</v>
+      </c>
+      <c r="G138" t="n">
+        <v>98918.01637306121</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>259</v>
-      </c>
-      <c r="C137" t="n">
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
         <v>260</v>
       </c>
-      <c r="D137" t="n">
+      <c r="C139" t="n">
+        <v>262</v>
+      </c>
+      <c r="D139" t="n">
+        <v>262</v>
+      </c>
+      <c r="E139" t="n">
         <v>260</v>
       </c>
-      <c r="E137" t="n">
-        <v>259</v>
-      </c>
-      <c r="F137" t="n">
-        <v>452.203</v>
-      </c>
-      <c r="G137" t="n">
-        <v>98918.01637306121</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>240</v>
-      </c>
-      <c r="L137" t="inlineStr">
+      <c r="F139" t="n">
+        <v>2812.0023</v>
+      </c>
+      <c r="G139" t="n">
+        <v>101730.0186730612</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>260</v>
-      </c>
-      <c r="C138" t="n">
-        <v>260</v>
-      </c>
-      <c r="D138" t="n">
-        <v>260</v>
-      </c>
-      <c r="E138" t="n">
-        <v>260</v>
-      </c>
-      <c r="F138" t="n">
-        <v>3652</v>
-      </c>
-      <c r="G138" t="n">
-        <v>98918.01637306121</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>240</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>260</v>
-      </c>
-      <c r="C139" t="n">
-        <v>262</v>
-      </c>
-      <c r="D139" t="n">
-        <v>262</v>
-      </c>
-      <c r="E139" t="n">
-        <v>260</v>
-      </c>
-      <c r="F139" t="n">
-        <v>2812.0023</v>
-      </c>
-      <c r="G139" t="n">
-        <v>101730.0186730612</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>240</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5622,24 +5123,17 @@
         <v>102730.0186730612</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>240</v>
-      </c>
-      <c r="L140" t="inlineStr">
+      <c r="K140" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5664,24 +5158,15 @@
         <v>102730.0186730612</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>240</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5706,24 +5191,15 @@
         <v>107736.4621730612</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>240</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5748,24 +5224,15 @@
         <v>103656.2852730612</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>240</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5790,24 +5257,15 @@
         <v>98490.75537306121</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>240</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5832,24 +5290,15 @@
         <v>98490.75537306121</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>240</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5874,24 +5323,15 @@
         <v>98961.81947306122</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>240</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5918,22 +5358,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>240</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5958,26 +5389,15 @@
         <v>99382.93617306121</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>240</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1.0825</v>
-      </c>
-      <c r="N148" t="n">
-        <v>1.113445378151261</v>
-      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6004,16 +5424,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>1</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6040,16 +5457,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>1</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6076,16 +5490,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>1</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6112,16 +5523,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>1</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6148,16 +5556,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>1</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6182,18 +5587,15 @@
         <v>87330.72056681121</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6218,18 +5620,15 @@
         <v>86123.07056681122</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6256,16 +5655,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6292,16 +5688,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6328,16 +5721,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6362,18 +5752,15 @@
         <v>86384.65867590213</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6400,16 +5787,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6436,16 +5820,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6472,16 +5853,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6508,16 +5886,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6544,16 +5919,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6580,16 +5952,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6616,16 +5985,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6650,18 +6016,15 @@
         <v>100373.3268759021</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6688,16 +6051,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>1</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6724,16 +6084,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>1</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6760,16 +6117,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>1</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6796,16 +6150,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>1</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6832,16 +6183,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>1</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6868,16 +6216,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>1</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6904,16 +6249,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>1</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6940,16 +6282,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>1</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6976,16 +6315,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7012,16 +6348,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7048,16 +6381,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>1</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7084,16 +6414,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7120,16 +6447,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7154,20 +6478,17 @@
         <v>97067.24937590216</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-15 BackTest ABT.xlsx
+++ b/BackTest/2019-11-15 BackTest ABT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,10 +484,14 @@
         <v>49103.8538</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>249</v>
+      </c>
+      <c r="J3" t="n">
+        <v>249</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>52178.55379999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>251</v>
+      </c>
+      <c r="J4" t="n">
+        <v>249</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>50894.49849999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>254</v>
+      </c>
+      <c r="J5" t="n">
+        <v>249</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,19 @@
         <v>60553.59559999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>248</v>
+      </c>
+      <c r="J6" t="n">
+        <v>249</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +644,19 @@
         <v>61781.82239999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>254</v>
+      </c>
+      <c r="J7" t="n">
+        <v>249</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -652,8 +688,14 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>249</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -685,8 +727,14 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>249</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -718,8 +766,14 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>249</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -751,8 +805,14 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>249</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -784,8 +844,14 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>249</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -817,8 +883,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>249</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -850,8 +922,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>249</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -883,8 +961,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>249</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -916,8 +1000,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>249</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -949,8 +1039,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>249</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -982,8 +1078,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>249</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1015,8 +1117,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>249</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1156,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>249</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1081,8 +1195,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>249</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1114,8 +1234,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>249</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1147,8 +1273,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>249</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1312,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>249</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1213,8 +1351,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>249</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1246,8 +1390,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>249</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1279,8 +1429,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>249</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1312,8 +1468,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>249</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1507,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>249</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1378,8 +1546,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>249</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1411,8 +1585,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>249</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1444,8 +1624,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>249</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1663,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>249</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1702,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>249</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1741,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>249</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1780,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>249</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1819,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>249</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1858,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>249</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1897,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>249</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1936,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>249</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +1975,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>249</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +2014,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>249</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +2053,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>249</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +2092,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>249</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +2131,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>249</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +2170,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>249</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +2209,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>249</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1972,8 +2248,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>249</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2287,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>249</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2326,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>249</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2365,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>249</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2104,8 +2404,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>249</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2443,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>249</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2482,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>249</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2521,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>249</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2236,8 +2560,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>249</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2269,8 +2599,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>249</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2302,8 +2638,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>249</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2335,8 +2677,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>249</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2368,8 +2716,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>249</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2401,8 +2755,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>249</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2434,8 +2794,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>249</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2467,8 +2833,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>249</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2500,8 +2872,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>249</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2533,8 +2911,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>249</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2566,8 +2950,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>249</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2599,8 +2989,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>249</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2632,8 +3028,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>249</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2665,8 +3067,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>249</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2698,8 +3106,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>249</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2731,8 +3145,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>249</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2764,8 +3184,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>249</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2797,8 +3223,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>249</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +3262,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>249</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +3301,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>249</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +3340,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>249</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2929,8 +3379,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>249</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2962,8 +3418,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>249</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2995,8 +3457,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>249</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3028,8 +3496,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>249</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3061,8 +3535,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>249</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3094,8 +3574,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>249</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3127,8 +3613,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>249</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3160,8 +3652,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>249</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3193,8 +3691,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>249</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3226,8 +3730,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>249</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3259,8 +3769,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>249</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3292,8 +3808,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>249</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3325,8 +3847,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>249</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3358,8 +3886,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>249</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3391,8 +3925,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>249</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3424,8 +3964,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>249</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3457,8 +4003,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>249</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3490,8 +4042,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>249</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3523,8 +4081,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>249</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3556,8 +4120,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>249</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3589,8 +4159,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>249</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3622,8 +4198,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>249</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3655,8 +4237,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>249</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3688,8 +4276,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>249</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3721,8 +4315,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>249</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3754,8 +4354,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>249</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3787,8 +4393,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>249</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3820,8 +4432,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>249</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3853,8 +4471,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>249</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3886,8 +4510,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>249</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3919,8 +4549,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>249</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3952,8 +4588,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>249</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3985,8 +4627,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>249</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4018,8 +4666,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>249</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4051,8 +4705,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>249</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4084,8 +4744,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>249</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4117,8 +4783,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>249</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4147,15 +4819,15 @@
         <v>81243.92109999996</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
-      </c>
-      <c r="I114" t="n">
-        <v>238</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>249</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L114" t="n">
@@ -4186,12 +4858,12 @@
         <v>81364.49129999997</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
-      </c>
-      <c r="I115" t="n">
-        <v>240</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>249</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4225,12 +4897,12 @@
         <v>81364.49129999997</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
-      </c>
-      <c r="I116" t="n">
-        <v>241</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>249</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4264,12 +4936,12 @@
         <v>84183.45189999997</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
-      </c>
-      <c r="I117" t="n">
-        <v>241</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>249</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4303,12 +4975,12 @@
         <v>83713.9764408163</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
-      </c>
-      <c r="I118" t="n">
-        <v>244</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>249</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4342,12 +5014,12 @@
         <v>83945.13117306121</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
-      </c>
-      <c r="I119" t="n">
-        <v>241</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>249</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4381,12 +5053,12 @@
         <v>82545.13117306121</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
-      </c>
-      <c r="I120" t="n">
-        <v>245</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>249</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4423,7 +5095,9 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>249</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4460,7 +5134,9 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>249</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4497,7 +5173,9 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>249</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4534,7 +5212,9 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>249</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4571,7 +5251,9 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>249</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4608,7 +5290,9 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>249</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4645,7 +5329,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>249</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4682,7 +5368,9 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>249</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4719,7 +5407,9 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>249</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4756,7 +5446,9 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>249</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4793,7 +5485,9 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>249</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4830,7 +5524,9 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>249</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4867,7 +5563,9 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>249</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4904,7 +5602,9 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>249</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4941,7 +5641,9 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>249</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4978,7 +5680,9 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>249</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5015,7 +5719,9 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>249</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5052,7 +5758,9 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>249</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5089,7 +5797,9 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>249</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5123,16 +5833,20 @@
         <v>102730.0186730612</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>249</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L140" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
       <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
@@ -5158,11 +5872,17 @@
         <v>102730.0186730612</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>249</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5191,11 +5911,17 @@
         <v>107736.4621730612</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>249</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5224,11 +5950,17 @@
         <v>103656.2852730612</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>249</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5257,11 +5989,17 @@
         <v>98490.75537306121</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>249</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5290,11 +6028,17 @@
         <v>98490.75537306121</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>249</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5323,11 +6067,17 @@
         <v>98961.81947306122</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>249</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5359,8 +6109,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>249</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5389,11 +6145,17 @@
         <v>99382.93617306121</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>249</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5425,8 +6187,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>249</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5455,13 +6223,19 @@
         <v>90994.68567306122</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>249</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L150" t="n">
-        <v>1</v>
+        <v>1.035160642570281</v>
       </c>
       <c r="M150" t="inlineStr"/>
     </row>
@@ -5488,7 +6262,7 @@
         <v>90690.41197306121</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5521,7 +6295,7 @@
         <v>87830.72056681121</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5554,7 +6328,7 @@
         <v>87330.72056681121</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5587,7 +6361,7 @@
         <v>87330.72056681121</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5620,7 +6394,7 @@
         <v>86123.07056681122</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5653,7 +6427,7 @@
         <v>86049.88676681122</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5686,7 +6460,7 @@
         <v>86322.97767590213</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5719,7 +6493,7 @@
         <v>86584.65867590213</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5752,7 +6526,7 @@
         <v>86384.65867590213</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5785,7 +6559,7 @@
         <v>86394.65867590213</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5818,7 +6592,7 @@
         <v>86798.65867590213</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5851,7 +6625,7 @@
         <v>88428.40567590213</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5884,7 +6658,7 @@
         <v>88428.40567590213</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5917,7 +6691,7 @@
         <v>88678.40567590213</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5950,7 +6724,7 @@
         <v>94786.86627590214</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5983,7 +6757,7 @@
         <v>100375.3268759021</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6016,7 +6790,7 @@
         <v>100373.3268759021</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6478,7 +7252,7 @@
         <v>97067.24937590216</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6489,6 +7263,6 @@
       <c r="M181" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-15 BackTest ABT.xlsx
+++ b/BackTest/2019-11-15 BackTest ABT.xlsx
@@ -451,7 +451,7 @@
         <v>48743.8538</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>49103.8538</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>249</v>
+      </c>
+      <c r="J3" t="n">
+        <v>249</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>52178.55379999999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>251</v>
+      </c>
+      <c r="J4" t="n">
+        <v>249</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>50894.49849999999</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>254</v>
+      </c>
+      <c r="J5" t="n">
+        <v>249</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,19 @@
         <v>60553.59559999999</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>248</v>
+      </c>
+      <c r="J6" t="n">
+        <v>249</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +644,17 @@
         <v>61781.82239999999</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>249</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +683,17 @@
         <v>61783.82239999999</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>249</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +722,17 @@
         <v>61783.82239999999</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>249</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +761,17 @@
         <v>61562.35779999999</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>249</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +800,17 @@
         <v>61442.35779999999</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>249</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +839,17 @@
         <v>61482.35779999999</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>249</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +878,17 @@
         <v>61460.36539999999</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>249</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +917,17 @@
         <v>61462.36539999999</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>249</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -883,8 +959,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>249</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +995,17 @@
         <v>61413.89299999999</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>249</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1034,17 @@
         <v>60595.66239999999</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>249</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1073,17 @@
         <v>58717.66659999999</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>249</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1015,8 +1115,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>249</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1154,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>249</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1081,8 +1193,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>249</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1114,8 +1232,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>249</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1147,8 +1271,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>249</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1310,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>249</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1213,8 +1349,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>249</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1246,8 +1388,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>249</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1279,8 +1427,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>249</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1312,8 +1466,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>249</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1505,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>249</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1378,8 +1544,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>249</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1411,8 +1583,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>249</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1444,8 +1622,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>249</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1661,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>249</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1700,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>249</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1739,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>249</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1778,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>249</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1817,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>249</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1856,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>249</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1895,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>249</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1934,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>249</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +1973,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>249</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +2012,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>249</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +2051,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>249</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +2090,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>249</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +2129,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>249</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +2168,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>249</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +2207,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>249</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1972,8 +2246,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>249</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2285,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>249</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2324,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>249</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2363,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>249</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2104,8 +2402,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>249</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2441,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>249</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2480,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>249</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2519,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>249</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2236,8 +2558,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>249</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2269,8 +2597,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>249</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2302,8 +2636,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>249</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2335,8 +2675,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>249</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2368,8 +2714,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>249</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2401,8 +2753,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>249</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2434,8 +2792,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>249</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2467,8 +2831,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>249</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2500,8 +2870,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>249</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2533,8 +2909,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>249</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2566,8 +2948,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>249</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2599,8 +2987,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>249</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2632,8 +3026,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>249</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2665,8 +3065,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>249</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2698,8 +3104,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>249</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2731,8 +3143,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>249</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2764,8 +3182,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>249</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2797,8 +3221,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>249</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +3260,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>249</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +3299,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>249</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +3338,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>249</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2929,8 +3377,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>249</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2962,8 +3416,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>249</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2995,8 +3455,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>249</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3028,8 +3494,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>249</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3061,8 +3533,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>249</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3094,8 +3572,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>249</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3127,8 +3611,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>249</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3160,8 +3650,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>249</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3193,8 +3689,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>249</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3226,8 +3728,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>249</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3259,8 +3767,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>249</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3292,8 +3806,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>249</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3325,8 +3845,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>249</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3358,8 +3884,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>249</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3391,8 +3923,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>249</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3424,8 +3962,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>249</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3457,8 +4001,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>249</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3490,8 +4040,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>249</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3523,8 +4079,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>249</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3556,8 +4118,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>249</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3589,8 +4157,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>249</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3622,8 +4196,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>249</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3655,8 +4235,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>249</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3688,8 +4274,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>249</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3721,8 +4313,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>249</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3754,8 +4352,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>249</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3787,8 +4391,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>249</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3820,8 +4430,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>249</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3853,8 +4469,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>249</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3886,8 +4508,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>249</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3919,8 +4547,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>249</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3952,8 +4586,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>249</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3985,8 +4625,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>249</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4015,15 +4661,17 @@
         <v>77774.28459999997</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>240</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>240</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
+        <v>249</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4052,17 +4700,15 @@
         <v>76785.28459999997</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>240</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L111" t="n">
@@ -4093,17 +4739,15 @@
         <v>76218.25089999997</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>239</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L112" t="n">
@@ -4134,13 +4778,11 @@
         <v>76218.25089999997</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>238</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4179,7 +4821,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4214,13 +4856,11 @@
         <v>81364.49129999997</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>240</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4255,13 +4895,11 @@
         <v>81364.49129999997</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>241</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4296,13 +4934,11 @@
         <v>84183.45189999997</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>241</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4341,7 +4977,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4380,7 +5016,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4419,7 +5055,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4458,7 +5094,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4497,7 +5133,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4536,7 +5172,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4575,7 +5211,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4614,7 +5250,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -4653,7 +5289,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -4692,7 +5328,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -4731,7 +5367,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -4770,7 +5406,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -4809,7 +5445,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -4848,7 +5484,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -4887,7 +5523,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -4926,7 +5562,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -4965,7 +5601,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5004,7 +5640,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5043,7 +5679,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5082,7 +5718,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5121,7 +5757,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5160,7 +5796,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5195,23 +5831,21 @@
         <v>102730.0186730612</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L140" t="n">
-        <v>1.090833333333334</v>
-      </c>
-      <c r="M140" t="n">
-        <v>1.113445378151261</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5239,8 +5873,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>249</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5272,8 +5912,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>249</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5305,8 +5951,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>249</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5338,8 +5990,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>249</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5371,8 +6029,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>249</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5404,8 +6068,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>249</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5437,8 +6107,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>249</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5470,8 +6146,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>249</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5503,8 +6185,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>249</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5536,8 +6224,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>249</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5569,8 +6263,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>249</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5602,8 +6302,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>249</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5635,8 +6341,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>249</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5668,8 +6380,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>249</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5701,8 +6419,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>249</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5734,8 +6458,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>249</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5767,8 +6497,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>249</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5800,8 +6536,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>249</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5833,8 +6575,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>249</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5866,8 +6614,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>249</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5899,8 +6653,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>249</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5932,8 +6692,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>249</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5965,8 +6731,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>249</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5998,8 +6770,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>249</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6031,8 +6809,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>249</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6061,13 +6845,19 @@
         <v>100375.3268759021</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>249</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L166" t="n">
-        <v>1</v>
+        <v>1.043192771084337</v>
       </c>
       <c r="M166" t="inlineStr"/>
     </row>
@@ -6094,7 +6884,7 @@
         <v>100373.3268759021</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6127,7 +6917,7 @@
         <v>100373.3268759021</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6160,7 +6950,7 @@
         <v>101123.3268759021</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6193,7 +6983,7 @@
         <v>101123.3268759021</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6226,7 +7016,7 @@
         <v>101123.3268759021</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6259,7 +7049,7 @@
         <v>101123.3268759021</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6292,7 +7082,7 @@
         <v>101123.3268759021</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6325,7 +7115,7 @@
         <v>97412.52117590215</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6358,7 +7148,7 @@
         <v>97412.52117590215</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6391,7 +7181,7 @@
         <v>97412.52117590215</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6457,7 +7247,7 @@
         <v>98966.14837590215</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6490,7 +7280,7 @@
         <v>95474.83137590215</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6523,7 +7313,7 @@
         <v>95474.83137590215</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
